--- a/lang/sl/headTags.xlsx
+++ b/lang/sl/headTags.xlsx
@@ -10,19 +10,19 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1169</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1170">
   <si>
     <t>en</t>
   </si>
   <si>
-    <t>sl</t>
+    <t>sl (Slovenian)</t>
   </si>
   <si>
     <t>101 Dalmatians</t>
@@ -511,6 +511,9 @@
     <t>Charlie and the Chocolate Factory</t>
   </si>
   <si>
+    <t>Chase the Skies</t>
+  </si>
+  <si>
     <t>Cheese</t>
   </si>
   <si>
@@ -982,6 +985,9 @@
     <t>Fairy Tales</t>
   </si>
   <si>
+    <t>Fall Drop</t>
+  </si>
+  <si>
     <t>Fall Guys</t>
   </si>
   <si>
@@ -1747,6 +1753,9 @@
     <t>Hypixel</t>
   </si>
   <si>
+    <t>Hypixel (Attribute Shard)</t>
+  </si>
+  <si>
     <t>Hypixel (Dyes)</t>
   </si>
   <si>
@@ -2638,6 +2647,9 @@
     <t>Quake</t>
   </si>
   <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
     <t>Rabbit</t>
   </si>
   <si>
@@ -2959,6 +2971,9 @@
     <t>Spooky's Jump Scare Mansion</t>
   </si>
   <si>
+    <t>Spore</t>
+  </si>
+  <si>
     <t>Sport</t>
   </si>
   <si>
@@ -3047,9 +3062,6 @@
   </si>
   <si>
     <t>Summer</t>
-  </si>
-  <si>
-    <t>Summer Drop 2025</t>
   </si>
   <si>
     <t>Sunglasses</t>
@@ -3861,7 +3873,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1165"/>
+  <dimension ref="A1:B1169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9702,8 +9714,28 @@
         <v>1165</v>
       </c>
     </row>
+    <row r="1166" spans="1:2">
+      <c r="A1166" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2">
+      <c r="A1167" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2">
+      <c r="A1168" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2">
+      <c r="A1169" t="s">
+        <v>1169</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1165"/>
+  <autoFilter ref="A1:B1169"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/sl/headTags.xlsx
+++ b/lang/sl/headTags.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1183">
   <si>
     <t>en</t>
   </si>
@@ -28,27 +28,48 @@
     <t>101 Dalmatians</t>
   </si>
   <si>
+    <t>101 dalmatinec</t>
+  </si>
+  <si>
     <t>A Clockwork Orange</t>
   </si>
   <si>
     <t>A Hat in Time</t>
   </si>
   <si>
+    <t>Klobuk v času</t>
+  </si>
+  <si>
     <t>A Nightmare on Elm Street</t>
   </si>
   <si>
+    <t>Nočna mora v ulici Elm Street</t>
+  </si>
+  <si>
     <t>A Series of Unfortunate Events</t>
   </si>
   <si>
+    <t>Serija nesrečnih dogodkov</t>
+  </si>
+  <si>
     <t>Accessories</t>
   </si>
   <si>
+    <t>Dodatki</t>
+  </si>
+  <si>
     <t>Ace Attorney</t>
   </si>
   <si>
+    <t>Odvetnik Ace</t>
+  </si>
+  <si>
     <t>Adventure Time</t>
   </si>
   <si>
+    <t>Čas pustolovščin</t>
+  </si>
+  <si>
     <t>Aether Mod</t>
   </si>
   <si>
@@ -64,6 +85,9 @@
     <t>Alcohol</t>
   </si>
   <si>
+    <t>Alkohol</t>
+  </si>
+  <si>
     <t>Alex</t>
   </si>
   <si>
@@ -73,19 +97,34 @@
     <t>Alice Band</t>
   </si>
   <si>
+    <t>Skupina Alice Band</t>
+  </si>
+  <si>
     <t>Alice in Wonderland</t>
   </si>
   <si>
+    <t>Alica v čudežni deželi</t>
+  </si>
+  <si>
     <t>Alien</t>
   </si>
   <si>
     <t>Alien (Movie)</t>
   </si>
   <si>
+    <t>Nezemljan (film)</t>
+  </si>
+  <si>
     <t>Alphabet (Braille)</t>
   </si>
   <si>
+    <t>Abeceda (Braillova pisava)</t>
+  </si>
+  <si>
     <t>Alphabet (Cyrillic)</t>
+  </si>
+  <si>
+    <t>Abeceda (cirilica)</t>
   </si>
   <si>
     <t>Alphabet (Greek)</t>
@@ -3898,5840 +3937,5903 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>706</v>
+        <v>719</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
     </row>
     <row r="717" spans="1:2">
       <c r="A717" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" t="s">
-        <v>719</v>
+        <v>732</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" t="s">
-        <v>721</v>
+        <v>734</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" t="s">
-        <v>723</v>
+        <v>736</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>724</v>
+        <v>737</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726" t="s">
-        <v>726</v>
+        <v>739</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" t="s">
-        <v>729</v>
+        <v>742</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>730</v>
+        <v>743</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" t="s">
-        <v>731</v>
+        <v>744</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" t="s">
-        <v>732</v>
+        <v>745</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" t="s">
-        <v>733</v>
+        <v>746</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>734</v>
+        <v>747</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>735</v>
+        <v>748</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>738</v>
+        <v>751</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>739</v>
+        <v>752</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>741</v>
+        <v>754</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>743</v>
+        <v>756</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>744</v>
+        <v>757</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>746</v>
+        <v>759</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>747</v>
+        <v>760</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" t="s">
-        <v>749</v>
+        <v>762</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
-        <v>754</v>
+        <v>767</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>786</v>
+        <v>799</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>792</v>
+        <v>805</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>795</v>
+        <v>808</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>798</v>
+        <v>811</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
     </row>
     <row r="801" spans="1:2">
       <c r="A801" t="s">
-        <v>801</v>
+        <v>814</v>
       </c>
     </row>
     <row r="802" spans="1:2">
       <c r="A802" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
     </row>
     <row r="803" spans="1:2">
       <c r="A803" t="s">
-        <v>803</v>
+        <v>816</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
     </row>
     <row r="810" spans="1:2">
       <c r="A810" t="s">
-        <v>810</v>
+        <v>823</v>
       </c>
     </row>
     <row r="811" spans="1:2">
       <c r="A811" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>818</v>
+        <v>831</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>819</v>
+        <v>832</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
-        <v>824</v>
+        <v>837</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>827</v>
+        <v>840</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>830</v>
+        <v>843</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" t="s">
-        <v>839</v>
+        <v>852</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" t="s">
-        <v>847</v>
+        <v>860</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" t="s">
-        <v>848</v>
+        <v>861</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" t="s">
-        <v>849</v>
+        <v>862</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" t="s">
-        <v>850</v>
+        <v>863</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" t="s">
-        <v>851</v>
+        <v>864</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" t="s">
-        <v>852</v>
+        <v>865</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
     </row>
     <row r="854" spans="1:2">
       <c r="A854" t="s">
-        <v>854</v>
+        <v>867</v>
       </c>
     </row>
     <row r="855" spans="1:2">
       <c r="A855" t="s">
-        <v>855</v>
+        <v>868</v>
       </c>
     </row>
     <row r="856" spans="1:2">
       <c r="A856" t="s">
-        <v>856</v>
+        <v>869</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>859</v>
+        <v>872</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>860</v>
+        <v>873</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>861</v>
+        <v>874</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>863</v>
+        <v>876</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>864</v>
+        <v>877</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>865</v>
+        <v>878</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>866</v>
+        <v>879</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>867</v>
+        <v>880</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>868</v>
+        <v>881</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
-        <v>870</v>
+        <v>883</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" t="s">
-        <v>871</v>
+        <v>884</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
-        <v>872</v>
+        <v>885</v>
       </c>
     </row>
     <row r="873" spans="1:2">
       <c r="A873" t="s">
-        <v>873</v>
+        <v>886</v>
       </c>
     </row>
     <row r="874" spans="1:2">
       <c r="A874" t="s">
-        <v>874</v>
+        <v>887</v>
       </c>
     </row>
     <row r="875" spans="1:2">
       <c r="A875" t="s">
-        <v>875</v>
+        <v>888</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" t="s">
-        <v>876</v>
+        <v>889</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>877</v>
+        <v>890</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>878</v>
+        <v>891</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>879</v>
+        <v>892</v>
       </c>
     </row>
     <row r="880" spans="1:2">
       <c r="A880" t="s">
-        <v>880</v>
+        <v>893</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>881</v>
+        <v>894</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>882</v>
+        <v>895</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>883</v>
+        <v>896</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>884</v>
+        <v>897</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>885</v>
+        <v>898</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>886</v>
+        <v>899</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>887</v>
+        <v>900</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>888</v>
+        <v>901</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>889</v>
+        <v>902</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>890</v>
+        <v>903</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>891</v>
+        <v>904</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>892</v>
+        <v>905</v>
       </c>
     </row>
     <row r="893" spans="1:2">
       <c r="A893" t="s">
-        <v>893</v>
+        <v>906</v>
       </c>
     </row>
     <row r="894" spans="1:2">
       <c r="A894" t="s">
-        <v>894</v>
+        <v>907</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>895</v>
+        <v>908</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>896</v>
+        <v>909</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
-        <v>897</v>
+        <v>910</v>
       </c>
     </row>
     <row r="898" spans="1:2">
       <c r="A898" t="s">
-        <v>898</v>
+        <v>911</v>
       </c>
     </row>
     <row r="899" spans="1:2">
       <c r="A899" t="s">
-        <v>899</v>
+        <v>912</v>
       </c>
     </row>
     <row r="900" spans="1:2">
       <c r="A900" t="s">
-        <v>900</v>
+        <v>913</v>
       </c>
     </row>
     <row r="901" spans="1:2">
       <c r="A901" t="s">
-        <v>901</v>
+        <v>914</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>902</v>
+        <v>915</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>903</v>
+        <v>916</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>904</v>
+        <v>917</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>905</v>
+        <v>918</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>906</v>
+        <v>919</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>907</v>
+        <v>920</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>908</v>
+        <v>921</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>909</v>
+        <v>922</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
-        <v>910</v>
+        <v>923</v>
       </c>
     </row>
     <row r="911" spans="1:2">
       <c r="A911" t="s">
-        <v>911</v>
+        <v>924</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" t="s">
-        <v>912</v>
+        <v>925</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>913</v>
+        <v>926</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>914</v>
+        <v>927</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>915</v>
+        <v>928</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
-        <v>916</v>
+        <v>929</v>
       </c>
     </row>
     <row r="917" spans="1:2">
       <c r="A917" t="s">
-        <v>917</v>
+        <v>930</v>
       </c>
     </row>
     <row r="918" spans="1:2">
       <c r="A918" t="s">
-        <v>918</v>
+        <v>931</v>
       </c>
     </row>
     <row r="919" spans="1:2">
       <c r="A919" t="s">
-        <v>919</v>
+        <v>932</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>920</v>
+        <v>933</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>921</v>
+        <v>934</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>922</v>
+        <v>935</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
-        <v>923</v>
+        <v>936</v>
       </c>
     </row>
     <row r="924" spans="1:2">
       <c r="A924" t="s">
-        <v>924</v>
+        <v>937</v>
       </c>
     </row>
     <row r="925" spans="1:2">
       <c r="A925" t="s">
-        <v>925</v>
+        <v>938</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>926</v>
+        <v>939</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
-        <v>927</v>
+        <v>940</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>928</v>
+        <v>941</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>929</v>
+        <v>942</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>930</v>
+        <v>943</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>931</v>
+        <v>944</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
-        <v>932</v>
+        <v>945</v>
       </c>
     </row>
     <row r="933" spans="1:2">
       <c r="A933" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
-        <v>934</v>
+        <v>947</v>
       </c>
     </row>
     <row r="935" spans="1:2">
       <c r="A935" t="s">
-        <v>935</v>
+        <v>948</v>
       </c>
     </row>
     <row r="936" spans="1:2">
       <c r="A936" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" t="s">
-        <v>937</v>
+        <v>950</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>938</v>
+        <v>951</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>939</v>
+        <v>952</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>940</v>
+        <v>953</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>941</v>
+        <v>954</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>942</v>
+        <v>955</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>943</v>
+        <v>956</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>944</v>
+        <v>957</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>945</v>
+        <v>958</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>946</v>
+        <v>959</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>947</v>
+        <v>960</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>948</v>
+        <v>961</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>949</v>
+        <v>962</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>950</v>
+        <v>963</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
-        <v>951</v>
+        <v>964</v>
       </c>
     </row>
     <row r="952" spans="1:2">
       <c r="A952" t="s">
-        <v>952</v>
+        <v>965</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>953</v>
+        <v>966</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>954</v>
+        <v>967</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>955</v>
+        <v>968</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>956</v>
+        <v>969</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
-        <v>957</v>
+        <v>970</v>
       </c>
     </row>
     <row r="958" spans="1:2">
       <c r="A958" t="s">
-        <v>958</v>
+        <v>971</v>
       </c>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" t="s">
-        <v>959</v>
+        <v>972</v>
       </c>
     </row>
     <row r="960" spans="1:2">
       <c r="A960" t="s">
-        <v>960</v>
+        <v>973</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
-        <v>961</v>
+        <v>974</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>962</v>
+        <v>975</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>963</v>
+        <v>976</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>964</v>
+        <v>977</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>965</v>
+        <v>978</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>966</v>
+        <v>979</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
-        <v>967</v>
+        <v>980</v>
       </c>
     </row>
     <row r="968" spans="1:2">
       <c r="A968" t="s">
-        <v>968</v>
+        <v>981</v>
       </c>
     </row>
     <row r="969" spans="1:2">
       <c r="A969" t="s">
-        <v>969</v>
+        <v>982</v>
       </c>
     </row>
     <row r="970" spans="1:2">
       <c r="A970" t="s">
-        <v>970</v>
+        <v>983</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" t="s">
-        <v>971</v>
+        <v>984</v>
       </c>
     </row>
     <row r="972" spans="1:2">
       <c r="A972" t="s">
-        <v>972</v>
+        <v>985</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>973</v>
+        <v>986</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
-        <v>974</v>
+        <v>987</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
-        <v>975</v>
+        <v>988</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>976</v>
+        <v>989</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>977</v>
+        <v>990</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>978</v>
+        <v>991</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>979</v>
+        <v>992</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>980</v>
+        <v>993</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>981</v>
+        <v>994</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>982</v>
+        <v>995</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>983</v>
+        <v>996</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>984</v>
+        <v>997</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>985</v>
+        <v>998</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>986</v>
+        <v>999</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>987</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>988</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
-        <v>989</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>990</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>991</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
-        <v>992</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>993</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>994</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>995</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>996</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>997</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
-        <v>998</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="999" spans="1:2">
       <c r="A999" t="s">
-        <v>999</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1000</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1001</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1002</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1003</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1004</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1005</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1006</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1007</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1008</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1009</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1010</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1011</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1012</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1013</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1014</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1015</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1016</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1017</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" t="s">
-        <v>1018</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
-        <v>1019</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
-        <v>1020</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1021</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" t="s">
-        <v>1022</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1023</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1024</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1025</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1026</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1027</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1028</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1029</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1030</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1031</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1032</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1033</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1034</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1035</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
-        <v>1036</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
-        <v>1037</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" t="s">
-        <v>1038</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" t="s">
-        <v>1039</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
-        <v>1040</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1041</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
-        <v>1042</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
-        <v>1043</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1044</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
-        <v>1045</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1046</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1047</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
-        <v>1048</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
-        <v>1049</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
-        <v>1050</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" t="s">
-        <v>1051</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" t="s">
-        <v>1052</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" t="s">
-        <v>1053</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
       <c r="A1054" t="s">
-        <v>1054</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
       <c r="A1055" t="s">
-        <v>1055</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" t="s">
-        <v>1056</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" t="s">
-        <v>1057</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" t="s">
-        <v>1058</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
-        <v>1059</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
-        <v>1060</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" t="s">
-        <v>1061</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
-        <v>1062</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" t="s">
-        <v>1063</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" t="s">
-        <v>1064</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" t="s">
-        <v>1066</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" t="s">
-        <v>1067</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
-        <v>1068</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1069</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1070</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1071</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1072</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1074</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1075</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1076</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1077</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1078</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1079</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
-        <v>1080</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1081</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1082</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
-        <v>1083</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
-        <v>1084</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
-        <v>1085</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
-        <v>1086</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
-        <v>1087</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1088</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
-        <v>1089</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
-        <v>1090</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1091</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
-        <v>1092</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093" t="s">
-        <v>1093</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>1094</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" t="s">
-        <v>1095</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
-        <v>1096</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1097</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1098</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1099</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1100</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1101</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1102</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1103</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1104</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1105</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1106</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1107</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1108</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>1109</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1110</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" t="s">
-        <v>1111</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
-        <v>1112</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
-        <v>1113</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
-        <v>1114</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
-        <v>1115</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
-        <v>1116</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
-        <v>1117</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
-        <v>1118</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
-        <v>1119</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
-        <v>1120</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
-        <v>1121</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" t="s">
-        <v>1122</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" t="s">
-        <v>1123</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" t="s">
-        <v>1124</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" t="s">
-        <v>1125</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" t="s">
-        <v>1126</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
-        <v>1127</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1128</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1129</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1130</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1131</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1132</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1133</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1134</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1135</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1136</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1137</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1138</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1139</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1140</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1141</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
-        <v>1142</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
-        <v>1143</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
-        <v>1144</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
-        <v>1145</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
-        <v>1146</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1147</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>1148</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
-        <v>1149</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1150</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
-        <v>1151</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1152</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>1153</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1154</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1155</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1156</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1157</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1158</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1159</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1160</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1161</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1162</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1163</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1164</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1165</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1167</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1168</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1169</v>
+        <v>1182</v>
       </c>
     </row>
   </sheetData>

--- a/lang/sl/headTags.xlsx
+++ b/lang/sl/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1969">
   <si>
     <t>en</t>
   </si>
@@ -1574,6 +1574,9 @@
   </si>
   <si>
     <t>Eksplozivni</t>
+  </si>
+  <si>
+    <t>Eye</t>
   </si>
   <si>
     <t>Eyepatch</t>
@@ -6267,7 +6270,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1169"/>
+  <dimension ref="A1:B1170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -8805,12 +8808,12 @@
         <v>520</v>
       </c>
       <c r="B316" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B317" t="s">
         <v>522</v>
@@ -8845,28 +8848,28 @@
         <v>526</v>
       </c>
       <c r="B321" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
+        <v>527</v>
+      </c>
+      <c r="B322" t="s">
         <v>528</v>
-      </c>
-      <c r="B322" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
+        <v>529</v>
+      </c>
+      <c r="B323" t="s">
         <v>530</v>
-      </c>
-      <c r="B323" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B324" t="s">
         <v>532</v>
@@ -8885,36 +8888,36 @@
         <v>534</v>
       </c>
       <c r="B326" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
+        <v>535</v>
+      </c>
+      <c r="B327" t="s">
         <v>536</v>
-      </c>
-      <c r="B327" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" t="s">
+        <v>537</v>
+      </c>
+      <c r="B328" t="s">
         <v>538</v>
-      </c>
-      <c r="B328" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
+        <v>539</v>
+      </c>
+      <c r="B329" t="s">
         <v>540</v>
-      </c>
-      <c r="B329" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B330" t="s">
         <v>542</v>
@@ -8925,68 +8928,68 @@
         <v>543</v>
       </c>
       <c r="B331" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
+        <v>544</v>
+      </c>
+      <c r="B332" t="s">
         <v>545</v>
-      </c>
-      <c r="B332" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
+        <v>546</v>
+      </c>
+      <c r="B333" t="s">
         <v>547</v>
-      </c>
-      <c r="B333" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" t="s">
+        <v>548</v>
+      </c>
+      <c r="B334" t="s">
         <v>549</v>
-      </c>
-      <c r="B334" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" t="s">
+        <v>550</v>
+      </c>
+      <c r="B335" t="s">
         <v>551</v>
-      </c>
-      <c r="B335" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" t="s">
+        <v>552</v>
+      </c>
+      <c r="B336" t="s">
         <v>553</v>
-      </c>
-      <c r="B336" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
+        <v>554</v>
+      </c>
+      <c r="B337" t="s">
         <v>555</v>
-      </c>
-      <c r="B337" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
+        <v>556</v>
+      </c>
+      <c r="B338" t="s">
         <v>557</v>
-      </c>
-      <c r="B338" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B339" t="s">
         <v>559</v>
@@ -8997,20 +9000,20 @@
         <v>560</v>
       </c>
       <c r="B340" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
+        <v>561</v>
+      </c>
+      <c r="B341" t="s">
         <v>562</v>
-      </c>
-      <c r="B341" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B342" t="s">
         <v>564</v>
@@ -9021,164 +9024,164 @@
         <v>565</v>
       </c>
       <c r="B343" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" t="s">
+        <v>566</v>
+      </c>
+      <c r="B344" t="s">
         <v>567</v>
-      </c>
-      <c r="B344" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" t="s">
+        <v>568</v>
+      </c>
+      <c r="B345" t="s">
         <v>569</v>
-      </c>
-      <c r="B345" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" t="s">
+        <v>570</v>
+      </c>
+      <c r="B346" t="s">
         <v>571</v>
-      </c>
-      <c r="B346" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
+        <v>572</v>
+      </c>
+      <c r="B347" t="s">
         <v>573</v>
-      </c>
-      <c r="B347" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" t="s">
+        <v>574</v>
+      </c>
+      <c r="B348" t="s">
         <v>575</v>
-      </c>
-      <c r="B348" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" t="s">
+        <v>576</v>
+      </c>
+      <c r="B349" t="s">
         <v>577</v>
-      </c>
-      <c r="B349" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" t="s">
+        <v>578</v>
+      </c>
+      <c r="B350" t="s">
         <v>579</v>
-      </c>
-      <c r="B350" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" t="s">
+        <v>580</v>
+      </c>
+      <c r="B351" t="s">
         <v>581</v>
-      </c>
-      <c r="B351" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" t="s">
+        <v>582</v>
+      </c>
+      <c r="B352" t="s">
         <v>583</v>
-      </c>
-      <c r="B352" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" t="s">
+        <v>584</v>
+      </c>
+      <c r="B353" t="s">
         <v>585</v>
-      </c>
-      <c r="B353" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
+        <v>586</v>
+      </c>
+      <c r="B354" t="s">
         <v>587</v>
-      </c>
-      <c r="B354" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" t="s">
+        <v>588</v>
+      </c>
+      <c r="B355" t="s">
         <v>589</v>
-      </c>
-      <c r="B355" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" t="s">
+        <v>590</v>
+      </c>
+      <c r="B356" t="s">
         <v>591</v>
-      </c>
-      <c r="B356" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" t="s">
+        <v>592</v>
+      </c>
+      <c r="B357" t="s">
         <v>593</v>
-      </c>
-      <c r="B357" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" t="s">
+        <v>594</v>
+      </c>
+      <c r="B358" t="s">
         <v>595</v>
-      </c>
-      <c r="B358" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" t="s">
+        <v>596</v>
+      </c>
+      <c r="B359" t="s">
         <v>597</v>
-      </c>
-      <c r="B359" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
+        <v>598</v>
+      </c>
+      <c r="B360" t="s">
         <v>599</v>
-      </c>
-      <c r="B360" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
+        <v>600</v>
+      </c>
+      <c r="B361" t="s">
         <v>601</v>
-      </c>
-      <c r="B361" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" t="s">
+        <v>602</v>
+      </c>
+      <c r="B362" t="s">
         <v>603</v>
-      </c>
-      <c r="B362" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B363" t="s">
         <v>605</v>
@@ -9189,524 +9192,524 @@
         <v>606</v>
       </c>
       <c r="B364" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" t="s">
+        <v>607</v>
+      </c>
+      <c r="B365" t="s">
         <v>608</v>
-      </c>
-      <c r="B365" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
+        <v>609</v>
+      </c>
+      <c r="B366" t="s">
         <v>610</v>
-      </c>
-      <c r="B366" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" t="s">
+        <v>611</v>
+      </c>
+      <c r="B367" t="s">
         <v>612</v>
-      </c>
-      <c r="B367" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
+        <v>613</v>
+      </c>
+      <c r="B368" t="s">
         <v>614</v>
-      </c>
-      <c r="B368" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" t="s">
+        <v>615</v>
+      </c>
+      <c r="B369" t="s">
         <v>616</v>
-      </c>
-      <c r="B369" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" t="s">
+        <v>617</v>
+      </c>
+      <c r="B370" t="s">
         <v>618</v>
-      </c>
-      <c r="B370" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" t="s">
+        <v>619</v>
+      </c>
+      <c r="B371" t="s">
         <v>620</v>
-      </c>
-      <c r="B371" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" t="s">
+        <v>621</v>
+      </c>
+      <c r="B372" t="s">
         <v>622</v>
-      </c>
-      <c r="B372" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" t="s">
+        <v>623</v>
+      </c>
+      <c r="B373" t="s">
         <v>624</v>
-      </c>
-      <c r="B373" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" t="s">
+        <v>625</v>
+      </c>
+      <c r="B374" t="s">
         <v>626</v>
-      </c>
-      <c r="B374" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
+        <v>627</v>
+      </c>
+      <c r="B375" t="s">
         <v>628</v>
-      </c>
-      <c r="B375" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" t="s">
+        <v>629</v>
+      </c>
+      <c r="B376" t="s">
         <v>630</v>
-      </c>
-      <c r="B376" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
+        <v>631</v>
+      </c>
+      <c r="B377" t="s">
         <v>632</v>
-      </c>
-      <c r="B377" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
+        <v>633</v>
+      </c>
+      <c r="B378" t="s">
         <v>634</v>
-      </c>
-      <c r="B378" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
+        <v>635</v>
+      </c>
+      <c r="B379" t="s">
         <v>636</v>
-      </c>
-      <c r="B379" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" t="s">
+        <v>637</v>
+      </c>
+      <c r="B380" t="s">
         <v>638</v>
-      </c>
-      <c r="B380" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" t="s">
+        <v>639</v>
+      </c>
+      <c r="B381" t="s">
         <v>640</v>
-      </c>
-      <c r="B381" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
+        <v>641</v>
+      </c>
+      <c r="B382" t="s">
         <v>642</v>
-      </c>
-      <c r="B382" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
+        <v>643</v>
+      </c>
+      <c r="B383" t="s">
         <v>644</v>
-      </c>
-      <c r="B383" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
+        <v>645</v>
+      </c>
+      <c r="B384" t="s">
         <v>646</v>
-      </c>
-      <c r="B384" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
+        <v>647</v>
+      </c>
+      <c r="B385" t="s">
         <v>648</v>
-      </c>
-      <c r="B385" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
+        <v>649</v>
+      </c>
+      <c r="B386" t="s">
         <v>650</v>
-      </c>
-      <c r="B386" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
+        <v>651</v>
+      </c>
+      <c r="B387" t="s">
         <v>652</v>
-      </c>
-      <c r="B387" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
+        <v>653</v>
+      </c>
+      <c r="B388" t="s">
         <v>654</v>
-      </c>
-      <c r="B388" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" t="s">
+        <v>655</v>
+      </c>
+      <c r="B389" t="s">
         <v>656</v>
-      </c>
-      <c r="B389" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" t="s">
+        <v>657</v>
+      </c>
+      <c r="B390" t="s">
         <v>658</v>
-      </c>
-      <c r="B390" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
+        <v>659</v>
+      </c>
+      <c r="B391" t="s">
         <v>660</v>
-      </c>
-      <c r="B391" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" t="s">
+        <v>661</v>
+      </c>
+      <c r="B392" t="s">
         <v>662</v>
-      </c>
-      <c r="B392" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" t="s">
+        <v>663</v>
+      </c>
+      <c r="B393" t="s">
         <v>664</v>
-      </c>
-      <c r="B393" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" t="s">
+        <v>665</v>
+      </c>
+      <c r="B394" t="s">
         <v>666</v>
-      </c>
-      <c r="B394" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
+        <v>667</v>
+      </c>
+      <c r="B395" t="s">
         <v>668</v>
-      </c>
-      <c r="B395" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" t="s">
+        <v>669</v>
+      </c>
+      <c r="B396" t="s">
         <v>670</v>
-      </c>
-      <c r="B396" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" t="s">
+        <v>671</v>
+      </c>
+      <c r="B397" t="s">
         <v>672</v>
-      </c>
-      <c r="B397" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" t="s">
+        <v>673</v>
+      </c>
+      <c r="B398" t="s">
         <v>674</v>
-      </c>
-      <c r="B398" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
+        <v>675</v>
+      </c>
+      <c r="B399" t="s">
         <v>676</v>
-      </c>
-      <c r="B399" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
+        <v>677</v>
+      </c>
+      <c r="B400" t="s">
         <v>678</v>
-      </c>
-      <c r="B400" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" t="s">
+        <v>679</v>
+      </c>
+      <c r="B401" t="s">
         <v>680</v>
-      </c>
-      <c r="B401" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
+        <v>681</v>
+      </c>
+      <c r="B402" t="s">
         <v>682</v>
-      </c>
-      <c r="B402" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
+        <v>683</v>
+      </c>
+      <c r="B403" t="s">
         <v>684</v>
-      </c>
-      <c r="B403" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
+        <v>685</v>
+      </c>
+      <c r="B404" t="s">
         <v>686</v>
-      </c>
-      <c r="B404" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
+        <v>687</v>
+      </c>
+      <c r="B405" t="s">
         <v>688</v>
-      </c>
-      <c r="B405" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" t="s">
+        <v>689</v>
+      </c>
+      <c r="B406" t="s">
         <v>690</v>
-      </c>
-      <c r="B406" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
+        <v>691</v>
+      </c>
+      <c r="B407" t="s">
         <v>692</v>
-      </c>
-      <c r="B407" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" t="s">
+        <v>693</v>
+      </c>
+      <c r="B408" t="s">
         <v>694</v>
-      </c>
-      <c r="B408" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" t="s">
+        <v>695</v>
+      </c>
+      <c r="B409" t="s">
         <v>696</v>
-      </c>
-      <c r="B409" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" t="s">
+        <v>697</v>
+      </c>
+      <c r="B410" t="s">
         <v>698</v>
-      </c>
-      <c r="B410" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" t="s">
+        <v>699</v>
+      </c>
+      <c r="B411" t="s">
         <v>700</v>
-      </c>
-      <c r="B411" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" t="s">
+        <v>701</v>
+      </c>
+      <c r="B412" t="s">
         <v>702</v>
-      </c>
-      <c r="B412" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" t="s">
+        <v>703</v>
+      </c>
+      <c r="B413" t="s">
         <v>704</v>
-      </c>
-      <c r="B413" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" t="s">
+        <v>705</v>
+      </c>
+      <c r="B414" t="s">
         <v>706</v>
-      </c>
-      <c r="B414" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" t="s">
+        <v>707</v>
+      </c>
+      <c r="B415" t="s">
         <v>708</v>
-      </c>
-      <c r="B415" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" t="s">
+        <v>709</v>
+      </c>
+      <c r="B416" t="s">
         <v>710</v>
-      </c>
-      <c r="B416" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" t="s">
+        <v>711</v>
+      </c>
+      <c r="B417" t="s">
         <v>712</v>
-      </c>
-      <c r="B417" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" t="s">
+        <v>713</v>
+      </c>
+      <c r="B418" t="s">
         <v>714</v>
-      </c>
-      <c r="B418" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" t="s">
+        <v>715</v>
+      </c>
+      <c r="B419" t="s">
         <v>716</v>
-      </c>
-      <c r="B419" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" t="s">
+        <v>717</v>
+      </c>
+      <c r="B420" t="s">
         <v>718</v>
-      </c>
-      <c r="B420" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" t="s">
+        <v>719</v>
+      </c>
+      <c r="B421" t="s">
         <v>720</v>
-      </c>
-      <c r="B421" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" t="s">
+        <v>721</v>
+      </c>
+      <c r="B422" t="s">
         <v>722</v>
-      </c>
-      <c r="B422" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" t="s">
+        <v>723</v>
+      </c>
+      <c r="B423" t="s">
         <v>724</v>
-      </c>
-      <c r="B423" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" t="s">
+        <v>725</v>
+      </c>
+      <c r="B424" t="s">
         <v>726</v>
-      </c>
-      <c r="B424" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" t="s">
+        <v>727</v>
+      </c>
+      <c r="B425" t="s">
         <v>728</v>
-      </c>
-      <c r="B425" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" t="s">
+        <v>729</v>
+      </c>
+      <c r="B426" t="s">
         <v>730</v>
-      </c>
-      <c r="B426" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" t="s">
+        <v>731</v>
+      </c>
+      <c r="B427" t="s">
         <v>732</v>
-      </c>
-      <c r="B427" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" t="s">
+        <v>733</v>
+      </c>
+      <c r="B428" t="s">
         <v>734</v>
-      </c>
-      <c r="B428" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B429" t="s">
         <v>736</v>
@@ -9725,12 +9728,12 @@
         <v>738</v>
       </c>
       <c r="B431" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B432" t="s">
         <v>740</v>
@@ -9749,76 +9752,76 @@
         <v>742</v>
       </c>
       <c r="B434" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
+        <v>743</v>
+      </c>
+      <c r="B435" t="s">
         <v>744</v>
-      </c>
-      <c r="B435" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
+        <v>745</v>
+      </c>
+      <c r="B436" t="s">
         <v>746</v>
-      </c>
-      <c r="B436" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" t="s">
+        <v>747</v>
+      </c>
+      <c r="B437" t="s">
         <v>748</v>
-      </c>
-      <c r="B437" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
+        <v>749</v>
+      </c>
+      <c r="B438" t="s">
         <v>750</v>
-      </c>
-      <c r="B438" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" t="s">
+        <v>751</v>
+      </c>
+      <c r="B439" t="s">
         <v>752</v>
-      </c>
-      <c r="B439" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" t="s">
+        <v>753</v>
+      </c>
+      <c r="B440" t="s">
         <v>754</v>
-      </c>
-      <c r="B440" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
+        <v>755</v>
+      </c>
+      <c r="B441" t="s">
         <v>756</v>
-      </c>
-      <c r="B441" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" t="s">
+        <v>757</v>
+      </c>
+      <c r="B442" t="s">
         <v>758</v>
-      </c>
-      <c r="B442" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B443" t="s">
         <v>760</v>
@@ -9829,12 +9832,12 @@
         <v>761</v>
       </c>
       <c r="B444" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B445" t="s">
         <v>763</v>
@@ -9845,12 +9848,12 @@
         <v>764</v>
       </c>
       <c r="B446" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B447" t="s">
         <v>766</v>
@@ -9861,36 +9864,36 @@
         <v>767</v>
       </c>
       <c r="B448" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" t="s">
+        <v>768</v>
+      </c>
+      <c r="B449" t="s">
         <v>769</v>
-      </c>
-      <c r="B449" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
+        <v>770</v>
+      </c>
+      <c r="B450" t="s">
         <v>771</v>
-      </c>
-      <c r="B450" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" t="s">
+        <v>772</v>
+      </c>
+      <c r="B451" t="s">
         <v>773</v>
-      </c>
-      <c r="B451" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B452" t="s">
         <v>775</v>
@@ -9909,28 +9912,28 @@
         <v>777</v>
       </c>
       <c r="B454" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" t="s">
+        <v>778</v>
+      </c>
+      <c r="B455" t="s">
         <v>779</v>
-      </c>
-      <c r="B455" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
+        <v>780</v>
+      </c>
+      <c r="B456" t="s">
         <v>781</v>
-      </c>
-      <c r="B456" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B457" t="s">
         <v>783</v>
@@ -9941,36 +9944,36 @@
         <v>784</v>
       </c>
       <c r="B458" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" t="s">
+        <v>785</v>
+      </c>
+      <c r="B459" t="s">
         <v>786</v>
-      </c>
-      <c r="B459" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" t="s">
+        <v>787</v>
+      </c>
+      <c r="B460" t="s">
         <v>788</v>
-      </c>
-      <c r="B460" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" t="s">
+        <v>789</v>
+      </c>
+      <c r="B461" t="s">
         <v>790</v>
-      </c>
-      <c r="B461" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B462" t="s">
         <v>792</v>
@@ -9989,7 +9992,7 @@
         <v>794</v>
       </c>
       <c r="B464" t="s">
-        <v>521</v>
+        <v>794</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -9997,7 +10000,7 @@
         <v>795</v>
       </c>
       <c r="B465" t="s">
-        <v>795</v>
+        <v>522</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -10005,12 +10008,12 @@
         <v>796</v>
       </c>
       <c r="B466" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B467" t="s">
         <v>798</v>
@@ -10021,20 +10024,20 @@
         <v>799</v>
       </c>
       <c r="B468" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
+        <v>800</v>
+      </c>
+      <c r="B469" t="s">
         <v>801</v>
-      </c>
-      <c r="B469" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B470" t="s">
         <v>803</v>
@@ -10045,7 +10048,7 @@
         <v>804</v>
       </c>
       <c r="B471" t="s">
-        <v>521</v>
+        <v>804</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -10053,7 +10056,7 @@
         <v>805</v>
       </c>
       <c r="B472" t="s">
-        <v>805</v>
+        <v>522</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -10069,12 +10072,12 @@
         <v>807</v>
       </c>
       <c r="B474" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B475" t="s">
         <v>809</v>
@@ -10085,36 +10088,36 @@
         <v>810</v>
       </c>
       <c r="B476" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" t="s">
+        <v>811</v>
+      </c>
+      <c r="B477" t="s">
         <v>812</v>
-      </c>
-      <c r="B477" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
+        <v>813</v>
+      </c>
+      <c r="B478" t="s">
         <v>814</v>
-      </c>
-      <c r="B478" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
+        <v>815</v>
+      </c>
+      <c r="B479" t="s">
         <v>816</v>
-      </c>
-      <c r="B479" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B480" t="s">
         <v>818</v>
@@ -10133,12 +10136,12 @@
         <v>820</v>
       </c>
       <c r="B482" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B483" t="s">
         <v>822</v>
@@ -10149,12 +10152,12 @@
         <v>823</v>
       </c>
       <c r="B484" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B485" t="s">
         <v>825</v>
@@ -10189,156 +10192,156 @@
         <v>829</v>
       </c>
       <c r="B489" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" t="s">
+        <v>830</v>
+      </c>
+      <c r="B490" t="s">
         <v>831</v>
-      </c>
-      <c r="B490" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" t="s">
+        <v>832</v>
+      </c>
+      <c r="B491" t="s">
         <v>833</v>
-      </c>
-      <c r="B491" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" t="s">
+        <v>834</v>
+      </c>
+      <c r="B492" t="s">
         <v>835</v>
-      </c>
-      <c r="B492" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" t="s">
+        <v>836</v>
+      </c>
+      <c r="B493" t="s">
         <v>837</v>
-      </c>
-      <c r="B493" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" t="s">
+        <v>838</v>
+      </c>
+      <c r="B494" t="s">
         <v>839</v>
-      </c>
-      <c r="B494" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" t="s">
+        <v>840</v>
+      </c>
+      <c r="B495" t="s">
         <v>841</v>
-      </c>
-      <c r="B495" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" t="s">
+        <v>842</v>
+      </c>
+      <c r="B496" t="s">
         <v>843</v>
-      </c>
-      <c r="B496" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" t="s">
+        <v>844</v>
+      </c>
+      <c r="B497" t="s">
         <v>845</v>
-      </c>
-      <c r="B497" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" t="s">
+        <v>846</v>
+      </c>
+      <c r="B498" t="s">
         <v>847</v>
-      </c>
-      <c r="B498" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" t="s">
+        <v>848</v>
+      </c>
+      <c r="B499" t="s">
         <v>849</v>
-      </c>
-      <c r="B499" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" t="s">
+        <v>850</v>
+      </c>
+      <c r="B500" t="s">
         <v>851</v>
-      </c>
-      <c r="B500" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" t="s">
+        <v>852</v>
+      </c>
+      <c r="B501" t="s">
         <v>853</v>
-      </c>
-      <c r="B501" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" t="s">
+        <v>854</v>
+      </c>
+      <c r="B502" t="s">
         <v>855</v>
-      </c>
-      <c r="B502" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" t="s">
+        <v>856</v>
+      </c>
+      <c r="B503" t="s">
         <v>857</v>
-      </c>
-      <c r="B503" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" t="s">
+        <v>858</v>
+      </c>
+      <c r="B504" t="s">
         <v>859</v>
-      </c>
-      <c r="B504" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" t="s">
+        <v>860</v>
+      </c>
+      <c r="B505" t="s">
         <v>861</v>
-      </c>
-      <c r="B505" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" t="s">
+        <v>862</v>
+      </c>
+      <c r="B506" t="s">
         <v>863</v>
-      </c>
-      <c r="B506" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" t="s">
+        <v>864</v>
+      </c>
+      <c r="B507" t="s">
         <v>865</v>
-      </c>
-      <c r="B507" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B508" t="s">
         <v>867</v>
@@ -10349,20 +10352,20 @@
         <v>868</v>
       </c>
       <c r="B509" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
+        <v>869</v>
+      </c>
+      <c r="B510" t="s">
         <v>870</v>
-      </c>
-      <c r="B510" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B511" t="s">
         <v>872</v>
@@ -10373,52 +10376,52 @@
         <v>873</v>
       </c>
       <c r="B512" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" t="s">
+        <v>874</v>
+      </c>
+      <c r="B513" t="s">
         <v>875</v>
-      </c>
-      <c r="B513" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
+        <v>876</v>
+      </c>
+      <c r="B514" t="s">
         <v>877</v>
-      </c>
-      <c r="B514" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" t="s">
+        <v>878</v>
+      </c>
+      <c r="B515" t="s">
         <v>879</v>
-      </c>
-      <c r="B515" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" t="s">
+        <v>880</v>
+      </c>
+      <c r="B516" t="s">
         <v>881</v>
-      </c>
-      <c r="B516" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" t="s">
+        <v>882</v>
+      </c>
+      <c r="B517" t="s">
         <v>883</v>
-      </c>
-      <c r="B517" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B518" t="s">
         <v>885</v>
@@ -10437,84 +10440,84 @@
         <v>887</v>
       </c>
       <c r="B520" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" t="s">
+        <v>888</v>
+      </c>
+      <c r="B521" t="s">
         <v>889</v>
-      </c>
-      <c r="B521" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" t="s">
+        <v>890</v>
+      </c>
+      <c r="B522" t="s">
         <v>891</v>
-      </c>
-      <c r="B522" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" t="s">
+        <v>892</v>
+      </c>
+      <c r="B523" t="s">
         <v>893</v>
-      </c>
-      <c r="B523" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
+        <v>894</v>
+      </c>
+      <c r="B524" t="s">
         <v>895</v>
-      </c>
-      <c r="B524" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" t="s">
+        <v>896</v>
+      </c>
+      <c r="B525" t="s">
         <v>897</v>
-      </c>
-      <c r="B525" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" t="s">
+        <v>898</v>
+      </c>
+      <c r="B526" t="s">
         <v>899</v>
-      </c>
-      <c r="B526" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" t="s">
+        <v>900</v>
+      </c>
+      <c r="B527" t="s">
         <v>901</v>
-      </c>
-      <c r="B527" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" t="s">
+        <v>902</v>
+      </c>
+      <c r="B528" t="s">
         <v>903</v>
-      </c>
-      <c r="B528" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" t="s">
+        <v>904</v>
+      </c>
+      <c r="B529" t="s">
         <v>905</v>
-      </c>
-      <c r="B529" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B530" t="s">
         <v>907</v>
@@ -10525,20 +10528,20 @@
         <v>908</v>
       </c>
       <c r="B531" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" t="s">
+        <v>909</v>
+      </c>
+      <c r="B532" t="s">
         <v>910</v>
-      </c>
-      <c r="B532" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B533" t="s">
         <v>912</v>
@@ -10557,20 +10560,20 @@
         <v>914</v>
       </c>
       <c r="B535" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" t="s">
+        <v>915</v>
+      </c>
+      <c r="B536" t="s">
         <v>916</v>
-      </c>
-      <c r="B536" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B537" t="s">
         <v>918</v>
@@ -10597,36 +10600,36 @@
         <v>921</v>
       </c>
       <c r="B540" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" t="s">
+        <v>922</v>
+      </c>
+      <c r="B541" t="s">
         <v>923</v>
-      </c>
-      <c r="B541" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
+        <v>924</v>
+      </c>
+      <c r="B542" t="s">
         <v>925</v>
-      </c>
-      <c r="B542" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
+        <v>926</v>
+      </c>
+      <c r="B543" t="s">
         <v>927</v>
-      </c>
-      <c r="B543" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B544" t="s">
         <v>929</v>
@@ -10645,20 +10648,20 @@
         <v>931</v>
       </c>
       <c r="B546" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" t="s">
+        <v>932</v>
+      </c>
+      <c r="B547" t="s">
         <v>933</v>
-      </c>
-      <c r="B547" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B548" t="s">
         <v>935</v>
@@ -10677,28 +10680,28 @@
         <v>937</v>
       </c>
       <c r="B550" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
+        <v>938</v>
+      </c>
+      <c r="B551" t="s">
         <v>939</v>
-      </c>
-      <c r="B551" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
+        <v>940</v>
+      </c>
+      <c r="B552" t="s">
         <v>941</v>
-      </c>
-      <c r="B552" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B553" t="s">
         <v>943</v>
@@ -10709,60 +10712,60 @@
         <v>944</v>
       </c>
       <c r="B554" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" t="s">
+        <v>945</v>
+      </c>
+      <c r="B555" t="s">
         <v>946</v>
-      </c>
-      <c r="B555" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" t="s">
+        <v>947</v>
+      </c>
+      <c r="B556" t="s">
         <v>948</v>
-      </c>
-      <c r="B556" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" t="s">
+        <v>949</v>
+      </c>
+      <c r="B557" t="s">
         <v>950</v>
-      </c>
-      <c r="B557" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" t="s">
+        <v>951</v>
+      </c>
+      <c r="B558" t="s">
         <v>952</v>
-      </c>
-      <c r="B558" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" t="s">
+        <v>953</v>
+      </c>
+      <c r="B559" t="s">
         <v>954</v>
-      </c>
-      <c r="B559" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" t="s">
+        <v>955</v>
+      </c>
+      <c r="B560" t="s">
         <v>956</v>
-      </c>
-      <c r="B560" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B561" t="s">
         <v>958</v>
@@ -10789,20 +10792,20 @@
         <v>961</v>
       </c>
       <c r="B564" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" t="s">
+        <v>962</v>
+      </c>
+      <c r="B565" t="s">
         <v>963</v>
-      </c>
-      <c r="B565" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B566" t="s">
         <v>965</v>
@@ -10813,52 +10816,52 @@
         <v>966</v>
       </c>
       <c r="B567" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" t="s">
+        <v>967</v>
+      </c>
+      <c r="B568" t="s">
         <v>968</v>
-      </c>
-      <c r="B568" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" t="s">
+        <v>969</v>
+      </c>
+      <c r="B569" t="s">
         <v>970</v>
-      </c>
-      <c r="B569" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
+        <v>971</v>
+      </c>
+      <c r="B570" t="s">
         <v>972</v>
-      </c>
-      <c r="B570" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" t="s">
+        <v>973</v>
+      </c>
+      <c r="B571" t="s">
         <v>974</v>
-      </c>
-      <c r="B571" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" t="s">
+        <v>975</v>
+      </c>
+      <c r="B572" t="s">
         <v>976</v>
-      </c>
-      <c r="B572" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B573" t="s">
         <v>978</v>
@@ -10869,12 +10872,12 @@
         <v>979</v>
       </c>
       <c r="B574" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B575" t="s">
         <v>981</v>
@@ -10901,20 +10904,20 @@
         <v>984</v>
       </c>
       <c r="B578" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" t="s">
+        <v>985</v>
+      </c>
+      <c r="B579" t="s">
         <v>986</v>
-      </c>
-      <c r="B579" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B580" t="s">
         <v>988</v>
@@ -10925,68 +10928,68 @@
         <v>989</v>
       </c>
       <c r="B581" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" t="s">
+        <v>990</v>
+      </c>
+      <c r="B582" t="s">
         <v>991</v>
-      </c>
-      <c r="B582" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
+        <v>992</v>
+      </c>
+      <c r="B583" t="s">
         <v>993</v>
-      </c>
-      <c r="B583" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
+        <v>994</v>
+      </c>
+      <c r="B584" t="s">
         <v>995</v>
-      </c>
-      <c r="B584" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
+        <v>996</v>
+      </c>
+      <c r="B585" t="s">
         <v>997</v>
-      </c>
-      <c r="B585" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
+        <v>998</v>
+      </c>
+      <c r="B586" t="s">
         <v>999</v>
-      </c>
-      <c r="B586" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B587" t="s">
         <v>1001</v>
-      </c>
-      <c r="B587" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B588" t="s">
         <v>1003</v>
-      </c>
-      <c r="B588" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B589" t="s">
         <v>1005</v>
@@ -10997,12 +11000,12 @@
         <v>1006</v>
       </c>
       <c r="B590" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B591" t="s">
         <v>1008</v>
@@ -11013,68 +11016,68 @@
         <v>1009</v>
       </c>
       <c r="B592" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B593" t="s">
         <v>1011</v>
-      </c>
-      <c r="B593" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B594" t="s">
         <v>1013</v>
-      </c>
-      <c r="B594" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B595" t="s">
         <v>1015</v>
-      </c>
-      <c r="B595" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B596" t="s">
         <v>1017</v>
-      </c>
-      <c r="B596" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B597" t="s">
         <v>1019</v>
-      </c>
-      <c r="B597" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B598" t="s">
         <v>1021</v>
-      </c>
-      <c r="B598" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B599" t="s">
         <v>1023</v>
-      </c>
-      <c r="B599" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B600" t="s">
         <v>1025</v>
@@ -11093,12 +11096,12 @@
         <v>1027</v>
       </c>
       <c r="B602" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B603" t="s">
         <v>1029</v>
@@ -11109,52 +11112,52 @@
         <v>1030</v>
       </c>
       <c r="B604" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B605" t="s">
         <v>1032</v>
-      </c>
-      <c r="B605" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B606" t="s">
         <v>1034</v>
-      </c>
-      <c r="B606" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B607" t="s">
         <v>1036</v>
-      </c>
-      <c r="B607" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B608" t="s">
         <v>1038</v>
-      </c>
-      <c r="B608" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B609" t="s">
         <v>1040</v>
-      </c>
-      <c r="B609" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B610" t="s">
         <v>1042</v>
@@ -11165,20 +11168,20 @@
         <v>1043</v>
       </c>
       <c r="B611" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B612" t="s">
         <v>1045</v>
-      </c>
-      <c r="B612" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B613" t="s">
         <v>1047</v>
@@ -11189,28 +11192,28 @@
         <v>1048</v>
       </c>
       <c r="B614" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B615" t="s">
         <v>1050</v>
-      </c>
-      <c r="B615" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B616" t="s">
         <v>1052</v>
-      </c>
-      <c r="B616" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B617" t="s">
         <v>1054</v>
@@ -11221,12 +11224,12 @@
         <v>1055</v>
       </c>
       <c r="B618" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B619" t="s">
         <v>1057</v>
@@ -11237,20 +11240,20 @@
         <v>1058</v>
       </c>
       <c r="B620" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B621" t="s">
         <v>1060</v>
-      </c>
-      <c r="B621" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B622" t="s">
         <v>1062</v>
@@ -11261,28 +11264,28 @@
         <v>1063</v>
       </c>
       <c r="B623" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B624" t="s">
         <v>1065</v>
-      </c>
-      <c r="B624" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B625" t="s">
         <v>1067</v>
-      </c>
-      <c r="B625" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B626" t="s">
         <v>1069</v>
@@ -11325,20 +11328,20 @@
         <v>1074</v>
       </c>
       <c r="B631" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B632" t="s">
         <v>1076</v>
-      </c>
-      <c r="B632" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B633" t="s">
         <v>1078</v>
@@ -11365,12 +11368,12 @@
         <v>1081</v>
       </c>
       <c r="B636" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B637" t="s">
         <v>1083</v>
@@ -11381,12 +11384,12 @@
         <v>1084</v>
       </c>
       <c r="B638" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B639" t="s">
         <v>1086</v>
@@ -11397,12 +11400,12 @@
         <v>1087</v>
       </c>
       <c r="B640" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B641" t="s">
         <v>1089</v>
@@ -11421,36 +11424,36 @@
         <v>1091</v>
       </c>
       <c r="B643" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B644" t="s">
         <v>1093</v>
-      </c>
-      <c r="B644" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B645" t="s">
         <v>1095</v>
-      </c>
-      <c r="B645" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B646" t="s">
         <v>1097</v>
-      </c>
-      <c r="B646" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B647" t="s">
         <v>1099</v>
@@ -11477,12 +11480,12 @@
         <v>1102</v>
       </c>
       <c r="B650" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B651" t="s">
         <v>1104</v>
@@ -11493,28 +11496,28 @@
         <v>1105</v>
       </c>
       <c r="B652" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B653" t="s">
         <v>1107</v>
-      </c>
-      <c r="B653" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B654" t="s">
         <v>1109</v>
-      </c>
-      <c r="B654" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B655" t="s">
         <v>1111</v>
@@ -11525,76 +11528,76 @@
         <v>1112</v>
       </c>
       <c r="B656" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B657" t="s">
         <v>1114</v>
-      </c>
-      <c r="B657" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B658" t="s">
         <v>1116</v>
-      </c>
-      <c r="B658" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B659" t="s">
         <v>1118</v>
-      </c>
-      <c r="B659" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B660" t="s">
         <v>1120</v>
-      </c>
-      <c r="B660" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B661" t="s">
         <v>1122</v>
-      </c>
-      <c r="B661" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B662" t="s">
         <v>1124</v>
-      </c>
-      <c r="B662" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B663" t="s">
         <v>1126</v>
-      </c>
-      <c r="B663" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B664" t="s">
         <v>1128</v>
-      </c>
-      <c r="B664" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B665" t="s">
         <v>1130</v>
@@ -11605,84 +11608,84 @@
         <v>1131</v>
       </c>
       <c r="B666" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B667" t="s">
         <v>1133</v>
-      </c>
-      <c r="B667" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B668" t="s">
         <v>1135</v>
-      </c>
-      <c r="B668" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B669" t="s">
         <v>1137</v>
-      </c>
-      <c r="B669" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B670" t="s">
         <v>1139</v>
-      </c>
-      <c r="B670" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B671" t="s">
         <v>1141</v>
-      </c>
-      <c r="B671" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B672" t="s">
         <v>1143</v>
-      </c>
-      <c r="B672" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B673" t="s">
         <v>1145</v>
-      </c>
-      <c r="B673" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B674" t="s">
         <v>1147</v>
-      </c>
-      <c r="B674" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B675" t="s">
         <v>1149</v>
-      </c>
-      <c r="B675" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B676" t="s">
         <v>1151</v>
@@ -11693,28 +11696,28 @@
         <v>1152</v>
       </c>
       <c r="B677" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B678" t="s">
         <v>1154</v>
-      </c>
-      <c r="B678" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B679" t="s">
         <v>1156</v>
-      </c>
-      <c r="B679" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B680" t="s">
         <v>1158</v>
@@ -11733,84 +11736,84 @@
         <v>1160</v>
       </c>
       <c r="B682" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B683" t="s">
         <v>1162</v>
-      </c>
-      <c r="B683" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B684" t="s">
         <v>1164</v>
-      </c>
-      <c r="B684" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B685" t="s">
         <v>1166</v>
-      </c>
-      <c r="B685" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B686" t="s">
         <v>1168</v>
-      </c>
-      <c r="B686" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B687" t="s">
         <v>1170</v>
-      </c>
-      <c r="B687" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B688" t="s">
         <v>1172</v>
-      </c>
-      <c r="B688" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B689" t="s">
         <v>1174</v>
-      </c>
-      <c r="B689" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B690" t="s">
         <v>1176</v>
-      </c>
-      <c r="B690" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B691" t="s">
         <v>1178</v>
-      </c>
-      <c r="B691" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B692" t="s">
         <v>1180</v>
@@ -11821,44 +11824,44 @@
         <v>1181</v>
       </c>
       <c r="B693" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B694" t="s">
         <v>1183</v>
-      </c>
-      <c r="B694" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B695" t="s">
         <v>1185</v>
-      </c>
-      <c r="B695" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B696" t="s">
         <v>1187</v>
-      </c>
-      <c r="B696" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B697" t="s">
         <v>1189</v>
-      </c>
-      <c r="B697" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B698" t="s">
         <v>1191</v>
@@ -11869,12 +11872,12 @@
         <v>1192</v>
       </c>
       <c r="B699" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B700" t="s">
         <v>1194</v>
@@ -11893,12 +11896,12 @@
         <v>1196</v>
       </c>
       <c r="B702" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B703" t="s">
         <v>1198</v>
@@ -11925,20 +11928,20 @@
         <v>1201</v>
       </c>
       <c r="B706" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B707" t="s">
         <v>1203</v>
-      </c>
-      <c r="B707" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B708" t="s">
         <v>1205</v>
@@ -11957,28 +11960,28 @@
         <v>1207</v>
       </c>
       <c r="B710" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B711" t="s">
         <v>1209</v>
-      </c>
-      <c r="B711" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B712" t="s">
         <v>1211</v>
-      </c>
-      <c r="B712" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B713" t="s">
         <v>1213</v>
@@ -11997,20 +12000,20 @@
         <v>1215</v>
       </c>
       <c r="B715" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B716" t="s">
         <v>1217</v>
-      </c>
-      <c r="B716" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="717" spans="1:2">
       <c r="A717" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B717" t="s">
         <v>1219</v>
@@ -12021,36 +12024,36 @@
         <v>1220</v>
       </c>
       <c r="B718" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B719" t="s">
         <v>1222</v>
-      </c>
-      <c r="B719" t="s">
-        <v>1223</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B720" t="s">
         <v>1224</v>
-      </c>
-      <c r="B720" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B721" t="s">
         <v>1226</v>
-      </c>
-      <c r="B721" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B722" t="s">
         <v>1228</v>
@@ -12069,20 +12072,20 @@
         <v>1230</v>
       </c>
       <c r="B724" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B725" t="s">
         <v>1232</v>
-      </c>
-      <c r="B725" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B726" t="s">
         <v>1234</v>
@@ -12101,12 +12104,12 @@
         <v>1236</v>
       </c>
       <c r="B728" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B729" t="s">
         <v>1238</v>
@@ -12117,28 +12120,28 @@
         <v>1239</v>
       </c>
       <c r="B730" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B731" t="s">
         <v>1241</v>
-      </c>
-      <c r="B731" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B732" t="s">
         <v>1243</v>
-      </c>
-      <c r="B732" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B733" t="s">
         <v>1245</v>
@@ -12149,20 +12152,20 @@
         <v>1246</v>
       </c>
       <c r="B734" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B735" t="s">
         <v>1248</v>
-      </c>
-      <c r="B735" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B736" t="s">
         <v>1250</v>
@@ -12173,28 +12176,28 @@
         <v>1251</v>
       </c>
       <c r="B737" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B738" t="s">
         <v>1253</v>
-      </c>
-      <c r="B738" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B739" t="s">
         <v>1255</v>
-      </c>
-      <c r="B739" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B740" t="s">
         <v>1257</v>
@@ -12205,20 +12208,20 @@
         <v>1258</v>
       </c>
       <c r="B741" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B742" t="s">
         <v>1260</v>
-      </c>
-      <c r="B742" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B743" t="s">
         <v>1262</v>
@@ -12237,100 +12240,100 @@
         <v>1264</v>
       </c>
       <c r="B745" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B746" t="s">
         <v>1266</v>
-      </c>
-      <c r="B746" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B747" t="s">
         <v>1268</v>
-      </c>
-      <c r="B747" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B748" t="s">
         <v>1270</v>
-      </c>
-      <c r="B748" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B749" t="s">
         <v>1272</v>
-      </c>
-      <c r="B749" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B750" t="s">
         <v>1274</v>
-      </c>
-      <c r="B750" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B751" t="s">
         <v>1276</v>
-      </c>
-      <c r="B751" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B752" t="s">
         <v>1278</v>
-      </c>
-      <c r="B752" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B753" t="s">
         <v>1280</v>
-      </c>
-      <c r="B753" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B754" t="s">
         <v>1282</v>
-      </c>
-      <c r="B754" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B755" t="s">
         <v>1284</v>
-      </c>
-      <c r="B755" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B756" t="s">
         <v>1286</v>
-      </c>
-      <c r="B756" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B757" t="s">
         <v>1288</v>
@@ -12341,12 +12344,12 @@
         <v>1289</v>
       </c>
       <c r="B758" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B759" t="s">
         <v>1291</v>
@@ -12365,44 +12368,44 @@
         <v>1293</v>
       </c>
       <c r="B761" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B762" t="s">
         <v>1295</v>
-      </c>
-      <c r="B762" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B763" t="s">
         <v>1297</v>
-      </c>
-      <c r="B763" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B764" t="s">
         <v>1299</v>
-      </c>
-      <c r="B764" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B765" t="s">
         <v>1301</v>
-      </c>
-      <c r="B765" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B766" t="s">
         <v>1303</v>
@@ -12413,100 +12416,100 @@
         <v>1304</v>
       </c>
       <c r="B767" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B768" t="s">
         <v>1306</v>
-      </c>
-      <c r="B768" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B769" t="s">
         <v>1308</v>
-      </c>
-      <c r="B769" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B770" t="s">
         <v>1310</v>
-      </c>
-      <c r="B770" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B771" t="s">
         <v>1312</v>
-      </c>
-      <c r="B771" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B772" t="s">
         <v>1314</v>
-      </c>
-      <c r="B772" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B773" t="s">
         <v>1316</v>
-      </c>
-      <c r="B773" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B774" t="s">
         <v>1318</v>
-      </c>
-      <c r="B774" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B775" t="s">
         <v>1320</v>
-      </c>
-      <c r="B775" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B776" t="s">
         <v>1322</v>
-      </c>
-      <c r="B776" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B777" t="s">
         <v>1324</v>
-      </c>
-      <c r="B777" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B778" t="s">
         <v>1326</v>
-      </c>
-      <c r="B778" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B779" t="s">
         <v>1328</v>
@@ -12541,20 +12544,20 @@
         <v>1332</v>
       </c>
       <c r="B783" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B784" t="s">
         <v>1334</v>
-      </c>
-      <c r="B784" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B785" t="s">
         <v>1336</v>
@@ -12565,12 +12568,12 @@
         <v>1337</v>
       </c>
       <c r="B786" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B787" t="s">
         <v>1339</v>
@@ -12589,12 +12592,12 @@
         <v>1341</v>
       </c>
       <c r="B789" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B790" t="s">
         <v>1343</v>
@@ -12629,12 +12632,12 @@
         <v>1347</v>
       </c>
       <c r="B794" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B795" t="s">
         <v>1349</v>
@@ -12645,60 +12648,60 @@
         <v>1350</v>
       </c>
       <c r="B796" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B797" t="s">
         <v>1352</v>
-      </c>
-      <c r="B797" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B798" t="s">
         <v>1354</v>
-      </c>
-      <c r="B798" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B799" t="s">
         <v>1356</v>
-      </c>
-      <c r="B799" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B800" t="s">
         <v>1358</v>
-      </c>
-      <c r="B800" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="801" spans="1:2">
       <c r="A801" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B801" t="s">
         <v>1360</v>
-      </c>
-      <c r="B801" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="802" spans="1:2">
       <c r="A802" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B802" t="s">
         <v>1362</v>
-      </c>
-      <c r="B802" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="803" spans="1:2">
       <c r="A803" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B803" t="s">
         <v>1364</v>
@@ -12725,60 +12728,60 @@
         <v>1367</v>
       </c>
       <c r="B806" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B807" t="s">
         <v>1369</v>
-      </c>
-      <c r="B807" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B808" t="s">
         <v>1371</v>
-      </c>
-      <c r="B808" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B809" t="s">
         <v>1373</v>
-      </c>
-      <c r="B809" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="810" spans="1:2">
       <c r="A810" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B810" t="s">
         <v>1375</v>
-      </c>
-      <c r="B810" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="811" spans="1:2">
       <c r="A811" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B811" t="s">
         <v>1377</v>
-      </c>
-      <c r="B811" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B812" t="s">
         <v>1379</v>
-      </c>
-      <c r="B812" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B813" t="s">
         <v>1381</v>
@@ -12789,20 +12792,20 @@
         <v>1382</v>
       </c>
       <c r="B814" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B815" t="s">
         <v>1384</v>
-      </c>
-      <c r="B815" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B816" t="s">
         <v>1386</v>
@@ -12813,28 +12816,28 @@
         <v>1387</v>
       </c>
       <c r="B817" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B818" t="s">
         <v>1389</v>
-      </c>
-      <c r="B818" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B819" t="s">
         <v>1391</v>
-      </c>
-      <c r="B819" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B820" t="s">
         <v>1393</v>
@@ -12845,12 +12848,12 @@
         <v>1394</v>
       </c>
       <c r="B821" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B822" t="s">
         <v>1396</v>
@@ -12861,12 +12864,12 @@
         <v>1397</v>
       </c>
       <c r="B823" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B824" t="s">
         <v>1399</v>
@@ -12877,12 +12880,12 @@
         <v>1400</v>
       </c>
       <c r="B825" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B826" t="s">
         <v>1402</v>
@@ -12893,12 +12896,12 @@
         <v>1403</v>
       </c>
       <c r="B827" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B828" t="s">
         <v>1405</v>
@@ -12933,20 +12936,20 @@
         <v>1409</v>
       </c>
       <c r="B832" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B833" t="s">
         <v>1411</v>
-      </c>
-      <c r="B833" t="s">
-        <v>1412</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B834" t="s">
         <v>1413</v>
@@ -12957,20 +12960,20 @@
         <v>1414</v>
       </c>
       <c r="B835" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B836" t="s">
         <v>1416</v>
-      </c>
-      <c r="B836" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B837" t="s">
         <v>1418</v>
@@ -12981,12 +12984,12 @@
         <v>1419</v>
       </c>
       <c r="B838" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B839" t="s">
         <v>1421</v>
@@ -13021,108 +13024,108 @@
         <v>1425</v>
       </c>
       <c r="B843" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B844" t="s">
         <v>1427</v>
-      </c>
-      <c r="B844" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B845" t="s">
         <v>1429</v>
-      </c>
-      <c r="B845" t="s">
-        <v>1430</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B846" t="s">
         <v>1431</v>
-      </c>
-      <c r="B846" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B847" t="s">
         <v>1433</v>
-      </c>
-      <c r="B847" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B848" t="s">
         <v>1435</v>
-      </c>
-      <c r="B848" t="s">
-        <v>1436</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B849" t="s">
         <v>1437</v>
-      </c>
-      <c r="B849" t="s">
-        <v>1438</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B850" t="s">
         <v>1439</v>
-      </c>
-      <c r="B850" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B851" t="s">
         <v>1441</v>
-      </c>
-      <c r="B851" t="s">
-        <v>1442</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B852" t="s">
         <v>1443</v>
-      </c>
-      <c r="B852" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B853" t="s">
         <v>1445</v>
-      </c>
-      <c r="B853" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="854" spans="1:2">
       <c r="A854" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B854" t="s">
         <v>1447</v>
-      </c>
-      <c r="B854" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="855" spans="1:2">
       <c r="A855" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B855" t="s">
         <v>1449</v>
-      </c>
-      <c r="B855" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="856" spans="1:2">
       <c r="A856" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B856" t="s">
         <v>1451</v>
@@ -13181,12 +13184,12 @@
         <v>1458</v>
       </c>
       <c r="B863" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B864" t="s">
         <v>1460</v>
@@ -13213,12 +13216,12 @@
         <v>1463</v>
       </c>
       <c r="B867" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B868" t="s">
         <v>1465</v>
@@ -13229,52 +13232,52 @@
         <v>1466</v>
       </c>
       <c r="B869" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B870" t="s">
         <v>1468</v>
-      </c>
-      <c r="B870" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B871" t="s">
         <v>1470</v>
-      </c>
-      <c r="B871" t="s">
-        <v>1471</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B872" t="s">
         <v>1472</v>
-      </c>
-      <c r="B872" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="873" spans="1:2">
       <c r="A873" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B873" t="s">
         <v>1474</v>
-      </c>
-      <c r="B873" t="s">
-        <v>1475</v>
       </c>
     </row>
     <row r="874" spans="1:2">
       <c r="A874" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B874" t="s">
         <v>1476</v>
-      </c>
-      <c r="B874" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="875" spans="1:2">
       <c r="A875" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B875" t="s">
         <v>1478</v>
@@ -13293,28 +13296,28 @@
         <v>1480</v>
       </c>
       <c r="B877" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B878" t="s">
         <v>1482</v>
-      </c>
-      <c r="B878" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B879" t="s">
         <v>1484</v>
-      </c>
-      <c r="B879" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="880" spans="1:2">
       <c r="A880" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B880" t="s">
         <v>1486</v>
@@ -13333,12 +13336,12 @@
         <v>1488</v>
       </c>
       <c r="B882" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B883" t="s">
         <v>1490</v>
@@ -13349,12 +13352,12 @@
         <v>1491</v>
       </c>
       <c r="B884" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B885" t="s">
         <v>1493</v>
@@ -13365,12 +13368,12 @@
         <v>1494</v>
       </c>
       <c r="B886" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B887" t="s">
         <v>1496</v>
@@ -13381,12 +13384,12 @@
         <v>1497</v>
       </c>
       <c r="B888" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B889" t="s">
         <v>1499</v>
@@ -13397,36 +13400,36 @@
         <v>1500</v>
       </c>
       <c r="B890" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B891" t="s">
         <v>1502</v>
-      </c>
-      <c r="B891" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B892" t="s">
         <v>1504</v>
-      </c>
-      <c r="B892" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="893" spans="1:2">
       <c r="A893" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B893" t="s">
         <v>1506</v>
-      </c>
-      <c r="B893" t="s">
-        <v>1507</v>
       </c>
     </row>
     <row r="894" spans="1:2">
       <c r="A894" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B894" t="s">
         <v>1508</v>
@@ -13437,52 +13440,52 @@
         <v>1509</v>
       </c>
       <c r="B895" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B896" t="s">
         <v>1511</v>
-      </c>
-      <c r="B896" t="s">
-        <v>1512</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B897" t="s">
         <v>1513</v>
-      </c>
-      <c r="B897" t="s">
-        <v>1514</v>
       </c>
     </row>
     <row r="898" spans="1:2">
       <c r="A898" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B898" t="s">
         <v>1515</v>
-      </c>
-      <c r="B898" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="899" spans="1:2">
       <c r="A899" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B899" t="s">
         <v>1517</v>
-      </c>
-      <c r="B899" t="s">
-        <v>1518</v>
       </c>
     </row>
     <row r="900" spans="1:2">
       <c r="A900" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B900" t="s">
         <v>1519</v>
-      </c>
-      <c r="B900" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="901" spans="1:2">
       <c r="A901" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B901" t="s">
         <v>1521</v>
@@ -13541,28 +13544,28 @@
         <v>1528</v>
       </c>
       <c r="B908" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B909" t="s">
         <v>1530</v>
-      </c>
-      <c r="B909" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B910" t="s">
         <v>1532</v>
-      </c>
-      <c r="B910" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="911" spans="1:2">
       <c r="A911" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B911" t="s">
         <v>1534</v>
@@ -13589,44 +13592,44 @@
         <v>1537</v>
       </c>
       <c r="B914" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B915" t="s">
         <v>1539</v>
-      </c>
-      <c r="B915" t="s">
-        <v>1540</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B916" t="s">
         <v>1541</v>
-      </c>
-      <c r="B916" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="917" spans="1:2">
       <c r="A917" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B917" t="s">
         <v>1543</v>
-      </c>
-      <c r="B917" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="918" spans="1:2">
       <c r="A918" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B918" t="s">
         <v>1545</v>
-      </c>
-      <c r="B918" t="s">
-        <v>1546</v>
       </c>
     </row>
     <row r="919" spans="1:2">
       <c r="A919" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B919" t="s">
         <v>1547</v>
@@ -13645,36 +13648,36 @@
         <v>1549</v>
       </c>
       <c r="B921" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B922" t="s">
         <v>1551</v>
-      </c>
-      <c r="B922" t="s">
-        <v>1552</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B923" t="s">
         <v>1553</v>
-      </c>
-      <c r="B923" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="924" spans="1:2">
       <c r="A924" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B924" t="s">
         <v>1555</v>
-      </c>
-      <c r="B924" t="s">
-        <v>1556</v>
       </c>
     </row>
     <row r="925" spans="1:2">
       <c r="A925" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B925" t="s">
         <v>1557</v>
@@ -13685,20 +13688,20 @@
         <v>1558</v>
       </c>
       <c r="B926" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B927" t="s">
         <v>1560</v>
-      </c>
-      <c r="B927" t="s">
-        <v>1561</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B928" t="s">
         <v>1562</v>
@@ -13709,12 +13712,12 @@
         <v>1563</v>
       </c>
       <c r="B929" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B930" t="s">
         <v>1565</v>
@@ -13725,52 +13728,52 @@
         <v>1566</v>
       </c>
       <c r="B931" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B932" t="s">
         <v>1568</v>
-      </c>
-      <c r="B932" t="s">
-        <v>1569</v>
       </c>
     </row>
     <row r="933" spans="1:2">
       <c r="A933" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B933" t="s">
         <v>1570</v>
-      </c>
-      <c r="B933" t="s">
-        <v>1571</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B934" t="s">
         <v>1572</v>
-      </c>
-      <c r="B934" t="s">
-        <v>1573</v>
       </c>
     </row>
     <row r="935" spans="1:2">
       <c r="A935" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B935" t="s">
         <v>1574</v>
-      </c>
-      <c r="B935" t="s">
-        <v>1575</v>
       </c>
     </row>
     <row r="936" spans="1:2">
       <c r="A936" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B936" t="s">
         <v>1576</v>
-      </c>
-      <c r="B936" t="s">
-        <v>1577</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B937" t="s">
         <v>1578</v>
@@ -13797,20 +13800,20 @@
         <v>1581</v>
       </c>
       <c r="B940" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B941" t="s">
         <v>1583</v>
-      </c>
-      <c r="B941" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B942" t="s">
         <v>1585</v>
@@ -13853,44 +13856,44 @@
         <v>1590</v>
       </c>
       <c r="B947" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B948" t="s">
         <v>1592</v>
-      </c>
-      <c r="B948" t="s">
-        <v>1593</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B949" t="s">
         <v>1594</v>
-      </c>
-      <c r="B949" t="s">
-        <v>1595</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B950" t="s">
         <v>1596</v>
-      </c>
-      <c r="B950" t="s">
-        <v>1597</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B951" t="s">
         <v>1598</v>
-      </c>
-      <c r="B951" t="s">
-        <v>1599</v>
       </c>
     </row>
     <row r="952" spans="1:2">
       <c r="A952" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B952" t="s">
         <v>1600</v>
@@ -13909,36 +13912,36 @@
         <v>1602</v>
       </c>
       <c r="B954" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B955" t="s">
         <v>1604</v>
-      </c>
-      <c r="B955" t="s">
-        <v>1605</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B956" t="s">
         <v>1606</v>
-      </c>
-      <c r="B956" t="s">
-        <v>1607</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B957" t="s">
         <v>1608</v>
-      </c>
-      <c r="B957" t="s">
-        <v>1609</v>
       </c>
     </row>
     <row r="958" spans="1:2">
       <c r="A958" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B958" t="s">
         <v>1610</v>
@@ -13949,20 +13952,20 @@
         <v>1611</v>
       </c>
       <c r="B959" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="960" spans="1:2">
       <c r="A960" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B960" t="s">
         <v>1613</v>
-      </c>
-      <c r="B960" t="s">
-        <v>1614</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B961" t="s">
         <v>1615</v>
@@ -13981,100 +13984,100 @@
         <v>1617</v>
       </c>
       <c r="B963" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B964" t="s">
         <v>1619</v>
-      </c>
-      <c r="B964" t="s">
-        <v>1620</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B965" t="s">
         <v>1621</v>
-      </c>
-      <c r="B965" t="s">
-        <v>1622</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B966" t="s">
         <v>1623</v>
-      </c>
-      <c r="B966" t="s">
-        <v>1624</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B967" t="s">
         <v>1625</v>
-      </c>
-      <c r="B967" t="s">
-        <v>1626</v>
       </c>
     </row>
     <row r="968" spans="1:2">
       <c r="A968" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B968" t="s">
         <v>1627</v>
-      </c>
-      <c r="B968" t="s">
-        <v>1628</v>
       </c>
     </row>
     <row r="969" spans="1:2">
       <c r="A969" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B969" t="s">
         <v>1629</v>
-      </c>
-      <c r="B969" t="s">
-        <v>1630</v>
       </c>
     </row>
     <row r="970" spans="1:2">
       <c r="A970" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B970" t="s">
         <v>1631</v>
-      </c>
-      <c r="B970" t="s">
-        <v>1632</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B971" t="s">
         <v>1633</v>
-      </c>
-      <c r="B971" t="s">
-        <v>1634</v>
       </c>
     </row>
     <row r="972" spans="1:2">
       <c r="A972" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B972" t="s">
         <v>1635</v>
-      </c>
-      <c r="B972" t="s">
-        <v>1636</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B973" t="s">
         <v>1637</v>
-      </c>
-      <c r="B973" t="s">
-        <v>1638</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B974" t="s">
         <v>1639</v>
-      </c>
-      <c r="B974" t="s">
-        <v>1640</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B975" t="s">
         <v>1641</v>
@@ -14101,12 +14104,12 @@
         <v>1644</v>
       </c>
       <c r="B978" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B979" t="s">
         <v>1646</v>
@@ -14141,12 +14144,12 @@
         <v>1650</v>
       </c>
       <c r="B983" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B984" t="s">
         <v>1652</v>
@@ -14157,36 +14160,36 @@
         <v>1653</v>
       </c>
       <c r="B985" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B986" t="s">
         <v>1655</v>
-      </c>
-      <c r="B986" t="s">
-        <v>1656</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B987" t="s">
         <v>1657</v>
-      </c>
-      <c r="B987" t="s">
-        <v>1658</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B988" t="s">
         <v>1659</v>
-      </c>
-      <c r="B988" t="s">
-        <v>1660</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B989" t="s">
         <v>1661</v>
@@ -14197,20 +14200,20 @@
         <v>1662</v>
       </c>
       <c r="B990" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B991" t="s">
         <v>1664</v>
-      </c>
-      <c r="B991" t="s">
-        <v>1665</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B992" t="s">
         <v>1666</v>
@@ -14221,52 +14224,52 @@
         <v>1667</v>
       </c>
       <c r="B993" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B994" t="s">
         <v>1669</v>
-      </c>
-      <c r="B994" t="s">
-        <v>1670</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B995" t="s">
         <v>1671</v>
-      </c>
-      <c r="B995" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B996" t="s">
         <v>1673</v>
-      </c>
-      <c r="B996" t="s">
-        <v>1674</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B997" t="s">
         <v>1675</v>
-      </c>
-      <c r="B997" t="s">
-        <v>1676</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B998" t="s">
         <v>1677</v>
-      </c>
-      <c r="B998" t="s">
-        <v>1678</v>
       </c>
     </row>
     <row r="999" spans="1:2">
       <c r="A999" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B999" t="s">
         <v>1679</v>
@@ -14285,28 +14288,28 @@
         <v>1681</v>
       </c>
       <c r="B1001" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B1002" t="s">
         <v>1683</v>
-      </c>
-      <c r="B1002" t="s">
-        <v>1684</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B1003" t="s">
         <v>1685</v>
-      </c>
-      <c r="B1003" t="s">
-        <v>1686</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B1004" t="s">
         <v>1687</v>
@@ -14341,20 +14344,20 @@
         <v>1691</v>
       </c>
       <c r="B1008" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B1009" t="s">
         <v>1693</v>
-      </c>
-      <c r="B1009" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B1010" t="s">
         <v>1695</v>
@@ -14365,12 +14368,12 @@
         <v>1696</v>
       </c>
       <c r="B1011" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B1012" t="s">
         <v>1698</v>
@@ -14389,20 +14392,20 @@
         <v>1700</v>
       </c>
       <c r="B1014" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B1015" t="s">
         <v>1702</v>
-      </c>
-      <c r="B1015" t="s">
-        <v>1703</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B1016" t="s">
         <v>1704</v>
@@ -14413,28 +14416,28 @@
         <v>1705</v>
       </c>
       <c r="B1017" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B1018" t="s">
         <v>1707</v>
-      </c>
-      <c r="B1018" t="s">
-        <v>1708</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B1019" t="s">
         <v>1709</v>
-      </c>
-      <c r="B1019" t="s">
-        <v>1710</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B1020" t="s">
         <v>1711</v>
@@ -14445,12 +14448,12 @@
         <v>1712</v>
       </c>
       <c r="B1021" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B1022" t="s">
         <v>1714</v>
@@ -14469,12 +14472,12 @@
         <v>1716</v>
       </c>
       <c r="B1024" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B1025" t="s">
         <v>1718</v>
@@ -14525,20 +14528,20 @@
         <v>1724</v>
       </c>
       <c r="B1031" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B1032" t="s">
         <v>1726</v>
-      </c>
-      <c r="B1032" t="s">
-        <v>1727</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B1033" t="s">
         <v>1728</v>
@@ -14549,28 +14552,28 @@
         <v>1729</v>
       </c>
       <c r="B1034" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B1035" t="s">
         <v>1731</v>
-      </c>
-      <c r="B1035" t="s">
-        <v>1732</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B1036" t="s">
         <v>1733</v>
-      </c>
-      <c r="B1036" t="s">
-        <v>1734</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B1037" t="s">
         <v>1735</v>
@@ -14581,20 +14584,20 @@
         <v>1736</v>
       </c>
       <c r="B1038" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B1039" t="s">
         <v>1738</v>
-      </c>
-      <c r="B1039" t="s">
-        <v>1739</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B1040" t="s">
         <v>1740</v>
@@ -14605,116 +14608,116 @@
         <v>1741</v>
       </c>
       <c r="B1041" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B1042" t="s">
         <v>1743</v>
-      </c>
-      <c r="B1042" t="s">
-        <v>1744</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B1043" t="s">
         <v>1745</v>
-      </c>
-      <c r="B1043" t="s">
-        <v>1746</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B1044" t="s">
         <v>1747</v>
-      </c>
-      <c r="B1044" t="s">
-        <v>1748</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B1045" t="s">
         <v>1749</v>
-      </c>
-      <c r="B1045" t="s">
-        <v>1750</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B1046" t="s">
         <v>1751</v>
-      </c>
-      <c r="B1046" t="s">
-        <v>1752</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B1047" t="s">
         <v>1753</v>
-      </c>
-      <c r="B1047" t="s">
-        <v>1754</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B1048" t="s">
         <v>1755</v>
-      </c>
-      <c r="B1048" t="s">
-        <v>1756</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B1049" t="s">
         <v>1757</v>
-      </c>
-      <c r="B1049" t="s">
-        <v>1758</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B1050" t="s">
         <v>1759</v>
-      </c>
-      <c r="B1050" t="s">
-        <v>1760</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B1051" t="s">
         <v>1761</v>
-      </c>
-      <c r="B1051" t="s">
-        <v>1762</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B1052" t="s">
         <v>1763</v>
-      </c>
-      <c r="B1052" t="s">
-        <v>1764</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B1053" t="s">
         <v>1765</v>
-      </c>
-      <c r="B1053" t="s">
-        <v>1766</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
       <c r="A1054" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B1054" t="s">
         <v>1767</v>
-      </c>
-      <c r="B1054" t="s">
-        <v>1768</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
       <c r="A1055" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B1055" t="s">
         <v>1769</v>
@@ -14725,100 +14728,100 @@
         <v>1770</v>
       </c>
       <c r="B1056" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B1057" t="s">
         <v>1772</v>
-      </c>
-      <c r="B1057" t="s">
-        <v>1773</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B1058" t="s">
         <v>1774</v>
-      </c>
-      <c r="B1058" t="s">
-        <v>1775</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B1059" t="s">
         <v>1776</v>
-      </c>
-      <c r="B1059" t="s">
-        <v>1777</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B1060" t="s">
         <v>1778</v>
-      </c>
-      <c r="B1060" t="s">
-        <v>1779</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B1061" t="s">
         <v>1780</v>
-      </c>
-      <c r="B1061" t="s">
-        <v>1781</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B1062" t="s">
         <v>1782</v>
-      </c>
-      <c r="B1062" t="s">
-        <v>1783</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B1063" t="s">
         <v>1784</v>
-      </c>
-      <c r="B1063" t="s">
-        <v>1785</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B1064" t="s">
         <v>1786</v>
-      </c>
-      <c r="B1064" t="s">
-        <v>1787</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B1065" t="s">
         <v>1788</v>
-      </c>
-      <c r="B1065" t="s">
-        <v>1789</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B1066" t="s">
         <v>1790</v>
-      </c>
-      <c r="B1066" t="s">
-        <v>1791</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1067" t="s">
         <v>1792</v>
-      </c>
-      <c r="B1067" t="s">
-        <v>1793</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B1068" t="s">
         <v>1794</v>
@@ -14829,20 +14832,20 @@
         <v>1795</v>
       </c>
       <c r="B1069" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B1070" t="s">
         <v>1797</v>
-      </c>
-      <c r="B1070" t="s">
-        <v>1798</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B1071" t="s">
         <v>1799</v>
@@ -14861,12 +14864,12 @@
         <v>1801</v>
       </c>
       <c r="B1073" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B1074" t="s">
         <v>1803</v>
@@ -14877,20 +14880,20 @@
         <v>1804</v>
       </c>
       <c r="B1075" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B1076" t="s">
         <v>1806</v>
-      </c>
-      <c r="B1076" t="s">
-        <v>1807</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B1077" t="s">
         <v>1808</v>
@@ -14901,76 +14904,76 @@
         <v>1809</v>
       </c>
       <c r="B1078" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B1079" t="s">
         <v>1811</v>
-      </c>
-      <c r="B1079" t="s">
-        <v>1812</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B1080" t="s">
         <v>1813</v>
-      </c>
-      <c r="B1080" t="s">
-        <v>1814</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B1081" t="s">
         <v>1815</v>
-      </c>
-      <c r="B1081" t="s">
-        <v>1816</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B1082" t="s">
         <v>1817</v>
-      </c>
-      <c r="B1082" t="s">
-        <v>1818</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B1083" t="s">
         <v>1819</v>
-      </c>
-      <c r="B1083" t="s">
-        <v>1820</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B1084" t="s">
         <v>1821</v>
-      </c>
-      <c r="B1084" t="s">
-        <v>1822</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B1085" t="s">
         <v>1823</v>
-      </c>
-      <c r="B1085" t="s">
-        <v>1824</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B1086" t="s">
         <v>1825</v>
-      </c>
-      <c r="B1086" t="s">
-        <v>1826</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B1087" t="s">
         <v>1827</v>
@@ -14981,44 +14984,44 @@
         <v>1828</v>
       </c>
       <c r="B1088" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B1089" t="s">
         <v>1830</v>
-      </c>
-      <c r="B1089" t="s">
-        <v>1831</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B1090" t="s">
         <v>1832</v>
-      </c>
-      <c r="B1090" t="s">
-        <v>1833</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B1091" t="s">
         <v>1834</v>
-      </c>
-      <c r="B1091" t="s">
-        <v>1835</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B1092" t="s">
         <v>1836</v>
-      </c>
-      <c r="B1092" t="s">
-        <v>1837</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B1093" t="s">
         <v>1838</v>
@@ -15029,20 +15032,20 @@
         <v>1839</v>
       </c>
       <c r="B1094" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B1095" t="s">
         <v>1841</v>
-      </c>
-      <c r="B1095" t="s">
-        <v>1842</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B1096" t="s">
         <v>1843</v>
@@ -15053,12 +15056,12 @@
         <v>1844</v>
       </c>
       <c r="B1097" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B1098" t="s">
         <v>1846</v>
@@ -15077,52 +15080,52 @@
         <v>1848</v>
       </c>
       <c r="B1100" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B1101" t="s">
         <v>1850</v>
-      </c>
-      <c r="B1101" t="s">
-        <v>1851</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B1102" t="s">
         <v>1852</v>
-      </c>
-      <c r="B1102" t="s">
-        <v>1853</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B1103" t="s">
         <v>1854</v>
-      </c>
-      <c r="B1103" t="s">
-        <v>1855</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B1104" t="s">
         <v>1856</v>
-      </c>
-      <c r="B1104" t="s">
-        <v>1857</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1105" t="s">
         <v>1858</v>
-      </c>
-      <c r="B1105" t="s">
-        <v>1859</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B1106" t="s">
         <v>1860</v>
@@ -15133,44 +15136,44 @@
         <v>1861</v>
       </c>
       <c r="B1107" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B1108" t="s">
         <v>1863</v>
-      </c>
-      <c r="B1108" t="s">
-        <v>1864</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B1109" t="s">
         <v>1865</v>
-      </c>
-      <c r="B1109" t="s">
-        <v>1866</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B1110" t="s">
         <v>1867</v>
-      </c>
-      <c r="B1110" t="s">
-        <v>1868</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B1111" t="s">
         <v>1869</v>
-      </c>
-      <c r="B1111" t="s">
-        <v>1870</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B1112" t="s">
         <v>1871</v>
@@ -15181,108 +15184,108 @@
         <v>1872</v>
       </c>
       <c r="B1113" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B1114" t="s">
         <v>1874</v>
-      </c>
-      <c r="B1114" t="s">
-        <v>1875</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B1115" t="s">
         <v>1876</v>
-      </c>
-      <c r="B1115" t="s">
-        <v>1877</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B1116" t="s">
         <v>1878</v>
-      </c>
-      <c r="B1116" t="s">
-        <v>1879</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B1117" t="s">
         <v>1880</v>
-      </c>
-      <c r="B1117" t="s">
-        <v>1881</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B1118" t="s">
         <v>1882</v>
-      </c>
-      <c r="B1118" t="s">
-        <v>1883</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B1119" t="s">
         <v>1884</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>1885</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B1120" t="s">
         <v>1886</v>
-      </c>
-      <c r="B1120" t="s">
-        <v>1887</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B1121" t="s">
         <v>1888</v>
-      </c>
-      <c r="B1121" t="s">
-        <v>1889</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1122" t="s">
         <v>1890</v>
-      </c>
-      <c r="B1122" t="s">
-        <v>1891</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1123" t="s">
         <v>1892</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>1893</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1124" t="s">
         <v>1894</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>1895</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B1125" t="s">
         <v>1896</v>
-      </c>
-      <c r="B1125" t="s">
-        <v>1897</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B1126" t="s">
         <v>1898</v>
@@ -15309,12 +15312,12 @@
         <v>1901</v>
       </c>
       <c r="B1129" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B1130" t="s">
         <v>1903</v>
@@ -15325,20 +15328,20 @@
         <v>1904</v>
       </c>
       <c r="B1131" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B1132" t="s">
         <v>1906</v>
-      </c>
-      <c r="B1132" t="s">
-        <v>1907</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B1133" t="s">
         <v>1908</v>
@@ -15365,84 +15368,84 @@
         <v>1911</v>
       </c>
       <c r="B1136" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B1137" t="s">
         <v>1913</v>
-      </c>
-      <c r="B1137" t="s">
-        <v>1914</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B1138" t="s">
         <v>1915</v>
-      </c>
-      <c r="B1138" t="s">
-        <v>1916</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B1139" t="s">
         <v>1917</v>
-      </c>
-      <c r="B1139" t="s">
-        <v>1918</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B1140" t="s">
         <v>1919</v>
-      </c>
-      <c r="B1140" t="s">
-        <v>1920</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B1141" t="s">
         <v>1921</v>
-      </c>
-      <c r="B1141" t="s">
-        <v>1922</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B1142" t="s">
         <v>1923</v>
-      </c>
-      <c r="B1142" t="s">
-        <v>1924</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B1143" t="s">
         <v>1925</v>
-      </c>
-      <c r="B1143" t="s">
-        <v>1926</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B1144" t="s">
         <v>1927</v>
-      </c>
-      <c r="B1144" t="s">
-        <v>1928</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B1145" t="s">
         <v>1929</v>
-      </c>
-      <c r="B1145" t="s">
-        <v>1930</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B1146" t="s">
         <v>1931</v>
@@ -15453,44 +15456,44 @@
         <v>1932</v>
       </c>
       <c r="B1147" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B1148" t="s">
         <v>1934</v>
-      </c>
-      <c r="B1148" t="s">
-        <v>1935</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B1149" t="s">
         <v>1936</v>
-      </c>
-      <c r="B1149" t="s">
-        <v>1937</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B1150" t="s">
         <v>1938</v>
-      </c>
-      <c r="B1150" t="s">
-        <v>1939</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B1151" t="s">
         <v>1940</v>
-      </c>
-      <c r="B1151" t="s">
-        <v>1941</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B1152" t="s">
         <v>1942</v>
@@ -15509,12 +15512,12 @@
         <v>1944</v>
       </c>
       <c r="B1154" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B1155" t="s">
         <v>1946</v>
@@ -15525,20 +15528,20 @@
         <v>1947</v>
       </c>
       <c r="B1156" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B1157" t="s">
         <v>1949</v>
-      </c>
-      <c r="B1157" t="s">
-        <v>1950</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B1158" t="s">
         <v>1951</v>
@@ -15557,12 +15560,12 @@
         <v>1953</v>
       </c>
       <c r="B1160" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B1161" t="s">
         <v>1955</v>
@@ -15597,20 +15600,20 @@
         <v>1959</v>
       </c>
       <c r="B1165" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B1166" t="s">
         <v>1961</v>
-      </c>
-      <c r="B1166" t="s">
-        <v>1962</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B1167" t="s">
         <v>1963</v>
@@ -15621,19 +15624,27 @@
         <v>1964</v>
       </c>
       <c r="B1168" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B1169" t="s">
         <v>1966</v>
       </c>
-      <c r="B1169" t="s">
+    </row>
+    <row r="1170" spans="1:2">
+      <c r="A1170" t="s">
         <v>1967</v>
       </c>
+      <c r="B1170" t="s">
+        <v>1968</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1169"/>
+  <autoFilter ref="A1:B1170"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/sl/headTags.xlsx
+++ b/lang/sl/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1171</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1971">
   <si>
     <t>en</t>
   </si>
@@ -4742,6 +4742,12 @@
   </si>
   <si>
     <t>Sedem smrtnih grehov</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>Senca kolosa</t>
   </si>
   <si>
     <t>Shadows of Mordor</t>
@@ -6270,7 +6276,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1170"/>
+  <dimension ref="A1:B1171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -13784,28 +13790,28 @@
         <v>1579</v>
       </c>
       <c r="B938" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B939" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B940" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B941" t="s">
         <v>1583</v>
@@ -13824,44 +13830,44 @@
         <v>1586</v>
       </c>
       <c r="B943" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B944" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B945" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B946" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B947" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B948" t="s">
         <v>1592</v>
@@ -13904,20 +13910,20 @@
         <v>1601</v>
       </c>
       <c r="B953" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B954" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B955" t="s">
         <v>1604</v>
@@ -13952,12 +13958,12 @@
         <v>1611</v>
       </c>
       <c r="B959" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="960" spans="1:2">
       <c r="A960" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B960" t="s">
         <v>1613</v>
@@ -13976,20 +13982,20 @@
         <v>1616</v>
       </c>
       <c r="B962" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B963" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B964" t="s">
         <v>1619</v>
@@ -14088,28 +14094,28 @@
         <v>1642</v>
       </c>
       <c r="B976" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="B977" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B978" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B979" t="s">
         <v>1646</v>
@@ -14120,36 +14126,36 @@
         <v>1647</v>
       </c>
       <c r="B980" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B981" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B982" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B983" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B984" t="s">
         <v>1652</v>
@@ -14160,12 +14166,12 @@
         <v>1653</v>
       </c>
       <c r="B985" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B986" t="s">
         <v>1655</v>
@@ -14200,12 +14206,12 @@
         <v>1662</v>
       </c>
       <c r="B990" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B991" t="s">
         <v>1664</v>
@@ -14224,12 +14230,12 @@
         <v>1667</v>
       </c>
       <c r="B993" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="B994" t="s">
         <v>1669</v>
@@ -14280,20 +14286,20 @@
         <v>1680</v>
       </c>
       <c r="B1000" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B1001" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B1002" t="s">
         <v>1683</v>
@@ -14320,36 +14326,36 @@
         <v>1688</v>
       </c>
       <c r="B1005" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B1006" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B1007" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B1008" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B1009" t="s">
         <v>1693</v>
@@ -14368,12 +14374,12 @@
         <v>1696</v>
       </c>
       <c r="B1011" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B1012" t="s">
         <v>1698</v>
@@ -14384,20 +14390,20 @@
         <v>1699</v>
       </c>
       <c r="B1013" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B1014" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B1015" t="s">
         <v>1702</v>
@@ -14416,12 +14422,12 @@
         <v>1705</v>
       </c>
       <c r="B1017" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B1018" t="s">
         <v>1707</v>
@@ -14448,12 +14454,12 @@
         <v>1712</v>
       </c>
       <c r="B1021" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B1022" t="s">
         <v>1714</v>
@@ -14464,20 +14470,20 @@
         <v>1715</v>
       </c>
       <c r="B1023" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B1024" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B1025" t="s">
         <v>1718</v>
@@ -14488,52 +14494,52 @@
         <v>1719</v>
       </c>
       <c r="B1026" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B1027" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B1028" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B1029" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B1030" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B1031" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B1032" t="s">
         <v>1726</v>
@@ -14552,12 +14558,12 @@
         <v>1729</v>
       </c>
       <c r="B1034" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B1035" t="s">
         <v>1731</v>
@@ -14584,12 +14590,12 @@
         <v>1736</v>
       </c>
       <c r="B1038" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B1039" t="s">
         <v>1738</v>
@@ -14608,12 +14614,12 @@
         <v>1741</v>
       </c>
       <c r="B1041" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B1042" t="s">
         <v>1743</v>
@@ -14728,12 +14734,12 @@
         <v>1770</v>
       </c>
       <c r="B1056" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B1057" t="s">
         <v>1772</v>
@@ -14832,12 +14838,12 @@
         <v>1795</v>
       </c>
       <c r="B1069" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="B1070" t="s">
         <v>1797</v>
@@ -14856,20 +14862,20 @@
         <v>1800</v>
       </c>
       <c r="B1072" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B1073" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="B1074" t="s">
         <v>1803</v>
@@ -14880,12 +14886,12 @@
         <v>1804</v>
       </c>
       <c r="B1075" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B1076" t="s">
         <v>1806</v>
@@ -14904,12 +14910,12 @@
         <v>1809</v>
       </c>
       <c r="B1078" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B1079" t="s">
         <v>1811</v>
@@ -14984,12 +14990,12 @@
         <v>1828</v>
       </c>
       <c r="B1088" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B1089" t="s">
         <v>1830</v>
@@ -15032,12 +15038,12 @@
         <v>1839</v>
       </c>
       <c r="B1094" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B1095" t="s">
         <v>1841</v>
@@ -15056,12 +15062,12 @@
         <v>1844</v>
       </c>
       <c r="B1097" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B1098" t="s">
         <v>1846</v>
@@ -15072,20 +15078,20 @@
         <v>1847</v>
       </c>
       <c r="B1099" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B1100" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="B1101" t="s">
         <v>1850</v>
@@ -15136,12 +15142,12 @@
         <v>1861</v>
       </c>
       <c r="B1107" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B1108" t="s">
         <v>1863</v>
@@ -15184,12 +15190,12 @@
         <v>1872</v>
       </c>
       <c r="B1113" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="B1114" t="s">
         <v>1874</v>
@@ -15296,28 +15302,28 @@
         <v>1899</v>
       </c>
       <c r="B1127" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="B1128" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="B1129" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B1130" t="s">
         <v>1903</v>
@@ -15328,12 +15334,12 @@
         <v>1904</v>
       </c>
       <c r="B1131" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="B1132" t="s">
         <v>1906</v>
@@ -15352,28 +15358,28 @@
         <v>1909</v>
       </c>
       <c r="B1134" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="B1135" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B1136" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="B1137" t="s">
         <v>1913</v>
@@ -15456,12 +15462,12 @@
         <v>1932</v>
       </c>
       <c r="B1147" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="B1148" t="s">
         <v>1934</v>
@@ -15504,20 +15510,20 @@
         <v>1943</v>
       </c>
       <c r="B1153" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="B1154" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="B1155" t="s">
         <v>1946</v>
@@ -15528,12 +15534,12 @@
         <v>1947</v>
       </c>
       <c r="B1156" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="B1157" t="s">
         <v>1949</v>
@@ -15552,20 +15558,20 @@
         <v>1952</v>
       </c>
       <c r="B1159" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="B1160" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="B1161" t="s">
         <v>1955</v>
@@ -15576,36 +15582,36 @@
         <v>1956</v>
       </c>
       <c r="B1162" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="B1163" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="B1164" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="B1165" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="B1166" t="s">
         <v>1961</v>
@@ -15624,12 +15630,12 @@
         <v>1964</v>
       </c>
       <c r="B1168" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="B1169" t="s">
         <v>1966</v>
@@ -15643,8 +15649,16 @@
         <v>1968</v>
       </c>
     </row>
+    <row r="1171" spans="1:2">
+      <c r="A1171" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>1970</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1170"/>
+  <autoFilter ref="A1:B1171"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/sl/headTags.xlsx
+++ b/lang/sl/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1974">
   <si>
     <t>en</t>
   </si>
@@ -3788,6 +3788,9 @@
   </si>
   <si>
     <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
   </si>
   <si>
     <t>Mouthwashing</t>
@@ -6282,7 +6285,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1172"/>
+  <dimension ref="A1:B1173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -12220,20 +12223,20 @@
         <v>1257</v>
       </c>
       <c r="B741" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B742" t="s">
         <v>1259</v>
-      </c>
-      <c r="B742" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B743" t="s">
         <v>1261</v>
@@ -12252,100 +12255,100 @@
         <v>1263</v>
       </c>
       <c r="B745" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B746" t="s">
         <v>1265</v>
-      </c>
-      <c r="B746" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B747" t="s">
         <v>1267</v>
-      </c>
-      <c r="B747" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B748" t="s">
         <v>1269</v>
-      </c>
-      <c r="B748" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B749" t="s">
         <v>1271</v>
-      </c>
-      <c r="B749" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B750" t="s">
         <v>1273</v>
-      </c>
-      <c r="B750" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B751" t="s">
         <v>1275</v>
-      </c>
-      <c r="B751" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B752" t="s">
         <v>1277</v>
-      </c>
-      <c r="B752" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B753" t="s">
         <v>1279</v>
-      </c>
-      <c r="B753" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B754" t="s">
         <v>1281</v>
-      </c>
-      <c r="B754" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B755" t="s">
         <v>1283</v>
-      </c>
-      <c r="B755" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B756" t="s">
         <v>1285</v>
-      </c>
-      <c r="B756" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B757" t="s">
         <v>1287</v>
@@ -12356,12 +12359,12 @@
         <v>1288</v>
       </c>
       <c r="B758" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B759" t="s">
         <v>1290</v>
@@ -12380,44 +12383,44 @@
         <v>1292</v>
       </c>
       <c r="B761" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B762" t="s">
         <v>1294</v>
-      </c>
-      <c r="B762" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B763" t="s">
         <v>1296</v>
-      </c>
-      <c r="B763" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B764" t="s">
         <v>1298</v>
-      </c>
-      <c r="B764" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B765" t="s">
         <v>1300</v>
-      </c>
-      <c r="B765" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B766" t="s">
         <v>1302</v>
@@ -12428,100 +12431,100 @@
         <v>1303</v>
       </c>
       <c r="B767" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B768" t="s">
         <v>1305</v>
-      </c>
-      <c r="B768" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B769" t="s">
         <v>1307</v>
-      </c>
-      <c r="B769" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B770" t="s">
         <v>1309</v>
-      </c>
-      <c r="B770" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B771" t="s">
         <v>1311</v>
-      </c>
-      <c r="B771" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B772" t="s">
         <v>1313</v>
-      </c>
-      <c r="B772" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B773" t="s">
         <v>1315</v>
-      </c>
-      <c r="B773" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B774" t="s">
         <v>1317</v>
-      </c>
-      <c r="B774" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B775" t="s">
         <v>1319</v>
-      </c>
-      <c r="B775" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B776" t="s">
         <v>1321</v>
-      </c>
-      <c r="B776" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B777" t="s">
         <v>1323</v>
-      </c>
-      <c r="B777" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B778" t="s">
         <v>1325</v>
-      </c>
-      <c r="B778" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B779" t="s">
         <v>1327</v>
@@ -12556,20 +12559,20 @@
         <v>1331</v>
       </c>
       <c r="B783" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B784" t="s">
         <v>1333</v>
-      </c>
-      <c r="B784" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B785" t="s">
         <v>1335</v>
@@ -12580,12 +12583,12 @@
         <v>1336</v>
       </c>
       <c r="B786" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B787" t="s">
         <v>1338</v>
@@ -12604,12 +12607,12 @@
         <v>1340</v>
       </c>
       <c r="B789" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B790" t="s">
         <v>1342</v>
@@ -12644,12 +12647,12 @@
         <v>1346</v>
       </c>
       <c r="B794" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B795" t="s">
         <v>1348</v>
@@ -12660,60 +12663,60 @@
         <v>1349</v>
       </c>
       <c r="B796" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B797" t="s">
         <v>1351</v>
-      </c>
-      <c r="B797" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B798" t="s">
         <v>1353</v>
-      </c>
-      <c r="B798" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B799" t="s">
         <v>1355</v>
-      </c>
-      <c r="B799" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B800" t="s">
         <v>1357</v>
-      </c>
-      <c r="B800" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="801" spans="1:2">
       <c r="A801" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B801" t="s">
         <v>1359</v>
-      </c>
-      <c r="B801" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="802" spans="1:2">
       <c r="A802" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B802" t="s">
         <v>1361</v>
-      </c>
-      <c r="B802" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="803" spans="1:2">
       <c r="A803" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B803" t="s">
         <v>1363</v>
@@ -12740,60 +12743,60 @@
         <v>1366</v>
       </c>
       <c r="B806" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B807" t="s">
         <v>1368</v>
-      </c>
-      <c r="B807" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B808" t="s">
         <v>1370</v>
-      </c>
-      <c r="B808" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B809" t="s">
         <v>1372</v>
-      </c>
-      <c r="B809" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="810" spans="1:2">
       <c r="A810" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B810" t="s">
         <v>1374</v>
-      </c>
-      <c r="B810" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="811" spans="1:2">
       <c r="A811" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B811" t="s">
         <v>1376</v>
-      </c>
-      <c r="B811" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B812" t="s">
         <v>1378</v>
-      </c>
-      <c r="B812" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B813" t="s">
         <v>1380</v>
@@ -12804,20 +12807,20 @@
         <v>1381</v>
       </c>
       <c r="B814" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B815" t="s">
         <v>1383</v>
-      </c>
-      <c r="B815" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B816" t="s">
         <v>1385</v>
@@ -12828,28 +12831,28 @@
         <v>1386</v>
       </c>
       <c r="B817" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B818" t="s">
         <v>1388</v>
-      </c>
-      <c r="B818" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B819" t="s">
         <v>1390</v>
-      </c>
-      <c r="B819" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B820" t="s">
         <v>1392</v>
@@ -12860,12 +12863,12 @@
         <v>1393</v>
       </c>
       <c r="B821" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B822" t="s">
         <v>1395</v>
@@ -12876,12 +12879,12 @@
         <v>1396</v>
       </c>
       <c r="B823" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B824" t="s">
         <v>1398</v>
@@ -12892,12 +12895,12 @@
         <v>1399</v>
       </c>
       <c r="B825" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B826" t="s">
         <v>1401</v>
@@ -12908,12 +12911,12 @@
         <v>1402</v>
       </c>
       <c r="B827" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B828" t="s">
         <v>1404</v>
@@ -12948,20 +12951,20 @@
         <v>1408</v>
       </c>
       <c r="B832" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B833" t="s">
         <v>1410</v>
-      </c>
-      <c r="B833" t="s">
-        <v>1411</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B834" t="s">
         <v>1412</v>
@@ -12972,20 +12975,20 @@
         <v>1413</v>
       </c>
       <c r="B835" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B836" t="s">
         <v>1415</v>
-      </c>
-      <c r="B836" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B837" t="s">
         <v>1417</v>
@@ -12996,12 +12999,12 @@
         <v>1418</v>
       </c>
       <c r="B838" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B839" t="s">
         <v>1420</v>
@@ -13036,108 +13039,108 @@
         <v>1424</v>
       </c>
       <c r="B843" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B844" t="s">
         <v>1426</v>
-      </c>
-      <c r="B844" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B845" t="s">
         <v>1428</v>
-      </c>
-      <c r="B845" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B846" t="s">
         <v>1430</v>
-      </c>
-      <c r="B846" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B847" t="s">
         <v>1432</v>
-      </c>
-      <c r="B847" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B848" t="s">
         <v>1434</v>
-      </c>
-      <c r="B848" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B849" t="s">
         <v>1436</v>
-      </c>
-      <c r="B849" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B850" t="s">
         <v>1438</v>
-      </c>
-      <c r="B850" t="s">
-        <v>1439</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B851" t="s">
         <v>1440</v>
-      </c>
-      <c r="B851" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B852" t="s">
         <v>1442</v>
-      </c>
-      <c r="B852" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B853" t="s">
         <v>1444</v>
-      </c>
-      <c r="B853" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="854" spans="1:2">
       <c r="A854" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B854" t="s">
         <v>1446</v>
-      </c>
-      <c r="B854" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="855" spans="1:2">
       <c r="A855" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B855" t="s">
         <v>1448</v>
-      </c>
-      <c r="B855" t="s">
-        <v>1449</v>
       </c>
     </row>
     <row r="856" spans="1:2">
       <c r="A856" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B856" t="s">
         <v>1450</v>
@@ -13196,12 +13199,12 @@
         <v>1457</v>
       </c>
       <c r="B863" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B864" t="s">
         <v>1459</v>
@@ -13228,12 +13231,12 @@
         <v>1462</v>
       </c>
       <c r="B867" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B868" t="s">
         <v>1464</v>
@@ -13244,52 +13247,52 @@
         <v>1465</v>
       </c>
       <c r="B869" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B870" t="s">
         <v>1467</v>
-      </c>
-      <c r="B870" t="s">
-        <v>1468</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B871" t="s">
         <v>1469</v>
-      </c>
-      <c r="B871" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B872" t="s">
         <v>1471</v>
-      </c>
-      <c r="B872" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="873" spans="1:2">
       <c r="A873" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B873" t="s">
         <v>1473</v>
-      </c>
-      <c r="B873" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="874" spans="1:2">
       <c r="A874" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B874" t="s">
         <v>1475</v>
-      </c>
-      <c r="B874" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="875" spans="1:2">
       <c r="A875" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B875" t="s">
         <v>1477</v>
@@ -13308,28 +13311,28 @@
         <v>1479</v>
       </c>
       <c r="B877" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B878" t="s">
         <v>1481</v>
-      </c>
-      <c r="B878" t="s">
-        <v>1482</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B879" t="s">
         <v>1483</v>
-      </c>
-      <c r="B879" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="880" spans="1:2">
       <c r="A880" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B880" t="s">
         <v>1485</v>
@@ -13348,12 +13351,12 @@
         <v>1487</v>
       </c>
       <c r="B882" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B883" t="s">
         <v>1489</v>
@@ -13364,12 +13367,12 @@
         <v>1490</v>
       </c>
       <c r="B884" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B885" t="s">
         <v>1492</v>
@@ -13380,12 +13383,12 @@
         <v>1493</v>
       </c>
       <c r="B886" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B887" t="s">
         <v>1495</v>
@@ -13396,12 +13399,12 @@
         <v>1496</v>
       </c>
       <c r="B888" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B889" t="s">
         <v>1498</v>
@@ -13412,36 +13415,36 @@
         <v>1499</v>
       </c>
       <c r="B890" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B891" t="s">
         <v>1501</v>
-      </c>
-      <c r="B891" t="s">
-        <v>1502</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B892" t="s">
         <v>1503</v>
-      </c>
-      <c r="B892" t="s">
-        <v>1504</v>
       </c>
     </row>
     <row r="893" spans="1:2">
       <c r="A893" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B893" t="s">
         <v>1505</v>
-      </c>
-      <c r="B893" t="s">
-        <v>1506</v>
       </c>
     </row>
     <row r="894" spans="1:2">
       <c r="A894" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B894" t="s">
         <v>1507</v>
@@ -13452,52 +13455,52 @@
         <v>1508</v>
       </c>
       <c r="B895" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B896" t="s">
         <v>1510</v>
-      </c>
-      <c r="B896" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B897" t="s">
         <v>1512</v>
-      </c>
-      <c r="B897" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="898" spans="1:2">
       <c r="A898" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B898" t="s">
         <v>1514</v>
-      </c>
-      <c r="B898" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="899" spans="1:2">
       <c r="A899" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B899" t="s">
         <v>1516</v>
-      </c>
-      <c r="B899" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="900" spans="1:2">
       <c r="A900" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B900" t="s">
         <v>1518</v>
-      </c>
-      <c r="B900" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="901" spans="1:2">
       <c r="A901" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B901" t="s">
         <v>1520</v>
@@ -13556,28 +13559,28 @@
         <v>1527</v>
       </c>
       <c r="B908" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B909" t="s">
         <v>1529</v>
-      </c>
-      <c r="B909" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B910" t="s">
         <v>1531</v>
-      </c>
-      <c r="B910" t="s">
-        <v>1532</v>
       </c>
     </row>
     <row r="911" spans="1:2">
       <c r="A911" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B911" t="s">
         <v>1533</v>
@@ -13604,44 +13607,44 @@
         <v>1536</v>
       </c>
       <c r="B914" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B915" t="s">
         <v>1538</v>
-      </c>
-      <c r="B915" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B916" t="s">
         <v>1540</v>
-      </c>
-      <c r="B916" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="917" spans="1:2">
       <c r="A917" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B917" t="s">
         <v>1542</v>
-      </c>
-      <c r="B917" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="918" spans="1:2">
       <c r="A918" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B918" t="s">
         <v>1544</v>
-      </c>
-      <c r="B918" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="919" spans="1:2">
       <c r="A919" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B919" t="s">
         <v>1546</v>
@@ -13660,36 +13663,36 @@
         <v>1548</v>
       </c>
       <c r="B921" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B922" t="s">
         <v>1550</v>
-      </c>
-      <c r="B922" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B923" t="s">
         <v>1552</v>
-      </c>
-      <c r="B923" t="s">
-        <v>1553</v>
       </c>
     </row>
     <row r="924" spans="1:2">
       <c r="A924" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B924" t="s">
         <v>1554</v>
-      </c>
-      <c r="B924" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="925" spans="1:2">
       <c r="A925" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B925" t="s">
         <v>1556</v>
@@ -13700,20 +13703,20 @@
         <v>1557</v>
       </c>
       <c r="B926" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B927" t="s">
         <v>1559</v>
-      </c>
-      <c r="B927" t="s">
-        <v>1560</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B928" t="s">
         <v>1561</v>
@@ -13724,12 +13727,12 @@
         <v>1562</v>
       </c>
       <c r="B929" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B930" t="s">
         <v>1564</v>
@@ -13740,60 +13743,60 @@
         <v>1565</v>
       </c>
       <c r="B931" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B932" t="s">
         <v>1567</v>
-      </c>
-      <c r="B932" t="s">
-        <v>1568</v>
       </c>
     </row>
     <row r="933" spans="1:2">
       <c r="A933" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B933" t="s">
         <v>1569</v>
-      </c>
-      <c r="B933" t="s">
-        <v>1570</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B934" t="s">
         <v>1571</v>
-      </c>
-      <c r="B934" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="935" spans="1:2">
       <c r="A935" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B935" t="s">
         <v>1573</v>
-      </c>
-      <c r="B935" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="936" spans="1:2">
       <c r="A936" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B936" t="s">
         <v>1575</v>
-      </c>
-      <c r="B936" t="s">
-        <v>1576</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B937" t="s">
         <v>1577</v>
-      </c>
-      <c r="B937" t="s">
-        <v>1578</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B938" t="s">
         <v>1579</v>
@@ -13820,20 +13823,20 @@
         <v>1582</v>
       </c>
       <c r="B941" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B942" t="s">
         <v>1584</v>
-      </c>
-      <c r="B942" t="s">
-        <v>1585</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B943" t="s">
         <v>1586</v>
@@ -13876,44 +13879,44 @@
         <v>1591</v>
       </c>
       <c r="B948" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B949" t="s">
         <v>1593</v>
-      </c>
-      <c r="B949" t="s">
-        <v>1594</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B950" t="s">
         <v>1595</v>
-      </c>
-      <c r="B950" t="s">
-        <v>1596</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B951" t="s">
         <v>1597</v>
-      </c>
-      <c r="B951" t="s">
-        <v>1598</v>
       </c>
     </row>
     <row r="952" spans="1:2">
       <c r="A952" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B952" t="s">
         <v>1599</v>
-      </c>
-      <c r="B952" t="s">
-        <v>1600</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B953" t="s">
         <v>1601</v>
@@ -13932,36 +13935,36 @@
         <v>1603</v>
       </c>
       <c r="B955" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B956" t="s">
         <v>1605</v>
-      </c>
-      <c r="B956" t="s">
-        <v>1606</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B957" t="s">
         <v>1607</v>
-      </c>
-      <c r="B957" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="958" spans="1:2">
       <c r="A958" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B958" t="s">
         <v>1609</v>
-      </c>
-      <c r="B958" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B959" t="s">
         <v>1611</v>
@@ -13972,20 +13975,20 @@
         <v>1612</v>
       </c>
       <c r="B960" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B961" t="s">
         <v>1614</v>
-      </c>
-      <c r="B961" t="s">
-        <v>1615</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B962" t="s">
         <v>1616</v>
@@ -14004,100 +14007,100 @@
         <v>1618</v>
       </c>
       <c r="B964" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B965" t="s">
         <v>1620</v>
-      </c>
-      <c r="B965" t="s">
-        <v>1621</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B966" t="s">
         <v>1622</v>
-      </c>
-      <c r="B966" t="s">
-        <v>1623</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B967" t="s">
         <v>1624</v>
-      </c>
-      <c r="B967" t="s">
-        <v>1625</v>
       </c>
     </row>
     <row r="968" spans="1:2">
       <c r="A968" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B968" t="s">
         <v>1626</v>
-      </c>
-      <c r="B968" t="s">
-        <v>1627</v>
       </c>
     </row>
     <row r="969" spans="1:2">
       <c r="A969" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B969" t="s">
         <v>1628</v>
-      </c>
-      <c r="B969" t="s">
-        <v>1629</v>
       </c>
     </row>
     <row r="970" spans="1:2">
       <c r="A970" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B970" t="s">
         <v>1630</v>
-      </c>
-      <c r="B970" t="s">
-        <v>1631</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B971" t="s">
         <v>1632</v>
-      </c>
-      <c r="B971" t="s">
-        <v>1633</v>
       </c>
     </row>
     <row r="972" spans="1:2">
       <c r="A972" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B972" t="s">
         <v>1634</v>
-      </c>
-      <c r="B972" t="s">
-        <v>1635</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B973" t="s">
         <v>1636</v>
-      </c>
-      <c r="B973" t="s">
-        <v>1637</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B974" t="s">
         <v>1638</v>
-      </c>
-      <c r="B974" t="s">
-        <v>1639</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B975" t="s">
         <v>1640</v>
-      </c>
-      <c r="B975" t="s">
-        <v>1641</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B976" t="s">
         <v>1642</v>
@@ -14124,12 +14127,12 @@
         <v>1645</v>
       </c>
       <c r="B979" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B980" t="s">
         <v>1647</v>
@@ -14164,12 +14167,12 @@
         <v>1651</v>
       </c>
       <c r="B984" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B985" t="s">
         <v>1653</v>
@@ -14180,36 +14183,36 @@
         <v>1654</v>
       </c>
       <c r="B986" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B987" t="s">
         <v>1656</v>
-      </c>
-      <c r="B987" t="s">
-        <v>1657</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B988" t="s">
         <v>1658</v>
-      </c>
-      <c r="B988" t="s">
-        <v>1659</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B989" t="s">
         <v>1660</v>
-      </c>
-      <c r="B989" t="s">
-        <v>1661</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B990" t="s">
         <v>1662</v>
@@ -14220,20 +14223,20 @@
         <v>1663</v>
       </c>
       <c r="B991" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B992" t="s">
         <v>1665</v>
-      </c>
-      <c r="B992" t="s">
-        <v>1666</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B993" t="s">
         <v>1667</v>
@@ -14244,52 +14247,52 @@
         <v>1668</v>
       </c>
       <c r="B994" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B995" t="s">
         <v>1670</v>
-      </c>
-      <c r="B995" t="s">
-        <v>1671</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B996" t="s">
         <v>1672</v>
-      </c>
-      <c r="B996" t="s">
-        <v>1673</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B997" t="s">
         <v>1674</v>
-      </c>
-      <c r="B997" t="s">
-        <v>1675</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B998" t="s">
         <v>1676</v>
-      </c>
-      <c r="B998" t="s">
-        <v>1677</v>
       </c>
     </row>
     <row r="999" spans="1:2">
       <c r="A999" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B999" t="s">
         <v>1678</v>
-      </c>
-      <c r="B999" t="s">
-        <v>1679</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B1000" t="s">
         <v>1680</v>
@@ -14308,28 +14311,28 @@
         <v>1682</v>
       </c>
       <c r="B1002" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B1003" t="s">
         <v>1684</v>
-      </c>
-      <c r="B1003" t="s">
-        <v>1685</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B1004" t="s">
         <v>1686</v>
-      </c>
-      <c r="B1004" t="s">
-        <v>1687</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B1005" t="s">
         <v>1688</v>
@@ -14364,20 +14367,20 @@
         <v>1692</v>
       </c>
       <c r="B1009" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B1010" t="s">
         <v>1694</v>
-      </c>
-      <c r="B1010" t="s">
-        <v>1695</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B1011" t="s">
         <v>1696</v>
@@ -14388,12 +14391,12 @@
         <v>1697</v>
       </c>
       <c r="B1012" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B1013" t="s">
         <v>1699</v>
@@ -14412,20 +14415,20 @@
         <v>1701</v>
       </c>
       <c r="B1015" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B1016" t="s">
         <v>1703</v>
-      </c>
-      <c r="B1016" t="s">
-        <v>1704</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B1017" t="s">
         <v>1705</v>
@@ -14436,28 +14439,28 @@
         <v>1706</v>
       </c>
       <c r="B1018" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B1019" t="s">
         <v>1708</v>
-      </c>
-      <c r="B1019" t="s">
-        <v>1709</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1020" t="s">
         <v>1710</v>
-      </c>
-      <c r="B1020" t="s">
-        <v>1711</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B1021" t="s">
         <v>1712</v>
@@ -14468,12 +14471,12 @@
         <v>1713</v>
       </c>
       <c r="B1022" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B1023" t="s">
         <v>1715</v>
@@ -14492,12 +14495,12 @@
         <v>1717</v>
       </c>
       <c r="B1025" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B1026" t="s">
         <v>1719</v>
@@ -14548,20 +14551,20 @@
         <v>1725</v>
       </c>
       <c r="B1032" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B1033" t="s">
         <v>1727</v>
-      </c>
-      <c r="B1033" t="s">
-        <v>1728</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B1034" t="s">
         <v>1729</v>
@@ -14572,28 +14575,28 @@
         <v>1730</v>
       </c>
       <c r="B1035" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B1036" t="s">
         <v>1732</v>
-      </c>
-      <c r="B1036" t="s">
-        <v>1733</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B1037" t="s">
         <v>1734</v>
-      </c>
-      <c r="B1037" t="s">
-        <v>1735</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B1038" t="s">
         <v>1736</v>
@@ -14604,20 +14607,20 @@
         <v>1737</v>
       </c>
       <c r="B1039" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1040" t="s">
         <v>1739</v>
-      </c>
-      <c r="B1040" t="s">
-        <v>1740</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B1041" t="s">
         <v>1741</v>
@@ -14628,124 +14631,124 @@
         <v>1742</v>
       </c>
       <c r="B1042" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B1043" t="s">
         <v>1744</v>
-      </c>
-      <c r="B1043" t="s">
-        <v>1745</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1044" t="s">
         <v>1746</v>
-      </c>
-      <c r="B1044" t="s">
-        <v>1747</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B1045" t="s">
         <v>1748</v>
-      </c>
-      <c r="B1045" t="s">
-        <v>1749</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B1046" t="s">
         <v>1750</v>
-      </c>
-      <c r="B1046" t="s">
-        <v>1751</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1047" t="s">
         <v>1752</v>
-      </c>
-      <c r="B1047" t="s">
-        <v>1753</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B1048" t="s">
         <v>1754</v>
-      </c>
-      <c r="B1048" t="s">
-        <v>1755</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B1049" t="s">
         <v>1756</v>
-      </c>
-      <c r="B1049" t="s">
-        <v>1757</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B1050" t="s">
         <v>1758</v>
-      </c>
-      <c r="B1050" t="s">
-        <v>1759</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B1051" t="s">
         <v>1760</v>
-      </c>
-      <c r="B1051" t="s">
-        <v>1761</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1052" t="s">
         <v>1762</v>
-      </c>
-      <c r="B1052" t="s">
-        <v>1763</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B1053" t="s">
         <v>1764</v>
-      </c>
-      <c r="B1053" t="s">
-        <v>1765</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
       <c r="A1054" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B1054" t="s">
         <v>1766</v>
-      </c>
-      <c r="B1054" t="s">
-        <v>1767</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
       <c r="A1055" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B1055" t="s">
         <v>1768</v>
-      </c>
-      <c r="B1055" t="s">
-        <v>1769</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B1056" t="s">
         <v>1770</v>
-      </c>
-      <c r="B1056" t="s">
-        <v>1771</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B1057" t="s">
         <v>1772</v>
@@ -14756,100 +14759,100 @@
         <v>1773</v>
       </c>
       <c r="B1058" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1059" t="s">
         <v>1775</v>
-      </c>
-      <c r="B1059" t="s">
-        <v>1776</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B1060" t="s">
         <v>1777</v>
-      </c>
-      <c r="B1060" t="s">
-        <v>1778</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1061" t="s">
         <v>1779</v>
-      </c>
-      <c r="B1061" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B1062" t="s">
         <v>1781</v>
-      </c>
-      <c r="B1062" t="s">
-        <v>1782</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1063" t="s">
         <v>1783</v>
-      </c>
-      <c r="B1063" t="s">
-        <v>1784</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B1064" t="s">
         <v>1785</v>
-      </c>
-      <c r="B1064" t="s">
-        <v>1786</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B1065" t="s">
         <v>1787</v>
-      </c>
-      <c r="B1065" t="s">
-        <v>1788</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B1066" t="s">
         <v>1789</v>
-      </c>
-      <c r="B1066" t="s">
-        <v>1790</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1067" t="s">
         <v>1791</v>
-      </c>
-      <c r="B1067" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B1068" t="s">
         <v>1793</v>
-      </c>
-      <c r="B1068" t="s">
-        <v>1794</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B1069" t="s">
         <v>1795</v>
-      </c>
-      <c r="B1069" t="s">
-        <v>1796</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B1070" t="s">
         <v>1797</v>
@@ -14860,20 +14863,20 @@
         <v>1798</v>
       </c>
       <c r="B1071" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1072" t="s">
         <v>1800</v>
-      </c>
-      <c r="B1072" t="s">
-        <v>1801</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B1073" t="s">
         <v>1802</v>
@@ -14892,12 +14895,12 @@
         <v>1804</v>
       </c>
       <c r="B1075" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B1076" t="s">
         <v>1806</v>
@@ -14908,20 +14911,20 @@
         <v>1807</v>
       </c>
       <c r="B1077" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B1078" t="s">
         <v>1809</v>
-      </c>
-      <c r="B1078" t="s">
-        <v>1810</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B1079" t="s">
         <v>1811</v>
@@ -14932,76 +14935,76 @@
         <v>1812</v>
       </c>
       <c r="B1080" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B1081" t="s">
         <v>1814</v>
-      </c>
-      <c r="B1081" t="s">
-        <v>1815</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B1082" t="s">
         <v>1816</v>
-      </c>
-      <c r="B1082" t="s">
-        <v>1817</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B1083" t="s">
         <v>1818</v>
-      </c>
-      <c r="B1083" t="s">
-        <v>1819</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B1084" t="s">
         <v>1820</v>
-      </c>
-      <c r="B1084" t="s">
-        <v>1821</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B1085" t="s">
         <v>1822</v>
-      </c>
-      <c r="B1085" t="s">
-        <v>1823</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1086" t="s">
         <v>1824</v>
-      </c>
-      <c r="B1086" t="s">
-        <v>1825</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B1087" t="s">
         <v>1826</v>
-      </c>
-      <c r="B1087" t="s">
-        <v>1827</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B1088" t="s">
         <v>1828</v>
-      </c>
-      <c r="B1088" t="s">
-        <v>1829</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B1089" t="s">
         <v>1830</v>
@@ -15012,44 +15015,44 @@
         <v>1831</v>
       </c>
       <c r="B1090" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B1091" t="s">
         <v>1833</v>
-      </c>
-      <c r="B1091" t="s">
-        <v>1834</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B1092" t="s">
         <v>1835</v>
-      </c>
-      <c r="B1092" t="s">
-        <v>1836</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B1093" t="s">
         <v>1837</v>
-      </c>
-      <c r="B1093" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B1094" t="s">
         <v>1839</v>
-      </c>
-      <c r="B1094" t="s">
-        <v>1840</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B1095" t="s">
         <v>1841</v>
@@ -15060,20 +15063,20 @@
         <v>1842</v>
       </c>
       <c r="B1096" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B1097" t="s">
         <v>1844</v>
-      </c>
-      <c r="B1097" t="s">
-        <v>1845</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B1098" t="s">
         <v>1846</v>
@@ -15084,12 +15087,12 @@
         <v>1847</v>
       </c>
       <c r="B1099" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B1100" t="s">
         <v>1849</v>
@@ -15108,52 +15111,52 @@
         <v>1851</v>
       </c>
       <c r="B1102" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B1103" t="s">
         <v>1853</v>
-      </c>
-      <c r="B1103" t="s">
-        <v>1854</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B1104" t="s">
         <v>1855</v>
-      </c>
-      <c r="B1104" t="s">
-        <v>1856</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1105" t="s">
         <v>1857</v>
-      </c>
-      <c r="B1105" t="s">
-        <v>1858</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B1106" t="s">
         <v>1859</v>
-      </c>
-      <c r="B1106" t="s">
-        <v>1860</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B1107" t="s">
         <v>1861</v>
-      </c>
-      <c r="B1107" t="s">
-        <v>1862</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B1108" t="s">
         <v>1863</v>
@@ -15164,44 +15167,44 @@
         <v>1864</v>
       </c>
       <c r="B1109" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B1110" t="s">
         <v>1866</v>
-      </c>
-      <c r="B1110" t="s">
-        <v>1867</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B1111" t="s">
         <v>1868</v>
-      </c>
-      <c r="B1111" t="s">
-        <v>1869</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1112" t="s">
         <v>1870</v>
-      </c>
-      <c r="B1112" t="s">
-        <v>1871</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1113" t="s">
         <v>1872</v>
-      </c>
-      <c r="B1113" t="s">
-        <v>1873</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B1114" t="s">
         <v>1874</v>
@@ -15212,108 +15215,108 @@
         <v>1875</v>
       </c>
       <c r="B1115" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B1116" t="s">
         <v>1877</v>
-      </c>
-      <c r="B1116" t="s">
-        <v>1878</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B1117" t="s">
         <v>1879</v>
-      </c>
-      <c r="B1117" t="s">
-        <v>1880</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B1118" t="s">
         <v>1881</v>
-      </c>
-      <c r="B1118" t="s">
-        <v>1882</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1119" t="s">
         <v>1883</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>1884</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B1120" t="s">
         <v>1885</v>
-      </c>
-      <c r="B1120" t="s">
-        <v>1886</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B1121" t="s">
         <v>1887</v>
-      </c>
-      <c r="B1121" t="s">
-        <v>1888</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B1122" t="s">
         <v>1889</v>
-      </c>
-      <c r="B1122" t="s">
-        <v>1890</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1123" t="s">
         <v>1891</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>1892</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1124" t="s">
         <v>1893</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>1894</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B1125" t="s">
         <v>1895</v>
-      </c>
-      <c r="B1125" t="s">
-        <v>1896</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B1126" t="s">
         <v>1897</v>
-      </c>
-      <c r="B1126" t="s">
-        <v>1898</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B1127" t="s">
         <v>1899</v>
-      </c>
-      <c r="B1127" t="s">
-        <v>1900</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B1128" t="s">
         <v>1901</v>
@@ -15340,12 +15343,12 @@
         <v>1904</v>
       </c>
       <c r="B1131" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B1132" t="s">
         <v>1906</v>
@@ -15356,20 +15359,20 @@
         <v>1907</v>
       </c>
       <c r="B1133" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B1134" t="s">
         <v>1909</v>
-      </c>
-      <c r="B1134" t="s">
-        <v>1910</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B1135" t="s">
         <v>1911</v>
@@ -15396,84 +15399,84 @@
         <v>1914</v>
       </c>
       <c r="B1138" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B1139" t="s">
         <v>1916</v>
-      </c>
-      <c r="B1139" t="s">
-        <v>1917</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B1140" t="s">
         <v>1918</v>
-      </c>
-      <c r="B1140" t="s">
-        <v>1919</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B1141" t="s">
         <v>1920</v>
-      </c>
-      <c r="B1141" t="s">
-        <v>1921</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B1142" t="s">
         <v>1922</v>
-      </c>
-      <c r="B1142" t="s">
-        <v>1923</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B1143" t="s">
         <v>1924</v>
-      </c>
-      <c r="B1143" t="s">
-        <v>1925</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B1144" t="s">
         <v>1926</v>
-      </c>
-      <c r="B1144" t="s">
-        <v>1927</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B1145" t="s">
         <v>1928</v>
-      </c>
-      <c r="B1145" t="s">
-        <v>1929</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B1146" t="s">
         <v>1930</v>
-      </c>
-      <c r="B1146" t="s">
-        <v>1931</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B1147" t="s">
         <v>1932</v>
-      </c>
-      <c r="B1147" t="s">
-        <v>1933</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B1148" t="s">
         <v>1934</v>
@@ -15484,44 +15487,44 @@
         <v>1935</v>
       </c>
       <c r="B1149" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1150" t="s">
         <v>1937</v>
-      </c>
-      <c r="B1150" t="s">
-        <v>1938</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B1151" t="s">
         <v>1939</v>
-      </c>
-      <c r="B1151" t="s">
-        <v>1940</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B1152" t="s">
         <v>1941</v>
-      </c>
-      <c r="B1152" t="s">
-        <v>1942</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B1153" t="s">
         <v>1943</v>
-      </c>
-      <c r="B1153" t="s">
-        <v>1944</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B1154" t="s">
         <v>1945</v>
@@ -15540,12 +15543,12 @@
         <v>1947</v>
       </c>
       <c r="B1156" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B1157" t="s">
         <v>1949</v>
@@ -15556,20 +15559,20 @@
         <v>1950</v>
       </c>
       <c r="B1158" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B1159" t="s">
         <v>1952</v>
-      </c>
-      <c r="B1159" t="s">
-        <v>1953</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B1160" t="s">
         <v>1954</v>
@@ -15588,12 +15591,12 @@
         <v>1956</v>
       </c>
       <c r="B1162" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B1163" t="s">
         <v>1958</v>
@@ -15628,20 +15631,20 @@
         <v>1962</v>
       </c>
       <c r="B1167" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B1168" t="s">
         <v>1964</v>
-      </c>
-      <c r="B1168" t="s">
-        <v>1965</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B1169" t="s">
         <v>1966</v>
@@ -15652,27 +15655,35 @@
         <v>1967</v>
       </c>
       <c r="B1170" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B1171" t="s">
         <v>1969</v>
-      </c>
-      <c r="B1171" t="s">
-        <v>1970</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B1172" t="s">
         <v>1971</v>
       </c>
-      <c r="B1172" t="s">
+    </row>
+    <row r="1173" spans="1:2">
+      <c r="A1173" t="s">
         <v>1972</v>
       </c>
+      <c r="B1173" t="s">
+        <v>1973</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1172"/>
+  <autoFilter ref="A1:B1173"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/sl/headTags.xlsx
+++ b/lang/sl/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1976">
   <si>
     <t>en</t>
   </si>
@@ -2144,6 +2144,12 @@
   </si>
   <si>
     <t>Pisava (Rainbow)</t>
+  </si>
+  <si>
+    <t>Font (Red Chiseled Sandstone)</t>
+  </si>
+  <si>
+    <t>Pisava (Red Chiseled Sandstone)</t>
   </si>
   <si>
     <t>Font (Red)</t>
@@ -6285,7 +6291,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1173"/>
+  <dimension ref="A1:B1174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9727,20 +9733,20 @@
         <v>735</v>
       </c>
       <c r="B429" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B430" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B431" t="s">
         <v>738</v>
@@ -9751,20 +9757,20 @@
         <v>739</v>
       </c>
       <c r="B432" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B433" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B434" t="s">
         <v>742</v>
@@ -9839,12 +9845,12 @@
         <v>759</v>
       </c>
       <c r="B443" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B444" t="s">
         <v>761</v>
@@ -9855,12 +9861,12 @@
         <v>762</v>
       </c>
       <c r="B445" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B446" t="s">
         <v>764</v>
@@ -9871,12 +9877,12 @@
         <v>765</v>
       </c>
       <c r="B447" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B448" t="s">
         <v>767</v>
@@ -9911,20 +9917,20 @@
         <v>774</v>
       </c>
       <c r="B452" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B453" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B454" t="s">
         <v>777</v>
@@ -9951,12 +9957,12 @@
         <v>782</v>
       </c>
       <c r="B457" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B458" t="s">
         <v>784</v>
@@ -9991,36 +9997,36 @@
         <v>791</v>
       </c>
       <c r="B462" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B463" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B464" t="s">
-        <v>522</v>
+        <v>794</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B465" t="s">
-        <v>794</v>
+        <v>522</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B466" t="s">
         <v>796</v>
@@ -10031,12 +10037,12 @@
         <v>797</v>
       </c>
       <c r="B467" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B468" t="s">
         <v>799</v>
@@ -10055,36 +10061,36 @@
         <v>802</v>
       </c>
       <c r="B470" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B471" t="s">
-        <v>522</v>
+        <v>804</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B472" t="s">
-        <v>804</v>
+        <v>522</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B473" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B474" t="s">
         <v>807</v>
@@ -10095,12 +10101,12 @@
         <v>808</v>
       </c>
       <c r="B475" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B476" t="s">
         <v>810</v>
@@ -10135,20 +10141,20 @@
         <v>817</v>
       </c>
       <c r="B480" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B481" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B482" t="s">
         <v>820</v>
@@ -10159,12 +10165,12 @@
         <v>821</v>
       </c>
       <c r="B483" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B484" t="s">
         <v>823</v>
@@ -10175,36 +10181,36 @@
         <v>824</v>
       </c>
       <c r="B485" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B486" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B487" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B488" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B489" t="s">
         <v>829</v>
@@ -10359,12 +10365,12 @@
         <v>866</v>
       </c>
       <c r="B508" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B509" t="s">
         <v>868</v>
@@ -10383,12 +10389,12 @@
         <v>871</v>
       </c>
       <c r="B511" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B512" t="s">
         <v>873</v>
@@ -10439,20 +10445,20 @@
         <v>884</v>
       </c>
       <c r="B518" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B519" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B520" t="s">
         <v>887</v>
@@ -10535,12 +10541,12 @@
         <v>906</v>
       </c>
       <c r="B530" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B531" t="s">
         <v>908</v>
@@ -10559,20 +10565,20 @@
         <v>911</v>
       </c>
       <c r="B533" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B534" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B535" t="s">
         <v>914</v>
@@ -10591,28 +10597,28 @@
         <v>917</v>
       </c>
       <c r="B537" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B538" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B539" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B540" t="s">
         <v>921</v>
@@ -10647,20 +10653,20 @@
         <v>928</v>
       </c>
       <c r="B544" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B545" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B546" t="s">
         <v>931</v>
@@ -10679,20 +10685,20 @@
         <v>934</v>
       </c>
       <c r="B548" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B549" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B550" t="s">
         <v>937</v>
@@ -10719,12 +10725,12 @@
         <v>942</v>
       </c>
       <c r="B553" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B554" t="s">
         <v>944</v>
@@ -10783,28 +10789,28 @@
         <v>957</v>
       </c>
       <c r="B561" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B562" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B563" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B564" t="s">
         <v>961</v>
@@ -10823,12 +10829,12 @@
         <v>964</v>
       </c>
       <c r="B566" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B567" t="s">
         <v>966</v>
@@ -10879,12 +10885,12 @@
         <v>977</v>
       </c>
       <c r="B573" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B574" t="s">
         <v>979</v>
@@ -10895,28 +10901,28 @@
         <v>980</v>
       </c>
       <c r="B575" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B576" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B577" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B578" t="s">
         <v>984</v>
@@ -10935,12 +10941,12 @@
         <v>987</v>
       </c>
       <c r="B580" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B581" t="s">
         <v>989</v>
@@ -11007,12 +11013,12 @@
         <v>1004</v>
       </c>
       <c r="B589" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B590" t="s">
         <v>1006</v>
@@ -11023,12 +11029,12 @@
         <v>1007</v>
       </c>
       <c r="B591" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B592" t="s">
         <v>1009</v>
@@ -11095,20 +11101,20 @@
         <v>1024</v>
       </c>
       <c r="B600" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B601" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B602" t="s">
         <v>1027</v>
@@ -11119,12 +11125,12 @@
         <v>1028</v>
       </c>
       <c r="B603" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B604" t="s">
         <v>1030</v>
@@ -11175,12 +11181,12 @@
         <v>1041</v>
       </c>
       <c r="B610" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B611" t="s">
         <v>1043</v>
@@ -11199,12 +11205,12 @@
         <v>1046</v>
       </c>
       <c r="B613" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B614" t="s">
         <v>1048</v>
@@ -11231,12 +11237,12 @@
         <v>1053</v>
       </c>
       <c r="B617" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B618" t="s">
         <v>1055</v>
@@ -11247,12 +11253,12 @@
         <v>1056</v>
       </c>
       <c r="B619" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B620" t="s">
         <v>1058</v>
@@ -11271,12 +11277,12 @@
         <v>1061</v>
       </c>
       <c r="B622" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B623" t="s">
         <v>1063</v>
@@ -11303,44 +11309,44 @@
         <v>1068</v>
       </c>
       <c r="B626" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B627" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B628" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B629" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B630" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B631" t="s">
         <v>1074</v>
@@ -11359,28 +11365,28 @@
         <v>1077</v>
       </c>
       <c r="B633" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B634" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B635" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B636" t="s">
         <v>1081</v>
@@ -11391,12 +11397,12 @@
         <v>1082</v>
       </c>
       <c r="B637" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B638" t="s">
         <v>1084</v>
@@ -11407,12 +11413,12 @@
         <v>1085</v>
       </c>
       <c r="B639" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B640" t="s">
         <v>1087</v>
@@ -11423,20 +11429,20 @@
         <v>1088</v>
       </c>
       <c r="B641" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B642" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B643" t="s">
         <v>1091</v>
@@ -11471,28 +11477,28 @@
         <v>1098</v>
       </c>
       <c r="B647" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B648" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B649" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B650" t="s">
         <v>1102</v>
@@ -11503,12 +11509,12 @@
         <v>1103</v>
       </c>
       <c r="B651" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B652" t="s">
         <v>1105</v>
@@ -11535,12 +11541,12 @@
         <v>1110</v>
       </c>
       <c r="B655" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B656" t="s">
         <v>1112</v>
@@ -11615,12 +11621,12 @@
         <v>1129</v>
       </c>
       <c r="B665" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B666" t="s">
         <v>1131</v>
@@ -11703,12 +11709,12 @@
         <v>1150</v>
       </c>
       <c r="B676" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B677" t="s">
         <v>1152</v>
@@ -11735,20 +11741,20 @@
         <v>1157</v>
       </c>
       <c r="B680" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B681" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B682" t="s">
         <v>1160</v>
@@ -11831,12 +11837,12 @@
         <v>1179</v>
       </c>
       <c r="B692" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B693" t="s">
         <v>1181</v>
@@ -11879,12 +11885,12 @@
         <v>1190</v>
       </c>
       <c r="B698" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B699" t="s">
         <v>1192</v>
@@ -11895,20 +11901,20 @@
         <v>1193</v>
       </c>
       <c r="B700" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B701" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B702" t="s">
         <v>1196</v>
@@ -11919,28 +11925,28 @@
         <v>1197</v>
       </c>
       <c r="B703" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B704" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B705" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B706" t="s">
         <v>1201</v>
@@ -11959,20 +11965,20 @@
         <v>1204</v>
       </c>
       <c r="B708" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B709" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B710" t="s">
         <v>1207</v>
@@ -11999,20 +12005,20 @@
         <v>1212</v>
       </c>
       <c r="B713" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B714" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B715" t="s">
         <v>1215</v>
@@ -12031,12 +12037,12 @@
         <v>1218</v>
       </c>
       <c r="B717" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B718" t="s">
         <v>1220</v>
@@ -12071,20 +12077,20 @@
         <v>1227</v>
       </c>
       <c r="B722" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B723" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B724" t="s">
         <v>1230</v>
@@ -12103,20 +12109,20 @@
         <v>1233</v>
       </c>
       <c r="B726" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B727" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B728" t="s">
         <v>1236</v>
@@ -12127,12 +12133,12 @@
         <v>1237</v>
       </c>
       <c r="B729" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B730" t="s">
         <v>1239</v>
@@ -12159,12 +12165,12 @@
         <v>1244</v>
       </c>
       <c r="B733" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B734" t="s">
         <v>1246</v>
@@ -12183,12 +12189,12 @@
         <v>1249</v>
       </c>
       <c r="B736" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B737" t="s">
         <v>1251</v>
@@ -12215,20 +12221,20 @@
         <v>1256</v>
       </c>
       <c r="B740" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B741" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B742" t="s">
         <v>1259</v>
@@ -12247,20 +12253,20 @@
         <v>1262</v>
       </c>
       <c r="B744" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B745" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B746" t="s">
         <v>1265</v>
@@ -12359,12 +12365,12 @@
         <v>1288</v>
       </c>
       <c r="B758" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B759" t="s">
         <v>1290</v>
@@ -12375,20 +12381,20 @@
         <v>1291</v>
       </c>
       <c r="B760" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B761" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B762" t="s">
         <v>1294</v>
@@ -12431,12 +12437,12 @@
         <v>1303</v>
       </c>
       <c r="B767" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B768" t="s">
         <v>1305</v>
@@ -12535,36 +12541,36 @@
         <v>1328</v>
       </c>
       <c r="B780" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B781" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B782" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B783" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B784" t="s">
         <v>1333</v>
@@ -12583,12 +12589,12 @@
         <v>1336</v>
       </c>
       <c r="B786" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B787" t="s">
         <v>1338</v>
@@ -12599,20 +12605,20 @@
         <v>1339</v>
       </c>
       <c r="B788" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B789" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B790" t="s">
         <v>1342</v>
@@ -12623,36 +12629,36 @@
         <v>1343</v>
       </c>
       <c r="B791" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B792" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B793" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B794" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B795" t="s">
         <v>1348</v>
@@ -12663,12 +12669,12 @@
         <v>1349</v>
       </c>
       <c r="B796" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B797" t="s">
         <v>1351</v>
@@ -12727,28 +12733,28 @@
         <v>1364</v>
       </c>
       <c r="B804" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B805" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B806" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B807" t="s">
         <v>1368</v>
@@ -12807,12 +12813,12 @@
         <v>1381</v>
       </c>
       <c r="B814" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B815" t="s">
         <v>1383</v>
@@ -12831,12 +12837,12 @@
         <v>1386</v>
       </c>
       <c r="B817" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="B818" t="s">
         <v>1388</v>
@@ -12863,12 +12869,12 @@
         <v>1393</v>
       </c>
       <c r="B821" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="B822" t="s">
         <v>1395</v>
@@ -12879,12 +12885,12 @@
         <v>1396</v>
       </c>
       <c r="B823" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B824" t="s">
         <v>1398</v>
@@ -12895,12 +12901,12 @@
         <v>1399</v>
       </c>
       <c r="B825" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B826" t="s">
         <v>1401</v>
@@ -12911,12 +12917,12 @@
         <v>1402</v>
       </c>
       <c r="B827" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B828" t="s">
         <v>1404</v>
@@ -12927,36 +12933,36 @@
         <v>1405</v>
       </c>
       <c r="B829" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B830" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B831" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B832" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B833" t="s">
         <v>1410</v>
@@ -12975,12 +12981,12 @@
         <v>1413</v>
       </c>
       <c r="B835" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B836" t="s">
         <v>1415</v>
@@ -12999,12 +13005,12 @@
         <v>1418</v>
       </c>
       <c r="B838" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B839" t="s">
         <v>1420</v>
@@ -13015,36 +13021,36 @@
         <v>1421</v>
       </c>
       <c r="B840" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B841" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B842" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B843" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B844" t="s">
         <v>1426</v>
@@ -13151,60 +13157,60 @@
         <v>1451</v>
       </c>
       <c r="B857" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B858" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B859" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B860" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B861" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B862" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B863" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B864" t="s">
         <v>1459</v>
@@ -13215,28 +13221,28 @@
         <v>1460</v>
       </c>
       <c r="B865" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B866" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B867" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B868" t="s">
         <v>1464</v>
@@ -13247,12 +13253,12 @@
         <v>1465</v>
       </c>
       <c r="B869" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B870" t="s">
         <v>1467</v>
@@ -13303,20 +13309,20 @@
         <v>1478</v>
       </c>
       <c r="B876" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B877" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B878" t="s">
         <v>1481</v>
@@ -13343,20 +13349,20 @@
         <v>1486</v>
       </c>
       <c r="B881" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B882" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B883" t="s">
         <v>1489</v>
@@ -13367,12 +13373,12 @@
         <v>1490</v>
       </c>
       <c r="B884" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B885" t="s">
         <v>1492</v>
@@ -13383,12 +13389,12 @@
         <v>1493</v>
       </c>
       <c r="B886" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B887" t="s">
         <v>1495</v>
@@ -13399,12 +13405,12 @@
         <v>1496</v>
       </c>
       <c r="B888" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B889" t="s">
         <v>1498</v>
@@ -13415,12 +13421,12 @@
         <v>1499</v>
       </c>
       <c r="B890" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B891" t="s">
         <v>1501</v>
@@ -13455,12 +13461,12 @@
         <v>1508</v>
       </c>
       <c r="B895" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B896" t="s">
         <v>1510</v>
@@ -13511,60 +13517,60 @@
         <v>1521</v>
       </c>
       <c r="B902" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B903" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B904" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B905" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B906" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B907" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B908" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B909" t="s">
         <v>1529</v>
@@ -13591,28 +13597,28 @@
         <v>1534</v>
       </c>
       <c r="B912" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B913" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B914" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B915" t="s">
         <v>1538</v>
@@ -13655,20 +13661,20 @@
         <v>1547</v>
       </c>
       <c r="B920" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B921" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B922" t="s">
         <v>1550</v>
@@ -13703,12 +13709,12 @@
         <v>1557</v>
       </c>
       <c r="B926" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B927" t="s">
         <v>1559</v>
@@ -13727,12 +13733,12 @@
         <v>1562</v>
       </c>
       <c r="B929" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B930" t="s">
         <v>1564</v>
@@ -13743,12 +13749,12 @@
         <v>1565</v>
       </c>
       <c r="B931" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="B932" t="s">
         <v>1567</v>
@@ -13807,28 +13813,28 @@
         <v>1580</v>
       </c>
       <c r="B939" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B940" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B941" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B942" t="s">
         <v>1584</v>
@@ -13847,44 +13853,44 @@
         <v>1587</v>
       </c>
       <c r="B944" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B945" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B946" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B947" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B948" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B949" t="s">
         <v>1593</v>
@@ -13927,20 +13933,20 @@
         <v>1602</v>
       </c>
       <c r="B954" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B955" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B956" t="s">
         <v>1605</v>
@@ -13975,12 +13981,12 @@
         <v>1612</v>
       </c>
       <c r="B960" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B961" t="s">
         <v>1614</v>
@@ -13999,20 +14005,20 @@
         <v>1617</v>
       </c>
       <c r="B963" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B964" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B965" t="s">
         <v>1620</v>
@@ -14111,28 +14117,28 @@
         <v>1643</v>
       </c>
       <c r="B977" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B978" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B979" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B980" t="s">
         <v>1647</v>
@@ -14143,36 +14149,36 @@
         <v>1648</v>
       </c>
       <c r="B981" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B982" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B983" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B984" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B985" t="s">
         <v>1653</v>
@@ -14183,12 +14189,12 @@
         <v>1654</v>
       </c>
       <c r="B986" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B987" t="s">
         <v>1656</v>
@@ -14223,12 +14229,12 @@
         <v>1663</v>
       </c>
       <c r="B991" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B992" t="s">
         <v>1665</v>
@@ -14247,12 +14253,12 @@
         <v>1668</v>
       </c>
       <c r="B994" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B995" t="s">
         <v>1670</v>
@@ -14303,20 +14309,20 @@
         <v>1681</v>
       </c>
       <c r="B1001" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B1002" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B1003" t="s">
         <v>1684</v>
@@ -14343,36 +14349,36 @@
         <v>1689</v>
       </c>
       <c r="B1006" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B1007" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B1008" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B1009" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B1010" t="s">
         <v>1694</v>
@@ -14391,12 +14397,12 @@
         <v>1697</v>
       </c>
       <c r="B1012" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B1013" t="s">
         <v>1699</v>
@@ -14407,20 +14413,20 @@
         <v>1700</v>
       </c>
       <c r="B1014" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B1015" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B1016" t="s">
         <v>1703</v>
@@ -14439,12 +14445,12 @@
         <v>1706</v>
       </c>
       <c r="B1018" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B1019" t="s">
         <v>1708</v>
@@ -14471,12 +14477,12 @@
         <v>1713</v>
       </c>
       <c r="B1022" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B1023" t="s">
         <v>1715</v>
@@ -14487,20 +14493,20 @@
         <v>1716</v>
       </c>
       <c r="B1024" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B1025" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B1026" t="s">
         <v>1719</v>
@@ -14511,52 +14517,52 @@
         <v>1720</v>
       </c>
       <c r="B1027" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B1028" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B1029" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B1030" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B1031" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B1032" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B1033" t="s">
         <v>1727</v>
@@ -14575,12 +14581,12 @@
         <v>1730</v>
       </c>
       <c r="B1035" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B1036" t="s">
         <v>1732</v>
@@ -14607,12 +14613,12 @@
         <v>1737</v>
       </c>
       <c r="B1039" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B1040" t="s">
         <v>1739</v>
@@ -14631,12 +14637,12 @@
         <v>1742</v>
       </c>
       <c r="B1042" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B1043" t="s">
         <v>1744</v>
@@ -14759,12 +14765,12 @@
         <v>1773</v>
       </c>
       <c r="B1058" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="B1059" t="s">
         <v>1775</v>
@@ -14863,12 +14869,12 @@
         <v>1798</v>
       </c>
       <c r="B1071" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B1072" t="s">
         <v>1800</v>
@@ -14887,20 +14893,20 @@
         <v>1803</v>
       </c>
       <c r="B1074" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="B1075" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B1076" t="s">
         <v>1806</v>
@@ -14911,12 +14917,12 @@
         <v>1807</v>
       </c>
       <c r="B1077" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B1078" t="s">
         <v>1809</v>
@@ -14935,12 +14941,12 @@
         <v>1812</v>
       </c>
       <c r="B1080" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="B1081" t="s">
         <v>1814</v>
@@ -15015,12 +15021,12 @@
         <v>1831</v>
       </c>
       <c r="B1090" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="B1091" t="s">
         <v>1833</v>
@@ -15063,12 +15069,12 @@
         <v>1842</v>
       </c>
       <c r="B1096" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B1097" t="s">
         <v>1844</v>
@@ -15087,12 +15093,12 @@
         <v>1847</v>
       </c>
       <c r="B1099" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B1100" t="s">
         <v>1849</v>
@@ -15103,20 +15109,20 @@
         <v>1850</v>
       </c>
       <c r="B1101" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B1102" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B1103" t="s">
         <v>1853</v>
@@ -15167,12 +15173,12 @@
         <v>1864</v>
       </c>
       <c r="B1109" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="B1110" t="s">
         <v>1866</v>
@@ -15215,12 +15221,12 @@
         <v>1875</v>
       </c>
       <c r="B1115" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="B1116" t="s">
         <v>1877</v>
@@ -15327,28 +15333,28 @@
         <v>1902</v>
       </c>
       <c r="B1129" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="B1130" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="B1131" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="B1132" t="s">
         <v>1906</v>
@@ -15359,12 +15365,12 @@
         <v>1907</v>
       </c>
       <c r="B1133" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B1134" t="s">
         <v>1909</v>
@@ -15383,28 +15389,28 @@
         <v>1912</v>
       </c>
       <c r="B1136" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="B1137" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="B1138" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="B1139" t="s">
         <v>1916</v>
@@ -15487,12 +15493,12 @@
         <v>1935</v>
       </c>
       <c r="B1149" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="B1150" t="s">
         <v>1937</v>
@@ -15535,20 +15541,20 @@
         <v>1946</v>
       </c>
       <c r="B1155" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="B1156" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="B1157" t="s">
         <v>1949</v>
@@ -15559,12 +15565,12 @@
         <v>1950</v>
       </c>
       <c r="B1158" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="B1159" t="s">
         <v>1952</v>
@@ -15583,20 +15589,20 @@
         <v>1955</v>
       </c>
       <c r="B1161" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="B1162" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="B1163" t="s">
         <v>1958</v>
@@ -15607,36 +15613,36 @@
         <v>1959</v>
       </c>
       <c r="B1164" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="B1165" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="B1166" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="B1167" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="B1168" t="s">
         <v>1964</v>
@@ -15655,12 +15661,12 @@
         <v>1967</v>
       </c>
       <c r="B1170" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="B1171" t="s">
         <v>1969</v>
@@ -15682,8 +15688,16 @@
         <v>1973</v>
       </c>
     </row>
+    <row r="1174" spans="1:2">
+      <c r="A1174" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>1975</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1173"/>
+  <autoFilter ref="A1:B1174"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/sl/headTags.xlsx
+++ b/lang/sl/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1977">
   <si>
     <t>en</t>
   </si>
@@ -5564,6 +5564,9 @@
   </si>
   <si>
     <t>Gozd somraka</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
   </si>
   <si>
     <t>Ultrakill</t>
@@ -6291,7 +6294,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1174"/>
+  <dimension ref="A1:B1175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -15109,12 +15112,12 @@
         <v>1850</v>
       </c>
       <c r="B1101" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B1102" t="s">
         <v>1852</v>
@@ -15133,52 +15136,52 @@
         <v>1854</v>
       </c>
       <c r="B1104" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B1105" t="s">
         <v>1856</v>
-      </c>
-      <c r="B1105" t="s">
-        <v>1857</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1106" t="s">
         <v>1858</v>
-      </c>
-      <c r="B1106" t="s">
-        <v>1859</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B1107" t="s">
         <v>1860</v>
-      </c>
-      <c r="B1107" t="s">
-        <v>1861</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B1108" t="s">
         <v>1862</v>
-      </c>
-      <c r="B1108" t="s">
-        <v>1863</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B1109" t="s">
         <v>1864</v>
-      </c>
-      <c r="B1109" t="s">
-        <v>1865</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B1110" t="s">
         <v>1866</v>
@@ -15189,44 +15192,44 @@
         <v>1867</v>
       </c>
       <c r="B1111" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B1112" t="s">
         <v>1869</v>
-      </c>
-      <c r="B1112" t="s">
-        <v>1870</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B1113" t="s">
         <v>1871</v>
-      </c>
-      <c r="B1113" t="s">
-        <v>1872</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B1114" t="s">
         <v>1873</v>
-      </c>
-      <c r="B1114" t="s">
-        <v>1874</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B1115" t="s">
         <v>1875</v>
-      </c>
-      <c r="B1115" t="s">
-        <v>1876</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B1116" t="s">
         <v>1877</v>
@@ -15237,108 +15240,108 @@
         <v>1878</v>
       </c>
       <c r="B1117" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B1118" t="s">
         <v>1880</v>
-      </c>
-      <c r="B1118" t="s">
-        <v>1881</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B1119" t="s">
         <v>1882</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>1883</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B1120" t="s">
         <v>1884</v>
-      </c>
-      <c r="B1120" t="s">
-        <v>1885</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B1121" t="s">
         <v>1886</v>
-      </c>
-      <c r="B1121" t="s">
-        <v>1887</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B1122" t="s">
         <v>1888</v>
-      </c>
-      <c r="B1122" t="s">
-        <v>1889</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1123" t="s">
         <v>1890</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>1891</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1124" t="s">
         <v>1892</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>1893</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1125" t="s">
         <v>1894</v>
-      </c>
-      <c r="B1125" t="s">
-        <v>1895</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B1126" t="s">
         <v>1896</v>
-      </c>
-      <c r="B1126" t="s">
-        <v>1897</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1127" t="s">
         <v>1898</v>
-      </c>
-      <c r="B1127" t="s">
-        <v>1899</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1128" t="s">
         <v>1900</v>
-      </c>
-      <c r="B1128" t="s">
-        <v>1901</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1129" t="s">
         <v>1902</v>
-      </c>
-      <c r="B1129" t="s">
-        <v>1903</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B1130" t="s">
         <v>1904</v>
@@ -15365,12 +15368,12 @@
         <v>1907</v>
       </c>
       <c r="B1133" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B1134" t="s">
         <v>1909</v>
@@ -15381,20 +15384,20 @@
         <v>1910</v>
       </c>
       <c r="B1135" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B1136" t="s">
         <v>1912</v>
-      </c>
-      <c r="B1136" t="s">
-        <v>1913</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B1137" t="s">
         <v>1914</v>
@@ -15421,84 +15424,84 @@
         <v>1917</v>
       </c>
       <c r="B1140" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B1141" t="s">
         <v>1919</v>
-      </c>
-      <c r="B1141" t="s">
-        <v>1920</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B1142" t="s">
         <v>1921</v>
-      </c>
-      <c r="B1142" t="s">
-        <v>1922</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B1143" t="s">
         <v>1923</v>
-      </c>
-      <c r="B1143" t="s">
-        <v>1924</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B1144" t="s">
         <v>1925</v>
-      </c>
-      <c r="B1144" t="s">
-        <v>1926</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B1145" t="s">
         <v>1927</v>
-      </c>
-      <c r="B1145" t="s">
-        <v>1928</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B1146" t="s">
         <v>1929</v>
-      </c>
-      <c r="B1146" t="s">
-        <v>1930</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B1147" t="s">
         <v>1931</v>
-      </c>
-      <c r="B1147" t="s">
-        <v>1932</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B1148" t="s">
         <v>1933</v>
-      </c>
-      <c r="B1148" t="s">
-        <v>1934</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B1149" t="s">
         <v>1935</v>
-      </c>
-      <c r="B1149" t="s">
-        <v>1936</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B1150" t="s">
         <v>1937</v>
@@ -15509,44 +15512,44 @@
         <v>1938</v>
       </c>
       <c r="B1151" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B1152" t="s">
         <v>1940</v>
-      </c>
-      <c r="B1152" t="s">
-        <v>1941</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B1153" t="s">
         <v>1942</v>
-      </c>
-      <c r="B1153" t="s">
-        <v>1943</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B1154" t="s">
         <v>1944</v>
-      </c>
-      <c r="B1154" t="s">
-        <v>1945</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B1155" t="s">
         <v>1946</v>
-      </c>
-      <c r="B1155" t="s">
-        <v>1947</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B1156" t="s">
         <v>1948</v>
@@ -15565,12 +15568,12 @@
         <v>1950</v>
       </c>
       <c r="B1158" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B1159" t="s">
         <v>1952</v>
@@ -15581,20 +15584,20 @@
         <v>1953</v>
       </c>
       <c r="B1160" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B1161" t="s">
         <v>1955</v>
-      </c>
-      <c r="B1161" t="s">
-        <v>1956</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B1162" t="s">
         <v>1957</v>
@@ -15613,12 +15616,12 @@
         <v>1959</v>
       </c>
       <c r="B1164" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B1165" t="s">
         <v>1961</v>
@@ -15653,20 +15656,20 @@
         <v>1965</v>
       </c>
       <c r="B1169" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B1170" t="s">
         <v>1967</v>
-      </c>
-      <c r="B1170" t="s">
-        <v>1968</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B1171" t="s">
         <v>1969</v>
@@ -15677,27 +15680,35 @@
         <v>1970</v>
       </c>
       <c r="B1172" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B1173" t="s">
         <v>1972</v>
-      </c>
-      <c r="B1173" t="s">
-        <v>1973</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B1174" t="s">
         <v>1974</v>
       </c>
-      <c r="B1174" t="s">
+    </row>
+    <row r="1175" spans="1:2">
+      <c r="A1175" t="s">
         <v>1975</v>
       </c>
+      <c r="B1175" t="s">
+        <v>1976</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1174"/>
+  <autoFilter ref="A1:B1175"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/sl/headTags.xlsx
+++ b/lang/sl/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1979">
   <si>
     <t>en</t>
   </si>
@@ -2999,6 +2999,12 @@
   </si>
   <si>
     <t>Hypixel (minion)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutations) Tag</t>
+  </si>
+  <si>
+    <t>Hypixel (mutacije) Oznaka</t>
   </si>
   <si>
     <t>Hypixel (NPC)</t>
@@ -6294,7 +6300,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1175"/>
+  <dimension ref="A1:B1176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -11024,12 +11030,12 @@
         <v>1006</v>
       </c>
       <c r="B590" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B591" t="s">
         <v>1008</v>
@@ -11040,12 +11046,12 @@
         <v>1009</v>
       </c>
       <c r="B592" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B593" t="s">
         <v>1011</v>
@@ -11112,20 +11118,20 @@
         <v>1026</v>
       </c>
       <c r="B601" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B602" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B603" t="s">
         <v>1029</v>
@@ -11136,12 +11142,12 @@
         <v>1030</v>
       </c>
       <c r="B604" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B605" t="s">
         <v>1032</v>
@@ -11192,12 +11198,12 @@
         <v>1043</v>
       </c>
       <c r="B611" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B612" t="s">
         <v>1045</v>
@@ -11216,12 +11222,12 @@
         <v>1048</v>
       </c>
       <c r="B614" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B615" t="s">
         <v>1050</v>
@@ -11248,12 +11254,12 @@
         <v>1055</v>
       </c>
       <c r="B618" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B619" t="s">
         <v>1057</v>
@@ -11264,12 +11270,12 @@
         <v>1058</v>
       </c>
       <c r="B620" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B621" t="s">
         <v>1060</v>
@@ -11288,12 +11294,12 @@
         <v>1063</v>
       </c>
       <c r="B623" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B624" t="s">
         <v>1065</v>
@@ -11320,44 +11326,44 @@
         <v>1070</v>
       </c>
       <c r="B627" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B628" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B629" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B630" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B631" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B632" t="s">
         <v>1076</v>
@@ -11376,28 +11382,28 @@
         <v>1079</v>
       </c>
       <c r="B634" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B635" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B636" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B637" t="s">
         <v>1083</v>
@@ -11408,12 +11414,12 @@
         <v>1084</v>
       </c>
       <c r="B638" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B639" t="s">
         <v>1086</v>
@@ -11424,12 +11430,12 @@
         <v>1087</v>
       </c>
       <c r="B640" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B641" t="s">
         <v>1089</v>
@@ -11440,20 +11446,20 @@
         <v>1090</v>
       </c>
       <c r="B642" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B643" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B644" t="s">
         <v>1093</v>
@@ -11488,28 +11494,28 @@
         <v>1100</v>
       </c>
       <c r="B648" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B649" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B650" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B651" t="s">
         <v>1104</v>
@@ -11520,12 +11526,12 @@
         <v>1105</v>
       </c>
       <c r="B652" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B653" t="s">
         <v>1107</v>
@@ -11552,12 +11558,12 @@
         <v>1112</v>
       </c>
       <c r="B656" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B657" t="s">
         <v>1114</v>
@@ -11632,12 +11638,12 @@
         <v>1131</v>
       </c>
       <c r="B666" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B667" t="s">
         <v>1133</v>
@@ -11720,12 +11726,12 @@
         <v>1152</v>
       </c>
       <c r="B677" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B678" t="s">
         <v>1154</v>
@@ -11752,20 +11758,20 @@
         <v>1159</v>
       </c>
       <c r="B681" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B682" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B683" t="s">
         <v>1162</v>
@@ -11848,12 +11854,12 @@
         <v>1181</v>
       </c>
       <c r="B693" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B694" t="s">
         <v>1183</v>
@@ -11896,12 +11902,12 @@
         <v>1192</v>
       </c>
       <c r="B699" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B700" t="s">
         <v>1194</v>
@@ -11912,20 +11918,20 @@
         <v>1195</v>
       </c>
       <c r="B701" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B702" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B703" t="s">
         <v>1198</v>
@@ -11936,28 +11942,28 @@
         <v>1199</v>
       </c>
       <c r="B704" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B705" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B706" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B707" t="s">
         <v>1203</v>
@@ -11976,20 +11982,20 @@
         <v>1206</v>
       </c>
       <c r="B709" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B710" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B711" t="s">
         <v>1209</v>
@@ -12016,20 +12022,20 @@
         <v>1214</v>
       </c>
       <c r="B714" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B715" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B716" t="s">
         <v>1217</v>
@@ -12048,12 +12054,12 @@
         <v>1220</v>
       </c>
       <c r="B718" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B719" t="s">
         <v>1222</v>
@@ -12088,20 +12094,20 @@
         <v>1229</v>
       </c>
       <c r="B723" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B724" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B725" t="s">
         <v>1232</v>
@@ -12120,20 +12126,20 @@
         <v>1235</v>
       </c>
       <c r="B727" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B728" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B729" t="s">
         <v>1238</v>
@@ -12144,12 +12150,12 @@
         <v>1239</v>
       </c>
       <c r="B730" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B731" t="s">
         <v>1241</v>
@@ -12176,12 +12182,12 @@
         <v>1246</v>
       </c>
       <c r="B734" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B735" t="s">
         <v>1248</v>
@@ -12200,12 +12206,12 @@
         <v>1251</v>
       </c>
       <c r="B737" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B738" t="s">
         <v>1253</v>
@@ -12232,20 +12238,20 @@
         <v>1258</v>
       </c>
       <c r="B741" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B742" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B743" t="s">
         <v>1261</v>
@@ -12264,20 +12270,20 @@
         <v>1264</v>
       </c>
       <c r="B745" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B746" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B747" t="s">
         <v>1267</v>
@@ -12376,12 +12382,12 @@
         <v>1290</v>
       </c>
       <c r="B759" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B760" t="s">
         <v>1292</v>
@@ -12392,20 +12398,20 @@
         <v>1293</v>
       </c>
       <c r="B761" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B762" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B763" t="s">
         <v>1296</v>
@@ -12448,12 +12454,12 @@
         <v>1305</v>
       </c>
       <c r="B768" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B769" t="s">
         <v>1307</v>
@@ -12552,36 +12558,36 @@
         <v>1330</v>
       </c>
       <c r="B781" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B782" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B783" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B784" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B785" t="s">
         <v>1335</v>
@@ -12600,12 +12606,12 @@
         <v>1338</v>
       </c>
       <c r="B787" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B788" t="s">
         <v>1340</v>
@@ -12616,20 +12622,20 @@
         <v>1341</v>
       </c>
       <c r="B789" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B790" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B791" t="s">
         <v>1344</v>
@@ -12640,36 +12646,36 @@
         <v>1345</v>
       </c>
       <c r="B792" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B793" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B794" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B795" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B796" t="s">
         <v>1350</v>
@@ -12680,12 +12686,12 @@
         <v>1351</v>
       </c>
       <c r="B797" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B798" t="s">
         <v>1353</v>
@@ -12744,28 +12750,28 @@
         <v>1366</v>
       </c>
       <c r="B805" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B806" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B807" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B808" t="s">
         <v>1370</v>
@@ -12824,12 +12830,12 @@
         <v>1383</v>
       </c>
       <c r="B815" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B816" t="s">
         <v>1385</v>
@@ -12848,12 +12854,12 @@
         <v>1388</v>
       </c>
       <c r="B818" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B819" t="s">
         <v>1390</v>
@@ -12880,12 +12886,12 @@
         <v>1395</v>
       </c>
       <c r="B822" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="B823" t="s">
         <v>1397</v>
@@ -12896,12 +12902,12 @@
         <v>1398</v>
       </c>
       <c r="B824" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="B825" t="s">
         <v>1400</v>
@@ -12912,12 +12918,12 @@
         <v>1401</v>
       </c>
       <c r="B826" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B827" t="s">
         <v>1403</v>
@@ -12928,12 +12934,12 @@
         <v>1404</v>
       </c>
       <c r="B828" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B829" t="s">
         <v>1406</v>
@@ -12944,36 +12950,36 @@
         <v>1407</v>
       </c>
       <c r="B830" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B831" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B832" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B833" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B834" t="s">
         <v>1412</v>
@@ -12992,12 +12998,12 @@
         <v>1415</v>
       </c>
       <c r="B836" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B837" t="s">
         <v>1417</v>
@@ -13016,12 +13022,12 @@
         <v>1420</v>
       </c>
       <c r="B839" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B840" t="s">
         <v>1422</v>
@@ -13032,36 +13038,36 @@
         <v>1423</v>
       </c>
       <c r="B841" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B842" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B843" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B844" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B845" t="s">
         <v>1428</v>
@@ -13168,60 +13174,60 @@
         <v>1453</v>
       </c>
       <c r="B858" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B859" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B860" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B861" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B862" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B863" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B864" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B865" t="s">
         <v>1461</v>
@@ -13232,28 +13238,28 @@
         <v>1462</v>
       </c>
       <c r="B866" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B867" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B868" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B869" t="s">
         <v>1466</v>
@@ -13264,12 +13270,12 @@
         <v>1467</v>
       </c>
       <c r="B870" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B871" t="s">
         <v>1469</v>
@@ -13320,20 +13326,20 @@
         <v>1480</v>
       </c>
       <c r="B877" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B878" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B879" t="s">
         <v>1483</v>
@@ -13360,20 +13366,20 @@
         <v>1488</v>
       </c>
       <c r="B882" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B883" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B884" t="s">
         <v>1491</v>
@@ -13384,12 +13390,12 @@
         <v>1492</v>
       </c>
       <c r="B885" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B886" t="s">
         <v>1494</v>
@@ -13400,12 +13406,12 @@
         <v>1495</v>
       </c>
       <c r="B887" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B888" t="s">
         <v>1497</v>
@@ -13416,12 +13422,12 @@
         <v>1498</v>
       </c>
       <c r="B889" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B890" t="s">
         <v>1500</v>
@@ -13432,12 +13438,12 @@
         <v>1501</v>
       </c>
       <c r="B891" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B892" t="s">
         <v>1503</v>
@@ -13472,12 +13478,12 @@
         <v>1510</v>
       </c>
       <c r="B896" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B897" t="s">
         <v>1512</v>
@@ -13528,60 +13534,60 @@
         <v>1523</v>
       </c>
       <c r="B903" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B904" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B905" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B906" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B907" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B908" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B909" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B910" t="s">
         <v>1531</v>
@@ -13608,28 +13614,28 @@
         <v>1536</v>
       </c>
       <c r="B913" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B914" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B915" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B916" t="s">
         <v>1540</v>
@@ -13672,20 +13678,20 @@
         <v>1549</v>
       </c>
       <c r="B921" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B922" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B923" t="s">
         <v>1552</v>
@@ -13720,12 +13726,12 @@
         <v>1559</v>
       </c>
       <c r="B927" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B928" t="s">
         <v>1561</v>
@@ -13744,12 +13750,12 @@
         <v>1564</v>
       </c>
       <c r="B930" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="B931" t="s">
         <v>1566</v>
@@ -13760,12 +13766,12 @@
         <v>1567</v>
       </c>
       <c r="B932" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="933" spans="1:2">
       <c r="A933" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B933" t="s">
         <v>1569</v>
@@ -13824,28 +13830,28 @@
         <v>1582</v>
       </c>
       <c r="B940" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B941" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B942" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B943" t="s">
         <v>1586</v>
@@ -13864,44 +13870,44 @@
         <v>1589</v>
       </c>
       <c r="B945" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B946" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B947" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B948" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B949" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B950" t="s">
         <v>1595</v>
@@ -13944,20 +13950,20 @@
         <v>1604</v>
       </c>
       <c r="B955" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B956" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B957" t="s">
         <v>1607</v>
@@ -13992,12 +13998,12 @@
         <v>1614</v>
       </c>
       <c r="B961" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B962" t="s">
         <v>1616</v>
@@ -14016,20 +14022,20 @@
         <v>1619</v>
       </c>
       <c r="B964" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B965" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B966" t="s">
         <v>1622</v>
@@ -14128,28 +14134,28 @@
         <v>1645</v>
       </c>
       <c r="B978" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B979" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B980" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B981" t="s">
         <v>1649</v>
@@ -14160,36 +14166,36 @@
         <v>1650</v>
       </c>
       <c r="B982" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B983" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B984" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B985" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B986" t="s">
         <v>1655</v>
@@ -14200,12 +14206,12 @@
         <v>1656</v>
       </c>
       <c r="B987" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B988" t="s">
         <v>1658</v>
@@ -14240,12 +14246,12 @@
         <v>1665</v>
       </c>
       <c r="B992" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B993" t="s">
         <v>1667</v>
@@ -14264,12 +14270,12 @@
         <v>1670</v>
       </c>
       <c r="B995" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="B996" t="s">
         <v>1672</v>
@@ -14320,20 +14326,20 @@
         <v>1683</v>
       </c>
       <c r="B1002" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B1003" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B1004" t="s">
         <v>1686</v>
@@ -14360,36 +14366,36 @@
         <v>1691</v>
       </c>
       <c r="B1007" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B1008" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B1009" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B1010" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B1011" t="s">
         <v>1696</v>
@@ -14408,12 +14414,12 @@
         <v>1699</v>
       </c>
       <c r="B1013" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B1014" t="s">
         <v>1701</v>
@@ -14424,20 +14430,20 @@
         <v>1702</v>
       </c>
       <c r="B1015" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B1016" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B1017" t="s">
         <v>1705</v>
@@ -14456,12 +14462,12 @@
         <v>1708</v>
       </c>
       <c r="B1019" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B1020" t="s">
         <v>1710</v>
@@ -14488,12 +14494,12 @@
         <v>1715</v>
       </c>
       <c r="B1023" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B1024" t="s">
         <v>1717</v>
@@ -14504,20 +14510,20 @@
         <v>1718</v>
       </c>
       <c r="B1025" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B1026" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B1027" t="s">
         <v>1721</v>
@@ -14528,52 +14534,52 @@
         <v>1722</v>
       </c>
       <c r="B1028" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B1029" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B1030" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B1031" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B1032" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B1033" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B1034" t="s">
         <v>1729</v>
@@ -14592,12 +14598,12 @@
         <v>1732</v>
       </c>
       <c r="B1036" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B1037" t="s">
         <v>1734</v>
@@ -14624,12 +14630,12 @@
         <v>1739</v>
       </c>
       <c r="B1040" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B1041" t="s">
         <v>1741</v>
@@ -14648,12 +14654,12 @@
         <v>1744</v>
       </c>
       <c r="B1043" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B1044" t="s">
         <v>1746</v>
@@ -14776,12 +14782,12 @@
         <v>1775</v>
       </c>
       <c r="B1059" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="B1060" t="s">
         <v>1777</v>
@@ -14880,12 +14886,12 @@
         <v>1800</v>
       </c>
       <c r="B1072" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B1073" t="s">
         <v>1802</v>
@@ -14904,20 +14910,20 @@
         <v>1805</v>
       </c>
       <c r="B1075" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="B1076" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B1077" t="s">
         <v>1808</v>
@@ -14928,12 +14934,12 @@
         <v>1809</v>
       </c>
       <c r="B1078" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B1079" t="s">
         <v>1811</v>
@@ -14952,12 +14958,12 @@
         <v>1814</v>
       </c>
       <c r="B1081" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="B1082" t="s">
         <v>1816</v>
@@ -15032,12 +15038,12 @@
         <v>1833</v>
       </c>
       <c r="B1091" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B1092" t="s">
         <v>1835</v>
@@ -15080,12 +15086,12 @@
         <v>1844</v>
       </c>
       <c r="B1097" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B1098" t="s">
         <v>1846</v>
@@ -15104,20 +15110,20 @@
         <v>1849</v>
       </c>
       <c r="B1100" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B1101" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B1102" t="s">
         <v>1852</v>
@@ -15128,20 +15134,20 @@
         <v>1853</v>
       </c>
       <c r="B1103" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B1104" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B1105" t="s">
         <v>1856</v>
@@ -15192,12 +15198,12 @@
         <v>1867</v>
       </c>
       <c r="B1111" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="B1112" t="s">
         <v>1869</v>
@@ -15240,12 +15246,12 @@
         <v>1878</v>
       </c>
       <c r="B1117" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="B1118" t="s">
         <v>1880</v>
@@ -15352,28 +15358,28 @@
         <v>1905</v>
       </c>
       <c r="B1131" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="B1132" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="B1133" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B1134" t="s">
         <v>1909</v>
@@ -15384,12 +15390,12 @@
         <v>1910</v>
       </c>
       <c r="B1135" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B1136" t="s">
         <v>1912</v>
@@ -15408,28 +15414,28 @@
         <v>1915</v>
       </c>
       <c r="B1138" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="B1139" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="B1140" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="B1141" t="s">
         <v>1919</v>
@@ -15512,12 +15518,12 @@
         <v>1938</v>
       </c>
       <c r="B1151" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="B1152" t="s">
         <v>1940</v>
@@ -15560,20 +15566,20 @@
         <v>1949</v>
       </c>
       <c r="B1157" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="B1158" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="B1159" t="s">
         <v>1952</v>
@@ -15584,12 +15590,12 @@
         <v>1953</v>
       </c>
       <c r="B1160" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="B1161" t="s">
         <v>1955</v>
@@ -15608,20 +15614,20 @@
         <v>1958</v>
       </c>
       <c r="B1163" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="B1164" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="B1165" t="s">
         <v>1961</v>
@@ -15632,36 +15638,36 @@
         <v>1962</v>
       </c>
       <c r="B1166" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="B1167" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="B1168" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="B1169" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B1170" t="s">
         <v>1967</v>
@@ -15680,12 +15686,12 @@
         <v>1970</v>
       </c>
       <c r="B1172" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B1173" t="s">
         <v>1972</v>
@@ -15707,8 +15713,16 @@
         <v>1976</v>
       </c>
     </row>
+    <row r="1176" spans="1:2">
+      <c r="A1176" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>1978</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1175"/>
+  <autoFilter ref="A1:B1176"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/sl/headTags.xlsx
+++ b/lang/sl/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1177</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1981">
   <si>
     <t>en</t>
   </si>
@@ -3001,2953 +3001,2959 @@
     <t>Hypixel (minion)</t>
   </si>
   <si>
+    <t>Hypixel (Mutations)</t>
+  </si>
+  <si>
+    <t>Hypixel (mutacije)</t>
+  </si>
+  <si>
+    <t>Hypixel (NPC)</t>
+  </si>
+  <si>
+    <t>Hipiksel (NPC)</t>
+  </si>
+  <si>
+    <t>Hypixel (Pets)</t>
+  </si>
+  <si>
+    <t>Hypixel (hišni ljubljenčki)</t>
+  </si>
+  <si>
+    <t>Hypixel (Reforge Stone)</t>
+  </si>
+  <si>
+    <t>Hipiksel (kamen za preoblikovanje)</t>
+  </si>
+  <si>
+    <t>Hypixel (Sacks)</t>
+  </si>
+  <si>
+    <t>Hypixel (vrečke)</t>
+  </si>
+  <si>
+    <t>Hypixel (Skins)</t>
+  </si>
+  <si>
+    <t>Hypixel (kože)</t>
+  </si>
+  <si>
+    <t>Hypixel (Talismans)</t>
+  </si>
+  <si>
+    <t>Hypixel (talismani)</t>
+  </si>
+  <si>
+    <t>Hypixel (Trophy Fish)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Land of the Lustrous)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Dežela poželenja)</t>
+  </si>
+  <si>
+    <t>Ib</t>
+  </si>
+  <si>
+    <t>Ice Age</t>
+  </si>
+  <si>
+    <t>Ledena doba</t>
+  </si>
+  <si>
+    <t>Ice Climber</t>
+  </si>
+  <si>
+    <t>Ledni plezalec</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Sladoled</t>
+  </si>
+  <si>
+    <t>Icons (GUI)</t>
+  </si>
+  <si>
+    <t>Ikone (grafični uporabniški vmesnik)</t>
+  </si>
+  <si>
+    <t>Icons (Ironblock)</t>
+  </si>
+  <si>
+    <t>Ikone (Ironblock)</t>
+  </si>
+  <si>
+    <t>Icons (Other)</t>
+  </si>
+  <si>
+    <t>Ikone (drugo)</t>
+  </si>
+  <si>
+    <t>Icons (white background)</t>
+  </si>
+  <si>
+    <t>Ikone (belo ozadje)</t>
+  </si>
+  <si>
+    <t>Identity V</t>
+  </si>
+  <si>
+    <t>Identiteta V</t>
+  </si>
+  <si>
+    <t>Illager</t>
+  </si>
+  <si>
+    <t>Inazuma Eleven</t>
+  </si>
+  <si>
+    <t>Incredibles</t>
+  </si>
+  <si>
+    <t>Neverjetni</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>Indigo Park</t>
+  </si>
+  <si>
+    <t>Park Indigo</t>
+  </si>
+  <si>
+    <t>Injuries</t>
+  </si>
+  <si>
+    <t>Poškodbe</t>
+  </si>
+  <si>
+    <t>Inner Layer Block</t>
+  </si>
+  <si>
+    <t>Blok notranje plasti</t>
+  </si>
+  <si>
+    <t>Inscryption</t>
+  </si>
+  <si>
+    <t>Šifriranje</t>
+  </si>
+  <si>
+    <t>Insect</t>
+  </si>
+  <si>
+    <t>Žuželke</t>
+  </si>
+  <si>
+    <t>Inside Out</t>
+  </si>
+  <si>
+    <t>Od znotraj navzven</t>
+  </si>
+  <si>
+    <t>Inu Yasha</t>
+  </si>
+  <si>
+    <t>Invader Zim</t>
+  </si>
+  <si>
+    <t>Napadalec Zim</t>
+  </si>
+  <si>
+    <t>Invincible</t>
+  </si>
+  <si>
+    <t>Nepremagljiv</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>Na spletni strani .</t>
+  </si>
+  <si>
+    <t>Jak and Daxter</t>
+  </si>
+  <si>
+    <t>Jak in Daxter</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Japonska</t>
+  </si>
+  <si>
+    <t>Jar</t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>Nakit</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure (Stand)</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure (stojalo)</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Potovanje</t>
+  </si>
+  <si>
+    <t>Jujutsu Kaisen</t>
+  </si>
+  <si>
+    <t>Jump King</t>
+  </si>
+  <si>
+    <t>Kralj skoka</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
+    <t>Jurski park</t>
+  </si>
+  <si>
+    <t>Justice League</t>
+  </si>
+  <si>
+    <t>Liga pravičnosti</t>
+  </si>
+  <si>
+    <t>Kaiju Paradise</t>
+  </si>
+  <si>
+    <t>Kakegurui</t>
+  </si>
+  <si>
+    <t>Karate Kid</t>
+  </si>
+  <si>
+    <t>Katamari Damacy</t>
+  </si>
+  <si>
+    <t>Kid Icarus</t>
+  </si>
+  <si>
+    <t>Kiki's Delivery Service</t>
+  </si>
+  <si>
+    <t>Kikijeva dostavna služba</t>
+  </si>
+  <si>
+    <t>Kill la Kill</t>
+  </si>
+  <si>
+    <t>Ubij la ubij</t>
+  </si>
+  <si>
+    <t>Killzone</t>
+  </si>
+  <si>
+    <t>Kim Possible</t>
+  </si>
+  <si>
+    <t>Kimetsu no Yaiba</t>
+  </si>
+  <si>
+    <t>Kingdom Hearts</t>
+  </si>
+  <si>
+    <t>Kraljestvo srca</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Kuhinja</t>
+  </si>
+  <si>
+    <t>KonoSuba</t>
+  </si>
+  <si>
+    <t>Koopalings</t>
+  </si>
+  <si>
+    <t>Koopalingi</t>
+  </si>
+  <si>
+    <t>Kung Fu Panda</t>
+  </si>
+  <si>
+    <t>Kuroko no Basuke</t>
+  </si>
+  <si>
+    <t>Lamp Shade</t>
+  </si>
+  <si>
+    <t>Senčilo svetilke</t>
+  </si>
+  <si>
+    <t>Landscape</t>
+  </si>
+  <si>
+    <t>Pokrajina</t>
+  </si>
+  <si>
+    <t>Lantern</t>
+  </si>
+  <si>
+    <t>Svetilka</t>
+  </si>
+  <si>
+    <t>Laputa: Castle in the Sky</t>
+  </si>
+  <si>
+    <t>Laputa: Grad na nebu</t>
+  </si>
+  <si>
+    <t>LazyTown</t>
+  </si>
+  <si>
+    <t>League of Legends</t>
+  </si>
+  <si>
+    <t>Left 4 Dead</t>
+  </si>
+  <si>
+    <t>Legendary Pokemon</t>
+  </si>
+  <si>
+    <t>Legendarni Pokemoni</t>
+  </si>
+  <si>
+    <t>Lego</t>
+  </si>
+  <si>
+    <t>Lethal League</t>
+  </si>
+  <si>
+    <t>Smrtonosna liga</t>
+  </si>
+  <si>
+    <t>Library of Ruina</t>
+  </si>
+  <si>
+    <t>Knjižnica Ruina</t>
+  </si>
+  <si>
+    <t>Life is Strange</t>
+  </si>
+  <si>
+    <t>Življenje je čudno</t>
+  </si>
+  <si>
+    <t>Lilo &amp; Stitch</t>
+  </si>
+  <si>
+    <t>Limbus Company</t>
+  </si>
+  <si>
+    <t>Podjetje Limbus</t>
+  </si>
+  <si>
+    <t>Lion King</t>
+  </si>
+  <si>
+    <t>Levji kralj</t>
+  </si>
+  <si>
+    <t>Little Big Planet</t>
+  </si>
+  <si>
+    <t>Mali veliki planet</t>
+  </si>
+  <si>
+    <t>Little Mermaid</t>
+  </si>
+  <si>
+    <t>Mala morska deklica</t>
+  </si>
+  <si>
+    <t>Little Nightmares</t>
+  </si>
+  <si>
+    <t>Male nočne more</t>
+  </si>
+  <si>
+    <t>Little Shop of Horrors</t>
+  </si>
+  <si>
+    <t>Mala trgovina grozljivk</t>
+  </si>
+  <si>
+    <t>Little Witch Academia</t>
+  </si>
+  <si>
+    <t>Mala čarovnica Academia</t>
+  </si>
+  <si>
+    <t>Llama</t>
+  </si>
+  <si>
+    <t>Lama</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Logotip</t>
+  </si>
+  <si>
+    <t>Looney Tunes</t>
+  </si>
+  <si>
+    <t>Lord of the Rings</t>
+  </si>
+  <si>
+    <t>Gospodar prstanov</t>
+  </si>
+  <si>
+    <t>Love Live!</t>
+  </si>
+  <si>
+    <t>Ljubezen v živo!</t>
+  </si>
+  <si>
+    <t>Lovestruck Creature</t>
+  </si>
+  <si>
+    <t>Zaljubljeno bitje</t>
+  </si>
+  <si>
+    <t>Lovestruck Person</t>
+  </si>
+  <si>
+    <t>Lovestruck oseba</t>
+  </si>
+  <si>
+    <t>Lucky Luke</t>
+  </si>
+  <si>
+    <t>Srečni Luke</t>
+  </si>
+  <si>
+    <t>Machine Part</t>
+  </si>
+  <si>
+    <t>Del stroja</t>
+  </si>
+  <si>
+    <t>Mad Father</t>
+  </si>
+  <si>
+    <t>Pobesneli oče</t>
+  </si>
+  <si>
+    <t>Mad Max</t>
+  </si>
+  <si>
+    <t>Pobesneli Max</t>
+  </si>
+  <si>
+    <t>Made in Abyss</t>
+  </si>
+  <si>
+    <t>Izdelano v breznu</t>
+  </si>
+  <si>
+    <t>Madness Combat</t>
+  </si>
+  <si>
+    <t>Boj proti norosti</t>
+  </si>
+  <si>
+    <t>Madoka Magica</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>Ličenje</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Moški</t>
+  </si>
+  <si>
+    <t>Mao Mao Heroes of Pure Heart</t>
+  </si>
+  <si>
+    <t>Mao Mao Heroji čistega srca</t>
+  </si>
+  <si>
+    <t>MapleStory</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>Mary and the Witch's Flower</t>
+  </si>
+  <si>
+    <t>Marija in čarovničin cvet</t>
+  </si>
+  <si>
+    <t>Mascot</t>
+  </si>
+  <si>
+    <t>Maskota</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Maska</t>
+  </si>
+  <si>
+    <t>Mask (full)</t>
+  </si>
+  <si>
+    <t>Maska (polna)</t>
+  </si>
+  <si>
+    <t>Mask (functional)</t>
+  </si>
+  <si>
+    <t>Maska (funkcionalna)</t>
+  </si>
+  <si>
+    <t>Mask (health)</t>
+  </si>
+  <si>
+    <t>Maska (zdravje)</t>
+  </si>
+  <si>
+    <t>Mask (Minecraft mob)</t>
+  </si>
+  <si>
+    <t>Maska (mob Minecraft)</t>
+  </si>
+  <si>
+    <t>Mass Effect</t>
+  </si>
+  <si>
+    <t>Učinek Mass Effect</t>
+  </si>
+  <si>
+    <t>Masters of the Universe</t>
+  </si>
+  <si>
+    <t>Mojstri vesolja</t>
+  </si>
+  <si>
+    <t>Mathematical Symbol</t>
+  </si>
+  <si>
+    <t>Matematični simbol</t>
+  </si>
+  <si>
+    <t>Mc Donalds</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>Prehrana</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Meso</t>
+  </si>
+  <si>
+    <t>Medieval</t>
+  </si>
+  <si>
+    <t>Srednjeveški</t>
+  </si>
+  <si>
+    <t>Medieval Tavern</t>
+  </si>
+  <si>
+    <t>Srednjeveška taverna</t>
+  </si>
+  <si>
+    <t>Medieval Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Srednjeveška vojaška čelada</t>
+  </si>
+  <si>
+    <t>MediEvil</t>
+  </si>
+  <si>
+    <t>Mega Evolution</t>
+  </si>
+  <si>
+    <t>Mega evolucija</t>
+  </si>
+  <si>
+    <t>Megaman</t>
+  </si>
+  <si>
+    <t>Megami Tensei</t>
+  </si>
+  <si>
+    <t>Mekakucity Actors</t>
+  </si>
+  <si>
+    <t>Mekakucity Igralci</t>
+  </si>
+  <si>
+    <t>Meme</t>
+  </si>
+  <si>
+    <t>Meme (Doge)</t>
+  </si>
+  <si>
+    <t>Meme (Pepe)</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Kovina</t>
+  </si>
+  <si>
+    <t>Metal Gear</t>
+  </si>
+  <si>
+    <t>Kovinska prestava</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>Metroid</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Mehika</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>Miki Miška</t>
+  </si>
+  <si>
+    <t>Military Equipment</t>
+  </si>
+  <si>
+    <t>Vojaška oprema</t>
+  </si>
+  <si>
+    <t>Minecraft April Fools</t>
+  </si>
+  <si>
+    <t>Minecraft Bedrock Edition</t>
+  </si>
+  <si>
+    <t>Minecraft Dungeons</t>
+  </si>
+  <si>
+    <t>Loche Minecrafta</t>
+  </si>
+  <si>
+    <t>Minecraft Earth</t>
+  </si>
+  <si>
+    <t>Minecraft Zemlja</t>
+  </si>
+  <si>
+    <t>Minecraft Education Edition</t>
+  </si>
+  <si>
+    <t>Minecraft Legends</t>
+  </si>
+  <si>
+    <t>Legende Minecraft</t>
+  </si>
+  <si>
+    <t>Minecraft Live</t>
+  </si>
+  <si>
+    <t>Minecraft v živo</t>
+  </si>
+  <si>
+    <t>Minecraft Movie</t>
+  </si>
+  <si>
+    <t>Film o Minecraftu</t>
+  </si>
+  <si>
+    <t>Minecraft Story Mode</t>
+  </si>
+  <si>
+    <t>Način zgodbe Minecraft</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>Minesweeper</t>
+  </si>
+  <si>
+    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
+  </si>
+  <si>
+    <t>Čudežno: Noir: Zgodbe o berglah in mačkah Noir</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Future Diary)</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Dnevnik prihodnosti)</t>
+  </si>
+  <si>
+    <t>Mirror's Edge</t>
+  </si>
+  <si>
+    <t>Miss Kobayashi's Dragon Maid</t>
+  </si>
+  <si>
+    <t>Mizuno's Resource Pack</t>
+  </si>
+  <si>
+    <t>Mizunov paket virov</t>
+  </si>
+  <si>
+    <t>Moana</t>
+  </si>
+  <si>
+    <t>Modern Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Čelada Modern Warfare</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Denar</t>
+  </si>
+  <si>
+    <t>Money Heist</t>
+  </si>
+  <si>
+    <t>Denarni rop</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Monkey Island</t>
+  </si>
+  <si>
+    <t>Opičji otok</t>
+  </si>
+  <si>
+    <t>Monocle</t>
+  </si>
+  <si>
+    <t>Monokel</t>
+  </si>
+  <si>
+    <t>Monster High</t>
+  </si>
+  <si>
+    <t>Monster Hunter</t>
+  </si>
+  <si>
+    <t>Lovec na pošasti</t>
+  </si>
+  <si>
+    <t>Monsters Inc</t>
+  </si>
+  <si>
+    <t>Pošasti Inc</t>
+  </si>
+  <si>
+    <t>Moomin</t>
+  </si>
+  <si>
+    <t>Mumin</t>
+  </si>
+  <si>
+    <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>Mouthwashing</t>
+  </si>
+  <si>
+    <t>Izpiranje ustne votline</t>
+  </si>
+  <si>
+    <t>Mr. Bean</t>
+  </si>
+  <si>
+    <t>Gospod Bean</t>
+  </si>
+  <si>
+    <t>Mulan</t>
+  </si>
+  <si>
+    <t>Mundo Gaturro</t>
+  </si>
+  <si>
+    <t>Muppets</t>
+  </si>
+  <si>
+    <t>Muppetki</t>
+  </si>
+  <si>
+    <t>Murder Drones</t>
+  </si>
+  <si>
+    <t>Morilski droni</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Gobe</t>
+  </si>
+  <si>
+    <t>Mushroom (Biome)</t>
+  </si>
+  <si>
+    <t>Gobe (biom)</t>
+  </si>
+  <si>
+    <t>Mushroom (Headwear)</t>
+  </si>
+  <si>
+    <t>Goba (naglavna oblačila)</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Glasba</t>
+  </si>
+  <si>
+    <t>Mustache</t>
+  </si>
+  <si>
+    <t>Uši</t>
+  </si>
+  <si>
+    <t>My Deer Friend Nokotan</t>
+  </si>
+  <si>
+    <t>Moj prijatelj jelen Nokotan</t>
+  </si>
+  <si>
+    <t>My Hero Academia</t>
+  </si>
+  <si>
+    <t>Moj junak Academia</t>
+  </si>
+  <si>
+    <t>My Little Pony</t>
+  </si>
+  <si>
+    <t>Moj mali poni</t>
+  </si>
+  <si>
+    <t>My Neighbor Totoro</t>
+  </si>
+  <si>
+    <t>Moj sosed Totoro</t>
+  </si>
+  <si>
+    <t>My Singing Monsters</t>
+  </si>
+  <si>
+    <t>Moje pojoče pošasti</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>Nausicaä of the Valley of the Wind</t>
+  </si>
+  <si>
+    <t>Nausicaä iz doline vetra</t>
+  </si>
+  <si>
+    <t>Nekopara</t>
+  </si>
+  <si>
+    <t>Neon Genesis Evangelion</t>
+  </si>
+  <si>
+    <t>Nether (inspired)</t>
+  </si>
+  <si>
+    <t>Nether (po navdihu)</t>
+  </si>
+  <si>
+    <t>Nether (vanilla)</t>
+  </si>
+  <si>
+    <t>Nether (vanilija)</t>
+  </si>
+  <si>
+    <t>Neutral Creature</t>
+  </si>
+  <si>
+    <t>Nevtralno bitje</t>
+  </si>
+  <si>
+    <t>Neutral Person</t>
+  </si>
+  <si>
+    <t>Nevtralna oseba</t>
+  </si>
+  <si>
+    <t>New Year's Eve</t>
+  </si>
+  <si>
+    <t>Silvestrovanje</t>
+  </si>
+  <si>
+    <t>NieR: Automata</t>
+  </si>
+  <si>
+    <t>Night in the Woods</t>
+  </si>
+  <si>
+    <t>Noč v gozdu</t>
+  </si>
+  <si>
+    <t>Nightmare Before Christmas</t>
+  </si>
+  <si>
+    <t>Nočna mora pred božičem</t>
+  </si>
+  <si>
+    <t>Ninja Turtles</t>
+  </si>
+  <si>
+    <t>Ninja želve</t>
+  </si>
+  <si>
+    <t>No Game No Life</t>
+  </si>
+  <si>
+    <t>Brez igre ni življenja</t>
+  </si>
+  <si>
+    <t>No Man's Sky</t>
+  </si>
+  <si>
+    <t>Igra No Man's Sky</t>
+  </si>
+  <si>
+    <t>Noel's House Party</t>
+  </si>
+  <si>
+    <t>Noelova hišna zabava</t>
+  </si>
+  <si>
+    <t>Norse Mythology</t>
+  </si>
+  <si>
+    <t>Nordijska mitologija</t>
+  </si>
+  <si>
+    <t>NPC (Education Edition)</t>
+  </si>
+  <si>
+    <t>NPC (izobraževalna izdaja)</t>
+  </si>
+  <si>
+    <t>Nuclear Fallout</t>
+  </si>
+  <si>
+    <t>Jedrski padec</t>
+  </si>
+  <si>
+    <t>Nuclear Throne</t>
+  </si>
+  <si>
+    <t>Jedrski prestol</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Številka</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>Oreh</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Octodad</t>
+  </si>
+  <si>
+    <t>Oddworld</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Officer Cap</t>
+  </si>
+  <si>
+    <t>Čepica častnika</t>
+  </si>
+  <si>
+    <t>Oggy and the Cockroaches</t>
+  </si>
+  <si>
+    <t>Oggy in ščurki</t>
+  </si>
+  <si>
+    <t>Okegom</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Stari</t>
+  </si>
+  <si>
+    <t>Oliver &amp; Co</t>
+  </si>
+  <si>
+    <t>Omori</t>
+  </si>
+  <si>
+    <t>One Piece</t>
+  </si>
+  <si>
+    <t>En kos</t>
+  </si>
+  <si>
+    <t>One Punch Man</t>
+  </si>
+  <si>
+    <t>OneShot</t>
+  </si>
+  <si>
+    <t>Ongezellig</t>
+  </si>
+  <si>
+    <t>Onii-chan wa Oshimai</t>
+  </si>
+  <si>
+    <t>Open Source Objects</t>
+  </si>
+  <si>
+    <t>Odprtokodni predmeti</t>
+  </si>
+  <si>
+    <t>Orb</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Ork</t>
+  </si>
+  <si>
+    <t>Ore</t>
+  </si>
+  <si>
+    <t>Rudnina</t>
+  </si>
+  <si>
+    <t>Organs and Bodyparts</t>
+  </si>
+  <si>
+    <t>Organi in deli telesa</t>
+  </si>
+  <si>
+    <t>Other Headgear</t>
+  </si>
+  <si>
+    <t>Druga pokrivala</t>
+  </si>
+  <si>
+    <t>Other Illumination</t>
+  </si>
+  <si>
+    <t>Druga osvetlitev</t>
+  </si>
+  <si>
+    <t>Other Mystic Creature</t>
+  </si>
+  <si>
+    <t>Druga mistična bitja</t>
+  </si>
+  <si>
+    <t>Outer Layer Block</t>
+  </si>
+  <si>
+    <t>Blok zunanjega sloja</t>
+  </si>
+  <si>
+    <t>Overlord</t>
+  </si>
+  <si>
+    <t>Overwatch</t>
+  </si>
+  <si>
+    <t>Pac-Man</t>
+  </si>
+  <si>
+    <t>Pacific Rim</t>
+  </si>
+  <si>
+    <t>Pacifiški obroč</t>
+  </si>
+  <si>
+    <t>Pacifier</t>
+  </si>
+  <si>
+    <t>Dojenček</t>
+  </si>
+  <si>
+    <t>Painted Face</t>
+  </si>
+  <si>
+    <t>Poslikan obraz</t>
+  </si>
+  <si>
+    <t>Pale Garden (inspired)</t>
+  </si>
+  <si>
+    <t>Bledi vrt (po navdihu)</t>
+  </si>
+  <si>
+    <t>Panda Bear</t>
+  </si>
+  <si>
+    <t>Medvedek panda</t>
+  </si>
+  <si>
+    <t>Pans Labyrinth</t>
+  </si>
+  <si>
+    <t>Panov labirint</t>
+  </si>
+  <si>
+    <t>Papers Please</t>
+  </si>
+  <si>
+    <t>Papirji, prosim</t>
+  </si>
+  <si>
+    <t>PaRappa the Rapper</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Stranka</t>
+  </si>
+  <si>
+    <t>Pastries and Sweets</t>
+  </si>
+  <si>
+    <t>Pecivo in sladkarije</t>
+  </si>
+  <si>
+    <t>Paw Patrol</t>
+  </si>
+  <si>
+    <t>Payday</t>
+  </si>
+  <si>
+    <t>Izplačilo</t>
+  </si>
+  <si>
+    <t>Peanuts (Snoopy)</t>
+  </si>
+  <si>
+    <t>Arašidi (Snoopy)</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>Pingvin</t>
+  </si>
+  <si>
+    <t>Peppa Pig</t>
+  </si>
+  <si>
+    <t>Periodic Table of Elements</t>
+  </si>
+  <si>
+    <t>Periodni sistem elementov</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>Pet Equipment</t>
+  </si>
+  <si>
+    <t>Oprema za hišne ljubljenčke</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>Fantom</t>
+  </si>
+  <si>
+    <t>Phineas &amp; Ferb</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Prašič</t>
+  </si>
+  <si>
+    <t>Piglin</t>
+  </si>
+  <si>
+    <t>Pigman</t>
+  </si>
+  <si>
+    <t>Pikmin</t>
+  </si>
+  <si>
+    <t>Pingu</t>
+  </si>
+  <si>
+    <t>Pink Panther</t>
+  </si>
+  <si>
+    <t>Roza panter</t>
+  </si>
+  <si>
+    <t>Pinky and the Brain</t>
+  </si>
+  <si>
+    <t>Pinky in možgani</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean</t>
+  </si>
+  <si>
+    <t>Pirati s Karibov</t>
+  </si>
+  <si>
+    <t>Pizza Tower</t>
+  </si>
+  <si>
+    <t>Stolp za pico</t>
+  </si>
+  <si>
+    <t>Planet</t>
+  </si>
+  <si>
+    <t>Plants vs. Zombies</t>
+  </si>
+  <si>
+    <t>Rastline proti zombijem</t>
+  </si>
+  <si>
+    <t>Playerunknown's Battlegrounds</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>Pokeball</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 1</t>
+  </si>
+  <si>
+    <t>Pokemon generacija 1</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 2</t>
+  </si>
+  <si>
+    <t>Pokemon generacija 2</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 3</t>
+  </si>
+  <si>
+    <t>Pokemon generacija 3</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 4</t>
+  </si>
+  <si>
+    <t>Pokemon generacija 4</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 5</t>
+  </si>
+  <si>
+    <t>Pokemon generacija 5</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 6</t>
+  </si>
+  <si>
+    <t>Pokemon generacija 6</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 7</t>
+  </si>
+  <si>
+    <t>Pokemon generacija 7</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 8</t>
+  </si>
+  <si>
+    <t>Pokemon generacija 8</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 9</t>
+  </si>
+  <si>
+    <t>Pokemon generacija 9</t>
+  </si>
+  <si>
+    <t>Pokemon Items</t>
+  </si>
+  <si>
+    <t>Predmeti Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon Trainer</t>
+  </si>
+  <si>
+    <t>Trener Pokemonov</t>
+  </si>
+  <si>
+    <t>Polar Bear</t>
+  </si>
+  <si>
+    <t>Polarni medved</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>Policija</t>
+  </si>
+  <si>
+    <t>Pom Poko</t>
+  </si>
+  <si>
+    <t>Ponyo</t>
+  </si>
+  <si>
+    <t>Pop Team Epic</t>
+  </si>
+  <si>
+    <t>POPGOES</t>
+  </si>
+  <si>
+    <t>Poppy Playtime</t>
+  </si>
+  <si>
+    <t>Porco Rosso</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>Postman Pat</t>
+  </si>
+  <si>
+    <t>Poštar Pat</t>
+  </si>
+  <si>
+    <t>Power Rangers</t>
+  </si>
+  <si>
+    <t>Powerpuff Girls</t>
+  </si>
+  <si>
+    <t>Predator</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Prisotnost</t>
+  </si>
+  <si>
+    <t>Pride</t>
+  </si>
+  <si>
+    <t>Primate</t>
+  </si>
+  <si>
+    <t>Primati</t>
+  </si>
+  <si>
+    <t>Princess Mononoke</t>
+  </si>
+  <si>
+    <t>Princesa Mononoke</t>
+  </si>
+  <si>
+    <t>Prof Layton</t>
+  </si>
+  <si>
+    <t>Profesor Layton</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Buče</t>
+  </si>
+  <si>
+    <t>Pumpkin (Lit)</t>
+  </si>
+  <si>
+    <t>Buče (Lit)</t>
+  </si>
+  <si>
+    <t>Punctuation Mark</t>
+  </si>
+  <si>
+    <t>Znak za ločila</t>
+  </si>
+  <si>
+    <t>Quake</t>
+  </si>
+  <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>Zajec</t>
+  </si>
+  <si>
+    <t>Railway</t>
+  </si>
+  <si>
+    <t>Železnica</t>
+  </si>
+  <si>
+    <t>Rain World</t>
+  </si>
+  <si>
+    <t>Deževni svet</t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank</t>
+  </si>
+  <si>
+    <t>Re:Creators</t>
+  </si>
+  <si>
+    <t>Re:Ustvarjalci</t>
+  </si>
+  <si>
+    <t>Re:Zero</t>
+  </si>
+  <si>
+    <t>Realm of the Mad God</t>
+  </si>
+  <si>
+    <t>Kraljestvo norega boga</t>
+  </si>
+  <si>
+    <t>Red Dead Redemption</t>
+  </si>
+  <si>
+    <t>Red Riding Hood</t>
+  </si>
+  <si>
+    <t>Rdeča kapica</t>
+  </si>
+  <si>
+    <t>Redstone</t>
+  </si>
+  <si>
+    <t>Regional Form Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemoni regionalne oblike</t>
+  </si>
+  <si>
+    <t>Regretavator</t>
+  </si>
+  <si>
+    <t>Regular Show</t>
+  </si>
+  <si>
+    <t>Redna oddaja</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Religija</t>
+  </si>
+  <si>
+    <t>Reptile</t>
+  </si>
+  <si>
+    <t>plazilci</t>
+  </si>
+  <si>
+    <t>Rescue Rangers</t>
+  </si>
+  <si>
+    <t>Reševalci reševalci</t>
+  </si>
+  <si>
+    <t>Resident Evil</t>
+  </si>
+  <si>
+    <t>Rhythm Heaven</t>
+  </si>
+  <si>
+    <t>Ritemska nebesa</t>
+  </si>
+  <si>
+    <t>Ribbon</t>
+  </si>
+  <si>
+    <t>Trakovi</t>
+  </si>
+  <si>
+    <t>Rick and Morty</t>
+  </si>
+  <si>
+    <t>Rick in Morty</t>
+  </si>
+  <si>
+    <t>Risk of Rain</t>
+  </si>
+  <si>
+    <t>Nevarnost dežja</t>
+  </si>
+  <si>
+    <t>Rival of Aether</t>
+  </si>
+  <si>
+    <t>Tekmec etra</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Reka</t>
+  </si>
+  <si>
+    <t>Riverdale</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>Roblox</t>
+  </si>
+  <si>
+    <t>RoboCop</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>Rocky Horror Picture Show</t>
+  </si>
+  <si>
+    <t>Rodent</t>
+  </si>
+  <si>
+    <t>Glodavci</t>
+  </si>
+  <si>
+    <t>Rotated Entity</t>
+  </si>
+  <si>
+    <t>Obrnjen subjekt</t>
+  </si>
+  <si>
+    <t>Royal Headgear</t>
+  </si>
+  <si>
+    <t>Kraljeva pokrivala</t>
+  </si>
+  <si>
+    <t>Rune</t>
+  </si>
+  <si>
+    <t>Runescape</t>
+  </si>
+  <si>
+    <t>RWBY</t>
+  </si>
+  <si>
+    <t>Sackboy: A Big Adventure</t>
+  </si>
+  <si>
+    <t>Sackboy: Sboyboy: Velika pustolovščina</t>
+  </si>
+  <si>
+    <t>Sad Creature</t>
+  </si>
+  <si>
+    <t>Žalostno bitje</t>
+  </si>
+  <si>
+    <t>Sad Person</t>
+  </si>
+  <si>
+    <t>Žalostna oseba</t>
+  </si>
+  <si>
+    <t>Safari (Other)</t>
+  </si>
+  <si>
+    <t>Safari (drugo)</t>
+  </si>
+  <si>
+    <t>Saga of Tanya the Evil</t>
+  </si>
+  <si>
+    <t>Saga o Tanyi Zlobni</t>
+  </si>
+  <si>
+    <t>Sailor Moon</t>
+  </si>
+  <si>
+    <t>Sakurasou no Pet na Kanojo</t>
+  </si>
+  <si>
+    <t>Samurai Helmet</t>
+  </si>
+  <si>
+    <t>Samurajska čelada</t>
+  </si>
+  <si>
+    <t>Satisfactory</t>
+  </si>
+  <si>
+    <t>Zadovoljivo</t>
+  </si>
+  <si>
+    <t>Saw</t>
+  </si>
+  <si>
+    <t>Žaga</t>
+  </si>
+  <si>
+    <t>Scarf</t>
+  </si>
+  <si>
+    <t>Šali</t>
+  </si>
+  <si>
+    <t>Scooby-Doo</t>
+  </si>
+  <si>
+    <t>SCP Containment Breach</t>
+  </si>
+  <si>
+    <t>Kršitev zadrževalnika SCP</t>
+  </si>
+  <si>
+    <t>Scream</t>
+  </si>
+  <si>
+    <t>Krik</t>
+  </si>
+  <si>
+    <t>Scribblenauts</t>
+  </si>
+  <si>
+    <t>Sea of Thieves</t>
+  </si>
+  <si>
+    <t>Morje tatov</t>
+  </si>
+  <si>
+    <t>Seafarer</t>
+  </si>
+  <si>
+    <t>Seraph of the End</t>
+  </si>
+  <si>
+    <t>Seraf konca</t>
+  </si>
+  <si>
+    <t>Serial Experiments Lain</t>
+  </si>
+  <si>
+    <t>Serijski poskusi Lain</t>
+  </si>
+  <si>
+    <t>Sesame Street</t>
+  </si>
+  <si>
+    <t>Sezamova ulica</t>
+  </si>
+  <si>
+    <t>Seven Deadly Sins</t>
+  </si>
+  <si>
+    <t>Sedem smrtnih grehov</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>Senca kolosa</t>
+  </si>
+  <si>
+    <t>Shadows of Mordor</t>
+  </si>
+  <si>
+    <t>Sence Mordorja</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Ovce</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>Shigatsu wa Kimi no Uso</t>
+  </si>
+  <si>
+    <t>Shimoneta</t>
+  </si>
+  <si>
+    <t>Shiny Pokemon</t>
+  </si>
+  <si>
+    <t>Sijajni Pokemoni</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Dostava</t>
+  </si>
+  <si>
+    <t>Shovel Knight</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>Shulker</t>
+  </si>
+  <si>
+    <t>Silent Hill</t>
+  </si>
+  <si>
+    <t>SilvaGunner</t>
+  </si>
+  <si>
+    <t>Simpsons</t>
+  </si>
+  <si>
+    <t>Simpsonovi</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Skelet</t>
+  </si>
+  <si>
+    <t>Skeleton (Vanilla)</t>
+  </si>
+  <si>
+    <t>Skelet (vanilija)</t>
+  </si>
+  <si>
+    <t>Skeptical Creature</t>
+  </si>
+  <si>
+    <t>Skeptično bitje</t>
+  </si>
+  <si>
+    <t>Skeptical Person</t>
+  </si>
+  <si>
+    <t>Skeptična oseba</t>
+  </si>
+  <si>
+    <t>Skullgirls</t>
+  </si>
+  <si>
+    <t>Skyrim</t>
+  </si>
+  <si>
+    <t>Sleeping Beauty</t>
+  </si>
+  <si>
+    <t>Speča lepotica</t>
+  </si>
+  <si>
+    <t>Sleeping Creature</t>
+  </si>
+  <si>
+    <t>Spalno bitje</t>
+  </si>
+  <si>
+    <t>Sleeping Person</t>
+  </si>
+  <si>
+    <t>Spalna oseba</t>
+  </si>
+  <si>
+    <t>Sliced</t>
+  </si>
+  <si>
+    <t>Narezano na rezine</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
+    <t>Slime (Vanilla)</t>
+  </si>
+  <si>
+    <t>Sluz (vanilija)</t>
+  </si>
+  <si>
+    <t>Slime Rancher</t>
+  </si>
+  <si>
+    <t>Rančer z blatom</t>
+  </si>
+  <si>
+    <t>Slimefun</t>
+  </si>
+  <si>
+    <t>Sly Cooper</t>
+  </si>
+  <si>
+    <t>Smite Gods</t>
+  </si>
+  <si>
+    <t>Smite bogove</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>Kajenje</t>
+  </si>
+  <si>
+    <t>Smurfs</t>
+  </si>
+  <si>
+    <t>Smurfi</t>
+  </si>
+  <si>
+    <t>Snow Fight</t>
+  </si>
+  <si>
+    <t>Boj za sneg</t>
+  </si>
+  <si>
+    <t>Snow Sculpture</t>
+  </si>
+  <si>
+    <t>Snežna skulptura</t>
+  </si>
+  <si>
+    <t>Snow White and the Seven Dwarfs</t>
+  </si>
+  <si>
+    <t>Sneguljčica in sedem pritlikavcev</t>
+  </si>
+  <si>
+    <t>Songs of War</t>
+  </si>
+  <si>
+    <t>Vojne pesmi</t>
+  </si>
+  <si>
+    <t>Sonic the Hedgehog</t>
+  </si>
+  <si>
+    <t>Ježek Sonic</t>
+  </si>
+  <si>
+    <t>Soul Knight</t>
+  </si>
+  <si>
+    <t>Vitez duše</t>
+  </si>
+  <si>
+    <t>South Park</t>
+  </si>
+  <si>
+    <t>Južni park</t>
+  </si>
+  <si>
+    <t>Space Travel</t>
+  </si>
+  <si>
+    <t>Potovanje v vesolje</t>
+  </si>
+  <si>
+    <t>Spawn Egg</t>
+  </si>
+  <si>
+    <t>Jajce za razmnoževanje</t>
+  </si>
+  <si>
+    <t>Spawner</t>
+  </si>
+  <si>
+    <t>Spelunky</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>Spider (Vanilla)</t>
+  </si>
+  <si>
+    <t>Pajek (vanilija)</t>
+  </si>
+  <si>
+    <t>Spiderman</t>
+  </si>
+  <si>
+    <t>Spirited Away</t>
+  </si>
+  <si>
+    <t>Splatoon</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>Spooky's Jump Scare Mansion</t>
+  </si>
+  <si>
+    <t>Dvorec strahu Spooky's Jump Scare Mansion</t>
+  </si>
+  <si>
+    <t>Spore</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Šport</t>
+  </si>
+  <si>
+    <t>Spreads</t>
+  </si>
+  <si>
+    <t>Razponi</t>
+  </si>
+  <si>
+    <t>Spring to Life</t>
+  </si>
+  <si>
+    <t>Pomlad za življenje</t>
+  </si>
+  <si>
+    <t>Spy x Family</t>
+  </si>
+  <si>
+    <t>Vohun x družina</t>
+  </si>
+  <si>
+    <t>Spyro</t>
+  </si>
+  <si>
+    <t>Squid Game</t>
+  </si>
+  <si>
+    <t>Igra z lignji</t>
+  </si>
+  <si>
+    <t>St. Patrick's Day</t>
+  </si>
+  <si>
+    <t>Dan svetega Patrika</t>
+  </si>
+  <si>
+    <t>StackUp</t>
+  </si>
+  <si>
+    <t>Star Fox</t>
+  </si>
+  <si>
+    <t>Zvezdna lisica</t>
+  </si>
+  <si>
+    <t>Star Trek</t>
+  </si>
+  <si>
+    <t>Zvezdne steze</t>
+  </si>
+  <si>
+    <t>Star vs the Forces of Evil</t>
+  </si>
+  <si>
+    <t>Zvezdica proti silam zla</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>Vojna zvezd</t>
+  </si>
+  <si>
+    <t>Star Wars Helmet</t>
+  </si>
+  <si>
+    <t>Čelada iz Vojne zvezd</t>
+  </si>
+  <si>
+    <t>Star Wars Trooper Helmet</t>
+  </si>
+  <si>
+    <t>Čelada Star Wars Trooper</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>StarCraft</t>
+  </si>
+  <si>
+    <t>Stardew Valley</t>
+  </si>
+  <si>
+    <t>Dolina Stardew</t>
+  </si>
+  <si>
+    <t>Starter Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemoni začetniki</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>Pisarniške potrebščine</t>
+  </si>
+  <si>
+    <t>Steampunk</t>
+  </si>
+  <si>
+    <t>Steins;Gate</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Steven Universe</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Kamen</t>
+  </si>
+  <si>
+    <t>Storage (other)</t>
+  </si>
+  <si>
+    <t>Skladiščenje (drugo)</t>
+  </si>
+  <si>
+    <t>Stranger Things</t>
+  </si>
+  <si>
+    <t>Street Fighter</t>
+  </si>
+  <si>
+    <t>Ulični bojevnik</t>
+  </si>
+  <si>
+    <t>Strider</t>
+  </si>
+  <si>
+    <t>Subnautica</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Poletje</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>Sončna očala</t>
+  </si>
+  <si>
+    <t>Super Mario</t>
+  </si>
+  <si>
+    <t>Supernatural</t>
+  </si>
+  <si>
+    <t>Nadnaravno</t>
+  </si>
+  <si>
+    <t>Surprised Creature</t>
+  </si>
+  <si>
+    <t>Presenečeno bitje</t>
+  </si>
+  <si>
+    <t>Surprised Person</t>
+  </si>
+  <si>
+    <t>Presenečena oseba</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>Swamp</t>
+  </si>
+  <si>
+    <t>Močvirje</t>
+  </si>
+  <si>
+    <t>Sword Art Online</t>
+  </si>
+  <si>
+    <t>TaleSpin</t>
+  </si>
+  <si>
+    <t>Tangled</t>
+  </si>
+  <si>
+    <t>Zapleteno</t>
+  </si>
+  <si>
+    <t>Tattletail</t>
+  </si>
+  <si>
+    <t>Team Fortress 2</t>
+  </si>
+  <si>
+    <t>Teletubbies</t>
+  </si>
+  <si>
+    <t>Terraria</t>
+  </si>
+  <si>
+    <t>Terraria (Calamity)</t>
+  </si>
+  <si>
+    <t>Tetris</t>
+  </si>
+  <si>
+    <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>Zahvalni dan</t>
+  </si>
+  <si>
+    <t>That Time I Got Reincarnated as a Slime</t>
+  </si>
+  <si>
+    <t>Takrat, ko sem se reinkarniral kot polž</t>
+  </si>
+  <si>
+    <t>Thaumcraft</t>
+  </si>
+  <si>
+    <t>The Adventures of Tintin</t>
+  </si>
+  <si>
+    <t>Tintinove dogodivščine</t>
+  </si>
+  <si>
+    <t>The Amazing Digital Circus</t>
+  </si>
+  <si>
+    <t>Neverjetni digitalni cirkus</t>
+  </si>
+  <si>
+    <t>The Amazing World of Gumball</t>
+  </si>
+  <si>
+    <t>Neverjetni svet Gumball</t>
+  </si>
+  <si>
+    <t>The Binding of Isaac</t>
+  </si>
+  <si>
+    <t>The Boys</t>
+  </si>
+  <si>
+    <t>Fantje</t>
+  </si>
+  <si>
+    <t>The Cat Returns</t>
+  </si>
+  <si>
+    <t>Mačka se vrne</t>
+  </si>
+  <si>
+    <t>The Conjuring</t>
+  </si>
+  <si>
+    <t>The Copper Age</t>
+  </si>
+  <si>
+    <t>Bakrena doba</t>
+  </si>
+  <si>
+    <t>The Emperor's New Groove</t>
+  </si>
+  <si>
+    <t>Cesarjev novi groove</t>
+  </si>
+  <si>
+    <t>The English Ensemble Stars</t>
+  </si>
+  <si>
+    <t>Zvezde angleškega ansambla</t>
+  </si>
+  <si>
+    <t>The Fairly OddParents</t>
+  </si>
+  <si>
+    <t>Pravljično nenavadni starši (The Fairly OddParents)</t>
+  </si>
+  <si>
+    <t>The Finals</t>
+  </si>
+  <si>
+    <t>Finale</t>
+  </si>
+  <si>
+    <t>The Flash</t>
+  </si>
+  <si>
+    <t>Flash</t>
+  </si>
+  <si>
+    <t>The Flintstones</t>
+  </si>
+  <si>
+    <t>Flintstoneovi</t>
+  </si>
+  <si>
+    <t>The Fly</t>
+  </si>
+  <si>
+    <t>Muha</t>
+  </si>
+  <si>
+    <t>The Garden Awakens</t>
+  </si>
+  <si>
+    <t>Vrt se prebuja</t>
+  </si>
+  <si>
+    <t>The Good Dinosaur</t>
+  </si>
+  <si>
+    <t>Dobri dinozaver</t>
+  </si>
+  <si>
+    <t>The Great Mouse Detective</t>
+  </si>
+  <si>
+    <t>Veliki mišji detektiv</t>
+  </si>
+  <si>
+    <t>The Grim Adventures of Billy &amp; Mandy</t>
+  </si>
+  <si>
+    <t>Mračne dogodivščine Billyja in Mandy</t>
+  </si>
+  <si>
+    <t>The Hunchback of Notre Dame</t>
+  </si>
+  <si>
+    <t>Grbavec iz Notre Dame</t>
+  </si>
+  <si>
+    <t>The Iron Giant</t>
+  </si>
+  <si>
+    <t>Železni velikan</t>
+  </si>
+  <si>
+    <t>The Last Guardian</t>
+  </si>
+  <si>
+    <t>Zadnji varuh</t>
+  </si>
+  <si>
+    <t>The Last of Us</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda</t>
+  </si>
+  <si>
+    <t>Legenda o Zeldi</t>
+  </si>
+  <si>
+    <t>The Lorax</t>
+  </si>
+  <si>
+    <t>Lorax</t>
+  </si>
+  <si>
+    <t>The Neverhood</t>
+  </si>
+  <si>
+    <t>Neverhood</t>
+  </si>
+  <si>
+    <t>The Owl House</t>
+  </si>
+  <si>
+    <t>Hiša sove</t>
+  </si>
+  <si>
+    <t>The Princess and the Frog</t>
+  </si>
+  <si>
+    <t>Princesa in žaba</t>
+  </si>
+  <si>
+    <t>The Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>Oddaja Ren in Stimpy</t>
+  </si>
+  <si>
+    <t>The Road to El Dorado</t>
+  </si>
+  <si>
+    <t>Pot v El Dorado</t>
+  </si>
+  <si>
+    <t>The Texas Chainsaw Massacre</t>
+  </si>
+  <si>
+    <t>Teksaški pokol z motorno žago</t>
+  </si>
+  <si>
+    <t>The Three Caballeros</t>
+  </si>
+  <si>
+    <t>Trije Caballerosi</t>
+  </si>
+  <si>
+    <t>The Walten Files</t>
+  </si>
+  <si>
+    <t>Datoteke Walten</t>
+  </si>
+  <si>
+    <t>The Woody Woodpecker Show</t>
+  </si>
+  <si>
+    <t>Oddaja Woody Woodpecker</t>
+  </si>
+  <si>
+    <t>Thomas &amp; Friends</t>
+  </si>
+  <si>
+    <t>Tomaž in prijatelji</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Those Nights at Rachel's</t>
+  </si>
+  <si>
+    <t>Tiste noči pri Rachel</t>
+  </si>
+  <si>
+    <t>Tinker's Construct</t>
+  </si>
+  <si>
+    <t>Konstrukcija Tinker's Construct</t>
+  </si>
+  <si>
+    <t>Titanfall</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul</t>
+  </si>
+  <si>
+    <t>Tom and Jerry</t>
+  </si>
+  <si>
+    <t>Tom in Jerry</t>
+  </si>
+  <si>
+    <t>Tomb Raider</t>
+  </si>
+  <si>
+    <t>Tomorrow's Pioneers</t>
+  </si>
+  <si>
+    <t>Pionirji jutrišnjega dne</t>
+  </si>
+  <si>
+    <t>Tooth Gap</t>
+  </si>
+  <si>
+    <t>Zobna vrzel</t>
+  </si>
+  <si>
+    <t>Toradora</t>
+  </si>
+  <si>
+    <t>Total Drama Island</t>
+  </si>
+  <si>
+    <t>Skupaj Drama Otok</t>
+  </si>
+  <si>
+    <t>Touhou Project</t>
+  </si>
+  <si>
+    <t>Projekt Touhou</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>Igrača</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>Zgodba o igračah</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>Promet</t>
+  </si>
+  <si>
+    <t>Traffic Light</t>
+  </si>
+  <si>
+    <t>Semafor</t>
+  </si>
+  <si>
+    <t>Traffic Sign</t>
+  </si>
+  <si>
+    <t>Prometni znak</t>
+  </si>
+  <si>
+    <t>Trails and Tales</t>
+  </si>
+  <si>
+    <t>Poti in zgodbe</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>Transformerji</t>
+  </si>
+  <si>
+    <t>Transformice</t>
+  </si>
+  <si>
+    <t>Transparent Head</t>
+  </si>
+  <si>
+    <t>Prozorna glava</t>
+  </si>
+  <si>
+    <t>Trash Can</t>
+  </si>
+  <si>
+    <t>Koš za smeti</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>Zaklad</t>
+  </si>
+  <si>
+    <t>Treasure Planet</t>
+  </si>
+  <si>
+    <t>Planet zakladov</t>
+  </si>
+  <si>
+    <t>Tricky Trials Update</t>
+  </si>
+  <si>
+    <t>Posodobitev zahtevnih preizkušenj</t>
+  </si>
+  <si>
+    <t>Tron</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Želva</t>
+  </si>
+  <si>
+    <t>Twilight Forest</t>
+  </si>
+  <si>
+    <t>Gozd somraka</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>Ultrakill</t>
+  </si>
+  <si>
+    <t>Umineko - When They Cry</t>
+  </si>
+  <si>
+    <t>Umineko - Ko jočejo</t>
+  </si>
+  <si>
+    <t>Undertale</t>
+  </si>
+  <si>
+    <t>Undertale AU</t>
+  </si>
+  <si>
+    <t>Undertale Yellow</t>
+  </si>
+  <si>
+    <t>Undertale rumena</t>
+  </si>
+  <si>
+    <t>Universal Symbol</t>
+  </si>
+  <si>
+    <t>Univerzalni simbol</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Do</t>
+  </si>
+  <si>
+    <t>Urban Wildlife</t>
+  </si>
+  <si>
+    <t>Divje živali v mestih</t>
+  </si>
+  <si>
+    <t>V for Vendetta</t>
+  </si>
+  <si>
+    <t>V kot Vendeta</t>
+  </si>
+  <si>
+    <t>Valentines</t>
+  </si>
+  <si>
+    <t>Valentinovo</t>
+  </si>
+  <si>
+    <t>Valorant</t>
+  </si>
+  <si>
+    <t>Vanilla (removed)</t>
+  </si>
+  <si>
+    <t>Vanilija (odstranjeno)</t>
+  </si>
+  <si>
+    <t>Vanilla Block</t>
+  </si>
+  <si>
+    <t>Vanilijev blok</t>
+  </si>
+  <si>
+    <t>Vanilla Food</t>
+  </si>
+  <si>
+    <t>Hrana iz vanilije</t>
+  </si>
+  <si>
+    <t>Vanilla Helmet</t>
+  </si>
+  <si>
+    <t>Čelada Vanilla</t>
+  </si>
+  <si>
+    <t>Vanilla Item</t>
+  </si>
+  <si>
+    <t>Vanilija Element</t>
+  </si>
+  <si>
+    <t>Vanilla Mob</t>
+  </si>
+  <si>
+    <t>Vault Hunters</t>
+  </si>
+  <si>
+    <t>Lovci na trezorje</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>Zelenjava</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Vozilo</t>
+  </si>
+  <si>
+    <t>Vikings</t>
+  </si>
+  <si>
+    <t>Vikingi</t>
+  </si>
+  <si>
+    <t>Villager</t>
+  </si>
+  <si>
+    <t>Vasilec</t>
+  </si>
+  <si>
+    <t>Villager (Desert)</t>
+  </si>
+  <si>
+    <t>vaščan (puščava)</t>
+  </si>
+  <si>
+    <t>Villager (Jungle)</t>
+  </si>
+  <si>
+    <t>vaščan (džungla)</t>
+  </si>
+  <si>
+    <t>Villager (Plains)</t>
+  </si>
+  <si>
+    <t>vaščan (ravnina)</t>
+  </si>
+  <si>
+    <t>Villager (Savanna)</t>
+  </si>
+  <si>
+    <t>vaščan (Savanna)</t>
+  </si>
+  <si>
+    <t>Villager (Snowy Tundra)</t>
+  </si>
+  <si>
+    <t>vaščan (Snežna tundra)</t>
+  </si>
+  <si>
+    <t>Villager (Swamp)</t>
+  </si>
+  <si>
+    <t>vaščan (močvirje)</t>
+  </si>
+  <si>
+    <t>Villager (Taiga)</t>
+  </si>
+  <si>
+    <t>vaščan (Tajga)</t>
+  </si>
+  <si>
+    <t>Virtual Youtuber</t>
+  </si>
+  <si>
+    <t>Virtualni Youtuber</t>
+  </si>
+  <si>
+    <t>Vocaloid</t>
+  </si>
+  <si>
+    <t>Voltron</t>
+  </si>
+  <si>
+    <t>Wakfu</t>
+  </si>
+  <si>
+    <t>Walking Dead</t>
+  </si>
+  <si>
+    <t>Hoja po mrtvih (Walking Dead)</t>
+  </si>
+  <si>
+    <t>Wall-E</t>
+  </si>
+  <si>
+    <t>Wallace and Gromit</t>
+  </si>
+  <si>
+    <t>Wallace in Gromit</t>
+  </si>
+  <si>
+    <t>War of the Worlds</t>
+  </si>
+  <si>
+    <t>Vojna svetov</t>
+  </si>
+  <si>
+    <t>Warcraft</t>
+  </si>
+  <si>
+    <t>Warframe</t>
+  </si>
+  <si>
+    <t>Warhammer</t>
+  </si>
+  <si>
+    <t>Warrior Cats</t>
+  </si>
+  <si>
+    <t>Bojevniške mačke</t>
+  </si>
+  <si>
+    <t>We Bear Bears</t>
+  </si>
+  <si>
+    <t>Mi nosimo medvede</t>
+  </si>
+  <si>
+    <t>We Happy Few</t>
+  </si>
+  <si>
+    <t>Mi smo srečni maloštevilni</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Vreme</t>
+  </si>
+  <si>
+    <t>Welcome Home</t>
+  </si>
+  <si>
+    <t>Dobrodošli doma</t>
+  </si>
+  <si>
+    <t>Who is this?</t>
+  </si>
+  <si>
+    <t>Kdo je to?</t>
+  </si>
+  <si>
+    <t>Wild Update</t>
+  </si>
+  <si>
+    <t>Posodobitev divjine</t>
+  </si>
+  <si>
+    <t>Wings of Fire</t>
+  </si>
+  <si>
+    <t>Krila ognja</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh</t>
+  </si>
+  <si>
+    <t>Medvedek Pujsek</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Zima</t>
+  </si>
+  <si>
+    <t>Witcher</t>
+  </si>
+  <si>
+    <t>Wonderful Wonder World</t>
+  </si>
+  <si>
+    <t>Čudoviti svet čudes</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Les</t>
+  </si>
+  <si>
+    <t>Wool</t>
+  </si>
+  <si>
+    <t>Volna</t>
+  </si>
+  <si>
+    <t>Work Safety Helmet</t>
+  </si>
+  <si>
+    <t>Delovna varnostna čelada</t>
+  </si>
+  <si>
+    <t>Wreck It Ralph</t>
+  </si>
+  <si>
+    <t>Razbij ga, Ralph</t>
+  </si>
+  <si>
+    <t>Wybel</t>
+  </si>
+  <si>
+    <t>Wynncraft</t>
+  </si>
+  <si>
+    <t>X-Men</t>
+  </si>
+  <si>
+    <t>Možje X</t>
+  </si>
+  <si>
+    <t>Xenoblade Chronicles</t>
+  </si>
+  <si>
+    <t>Yandere Simulator</t>
+  </si>
+  <si>
+    <t>Simulator Yandere</t>
+  </si>
+  <si>
+    <t>Yellow Submarine</t>
+  </si>
+  <si>
+    <t>Rumena podmornica</t>
+  </si>
+  <si>
+    <t>Yokai</t>
+  </si>
+  <si>
+    <t>Yooka Laylee</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Mladi</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Yu-Gi-Oh</t>
+  </si>
+  <si>
+    <t>Yume Nikki</t>
+  </si>
+  <si>
+    <t>Zero no Tsukaima</t>
+  </si>
+  <si>
+    <t>Zero Wing</t>
+  </si>
+  <si>
+    <t>Ničelno krilo</t>
+  </si>
+  <si>
+    <t>Zodiac Sign</t>
+  </si>
+  <si>
+    <t>Zodiakalni znak</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Zombie (Vanilla)</t>
+  </si>
+  <si>
+    <t>Zombie (vanilija)</t>
+  </si>
+  <si>
+    <t>Zootopia</t>
+  </si>
+  <si>
+    <t>Zootopija</t>
+  </si>
+  <si>
     <t>Hypixel (Mutations) Tag</t>
   </si>
   <si>
     <t>Hypixel (mutacije) Oznaka</t>
-  </si>
-  <si>
-    <t>Hypixel (NPC)</t>
-  </si>
-  <si>
-    <t>Hipiksel (NPC)</t>
-  </si>
-  <si>
-    <t>Hypixel (Pets)</t>
-  </si>
-  <si>
-    <t>Hypixel (hišni ljubljenčki)</t>
-  </si>
-  <si>
-    <t>Hypixel (Reforge Stone)</t>
-  </si>
-  <si>
-    <t>Hipiksel (kamen za preoblikovanje)</t>
-  </si>
-  <si>
-    <t>Hypixel (Sacks)</t>
-  </si>
-  <si>
-    <t>Hypixel (vrečke)</t>
-  </si>
-  <si>
-    <t>Hypixel (Skins)</t>
-  </si>
-  <si>
-    <t>Hypixel (kože)</t>
-  </si>
-  <si>
-    <t>Hypixel (Talismans)</t>
-  </si>
-  <si>
-    <t>Hypixel (talismani)</t>
-  </si>
-  <si>
-    <t>Hypixel (Trophy Fish)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Land of the Lustrous)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Dežela poželenja)</t>
-  </si>
-  <si>
-    <t>Ib</t>
-  </si>
-  <si>
-    <t>Ice Age</t>
-  </si>
-  <si>
-    <t>Ledena doba</t>
-  </si>
-  <si>
-    <t>Ice Climber</t>
-  </si>
-  <si>
-    <t>Ledni plezalec</t>
-  </si>
-  <si>
-    <t>Ice Cream</t>
-  </si>
-  <si>
-    <t>Sladoled</t>
-  </si>
-  <si>
-    <t>Icons (GUI)</t>
-  </si>
-  <si>
-    <t>Ikone (grafični uporabniški vmesnik)</t>
-  </si>
-  <si>
-    <t>Icons (Ironblock)</t>
-  </si>
-  <si>
-    <t>Ikone (Ironblock)</t>
-  </si>
-  <si>
-    <t>Icons (Other)</t>
-  </si>
-  <si>
-    <t>Ikone (drugo)</t>
-  </si>
-  <si>
-    <t>Icons (white background)</t>
-  </si>
-  <si>
-    <t>Ikone (belo ozadje)</t>
-  </si>
-  <si>
-    <t>Identity V</t>
-  </si>
-  <si>
-    <t>Identiteta V</t>
-  </si>
-  <si>
-    <t>Illager</t>
-  </si>
-  <si>
-    <t>Inazuma Eleven</t>
-  </si>
-  <si>
-    <t>Incredibles</t>
-  </si>
-  <si>
-    <t>Neverjetni</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>Indigo Park</t>
-  </si>
-  <si>
-    <t>Park Indigo</t>
-  </si>
-  <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>Poškodbe</t>
-  </si>
-  <si>
-    <t>Inner Layer Block</t>
-  </si>
-  <si>
-    <t>Blok notranje plasti</t>
-  </si>
-  <si>
-    <t>Inscryption</t>
-  </si>
-  <si>
-    <t>Šifriranje</t>
-  </si>
-  <si>
-    <t>Insect</t>
-  </si>
-  <si>
-    <t>Žuželke</t>
-  </si>
-  <si>
-    <t>Inside Out</t>
-  </si>
-  <si>
-    <t>Od znotraj navzven</t>
-  </si>
-  <si>
-    <t>Inu Yasha</t>
-  </si>
-  <si>
-    <t>Invader Zim</t>
-  </si>
-  <si>
-    <t>Napadalec Zim</t>
-  </si>
-  <si>
-    <t>Invincible</t>
-  </si>
-  <si>
-    <t>Nepremagljiv</t>
-  </si>
-  <si>
-    <t>Iron Man</t>
-  </si>
-  <si>
-    <t>It</t>
-  </si>
-  <si>
-    <t>Na spletni strani .</t>
-  </si>
-  <si>
-    <t>Jak and Daxter</t>
-  </si>
-  <si>
-    <t>Jak in Daxter</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Japonska</t>
-  </si>
-  <si>
-    <t>Jar</t>
-  </si>
-  <si>
-    <t>Jewelry</t>
-  </si>
-  <si>
-    <t>Nakit</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure (Stand)</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure (stojalo)</t>
-  </si>
-  <si>
-    <t>Journey</t>
-  </si>
-  <si>
-    <t>Potovanje</t>
-  </si>
-  <si>
-    <t>Jujutsu Kaisen</t>
-  </si>
-  <si>
-    <t>Jump King</t>
-  </si>
-  <si>
-    <t>Kralj skoka</t>
-  </si>
-  <si>
-    <t>Jurassic Park</t>
-  </si>
-  <si>
-    <t>Jurski park</t>
-  </si>
-  <si>
-    <t>Justice League</t>
-  </si>
-  <si>
-    <t>Liga pravičnosti</t>
-  </si>
-  <si>
-    <t>Kaiju Paradise</t>
-  </si>
-  <si>
-    <t>Kakegurui</t>
-  </si>
-  <si>
-    <t>Karate Kid</t>
-  </si>
-  <si>
-    <t>Katamari Damacy</t>
-  </si>
-  <si>
-    <t>Kid Icarus</t>
-  </si>
-  <si>
-    <t>Kiki's Delivery Service</t>
-  </si>
-  <si>
-    <t>Kikijeva dostavna služba</t>
-  </si>
-  <si>
-    <t>Kill la Kill</t>
-  </si>
-  <si>
-    <t>Ubij la ubij</t>
-  </si>
-  <si>
-    <t>Killzone</t>
-  </si>
-  <si>
-    <t>Kim Possible</t>
-  </si>
-  <si>
-    <t>Kimetsu no Yaiba</t>
-  </si>
-  <si>
-    <t>Kingdom Hearts</t>
-  </si>
-  <si>
-    <t>Kraljestvo srca</t>
-  </si>
-  <si>
-    <t>Kirby</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
-    <t>Kuhinja</t>
-  </si>
-  <si>
-    <t>KonoSuba</t>
-  </si>
-  <si>
-    <t>Koopalings</t>
-  </si>
-  <si>
-    <t>Koopalingi</t>
-  </si>
-  <si>
-    <t>Kung Fu Panda</t>
-  </si>
-  <si>
-    <t>Kuroko no Basuke</t>
-  </si>
-  <si>
-    <t>Lamp Shade</t>
-  </si>
-  <si>
-    <t>Senčilo svetilke</t>
-  </si>
-  <si>
-    <t>Landscape</t>
-  </si>
-  <si>
-    <t>Pokrajina</t>
-  </si>
-  <si>
-    <t>Lantern</t>
-  </si>
-  <si>
-    <t>Svetilka</t>
-  </si>
-  <si>
-    <t>Laputa: Castle in the Sky</t>
-  </si>
-  <si>
-    <t>Laputa: Grad na nebu</t>
-  </si>
-  <si>
-    <t>LazyTown</t>
-  </si>
-  <si>
-    <t>League of Legends</t>
-  </si>
-  <si>
-    <t>Left 4 Dead</t>
-  </si>
-  <si>
-    <t>Legendary Pokemon</t>
-  </si>
-  <si>
-    <t>Legendarni Pokemoni</t>
-  </si>
-  <si>
-    <t>Lego</t>
-  </si>
-  <si>
-    <t>Lethal League</t>
-  </si>
-  <si>
-    <t>Smrtonosna liga</t>
-  </si>
-  <si>
-    <t>Library of Ruina</t>
-  </si>
-  <si>
-    <t>Knjižnica Ruina</t>
-  </si>
-  <si>
-    <t>Life is Strange</t>
-  </si>
-  <si>
-    <t>Življenje je čudno</t>
-  </si>
-  <si>
-    <t>Lilo &amp; Stitch</t>
-  </si>
-  <si>
-    <t>Limbus Company</t>
-  </si>
-  <si>
-    <t>Podjetje Limbus</t>
-  </si>
-  <si>
-    <t>Lion King</t>
-  </si>
-  <si>
-    <t>Levji kralj</t>
-  </si>
-  <si>
-    <t>Little Big Planet</t>
-  </si>
-  <si>
-    <t>Mali veliki planet</t>
-  </si>
-  <si>
-    <t>Little Mermaid</t>
-  </si>
-  <si>
-    <t>Mala morska deklica</t>
-  </si>
-  <si>
-    <t>Little Nightmares</t>
-  </si>
-  <si>
-    <t>Male nočne more</t>
-  </si>
-  <si>
-    <t>Little Shop of Horrors</t>
-  </si>
-  <si>
-    <t>Mala trgovina grozljivk</t>
-  </si>
-  <si>
-    <t>Little Witch Academia</t>
-  </si>
-  <si>
-    <t>Mala čarovnica Academia</t>
-  </si>
-  <si>
-    <t>Llama</t>
-  </si>
-  <si>
-    <t>Lama</t>
-  </si>
-  <si>
-    <t>Logo</t>
-  </si>
-  <si>
-    <t>Logotip</t>
-  </si>
-  <si>
-    <t>Looney Tunes</t>
-  </si>
-  <si>
-    <t>Lord of the Rings</t>
-  </si>
-  <si>
-    <t>Gospodar prstanov</t>
-  </si>
-  <si>
-    <t>Love Live!</t>
-  </si>
-  <si>
-    <t>Ljubezen v živo!</t>
-  </si>
-  <si>
-    <t>Lovestruck Creature</t>
-  </si>
-  <si>
-    <t>Zaljubljeno bitje</t>
-  </si>
-  <si>
-    <t>Lovestruck Person</t>
-  </si>
-  <si>
-    <t>Lovestruck oseba</t>
-  </si>
-  <si>
-    <t>Lucky Luke</t>
-  </si>
-  <si>
-    <t>Srečni Luke</t>
-  </si>
-  <si>
-    <t>Machine Part</t>
-  </si>
-  <si>
-    <t>Del stroja</t>
-  </si>
-  <si>
-    <t>Mad Father</t>
-  </si>
-  <si>
-    <t>Pobesneli oče</t>
-  </si>
-  <si>
-    <t>Mad Max</t>
-  </si>
-  <si>
-    <t>Pobesneli Max</t>
-  </si>
-  <si>
-    <t>Made in Abyss</t>
-  </si>
-  <si>
-    <t>Izdelano v breznu</t>
-  </si>
-  <si>
-    <t>Madness Combat</t>
-  </si>
-  <si>
-    <t>Boj proti norosti</t>
-  </si>
-  <si>
-    <t>Madoka Magica</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>Ličenje</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Moški</t>
-  </si>
-  <si>
-    <t>Mao Mao Heroes of Pure Heart</t>
-  </si>
-  <si>
-    <t>Mao Mao Heroji čistega srca</t>
-  </si>
-  <si>
-    <t>MapleStory</t>
-  </si>
-  <si>
-    <t>Marvel</t>
-  </si>
-  <si>
-    <t>Mary and the Witch's Flower</t>
-  </si>
-  <si>
-    <t>Marija in čarovničin cvet</t>
-  </si>
-  <si>
-    <t>Mascot</t>
-  </si>
-  <si>
-    <t>Maskota</t>
-  </si>
-  <si>
-    <t>Mask</t>
-  </si>
-  <si>
-    <t>Maska</t>
-  </si>
-  <si>
-    <t>Mask (full)</t>
-  </si>
-  <si>
-    <t>Maska (polna)</t>
-  </si>
-  <si>
-    <t>Mask (functional)</t>
-  </si>
-  <si>
-    <t>Maska (funkcionalna)</t>
-  </si>
-  <si>
-    <t>Mask (health)</t>
-  </si>
-  <si>
-    <t>Maska (zdravje)</t>
-  </si>
-  <si>
-    <t>Mask (Minecraft mob)</t>
-  </si>
-  <si>
-    <t>Maska (mob Minecraft)</t>
-  </si>
-  <si>
-    <t>Mass Effect</t>
-  </si>
-  <si>
-    <t>Učinek Mass Effect</t>
-  </si>
-  <si>
-    <t>Masters of the Universe</t>
-  </si>
-  <si>
-    <t>Mojstri vesolja</t>
-  </si>
-  <si>
-    <t>Mathematical Symbol</t>
-  </si>
-  <si>
-    <t>Matematični simbol</t>
-  </si>
-  <si>
-    <t>Mc Donalds</t>
-  </si>
-  <si>
-    <t>Meal</t>
-  </si>
-  <si>
-    <t>Prehrana</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>Meso</t>
-  </si>
-  <si>
-    <t>Medieval</t>
-  </si>
-  <si>
-    <t>Srednjeveški</t>
-  </si>
-  <si>
-    <t>Medieval Tavern</t>
-  </si>
-  <si>
-    <t>Srednjeveška taverna</t>
-  </si>
-  <si>
-    <t>Medieval Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Srednjeveška vojaška čelada</t>
-  </si>
-  <si>
-    <t>MediEvil</t>
-  </si>
-  <si>
-    <t>Mega Evolution</t>
-  </si>
-  <si>
-    <t>Mega evolucija</t>
-  </si>
-  <si>
-    <t>Megaman</t>
-  </si>
-  <si>
-    <t>Megami Tensei</t>
-  </si>
-  <si>
-    <t>Mekakucity Actors</t>
-  </si>
-  <si>
-    <t>Mekakucity Igralci</t>
-  </si>
-  <si>
-    <t>Meme</t>
-  </si>
-  <si>
-    <t>Meme (Doge)</t>
-  </si>
-  <si>
-    <t>Meme (Pepe)</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>Kovina</t>
-  </si>
-  <si>
-    <t>Metal Gear</t>
-  </si>
-  <si>
-    <t>Kovinska prestava</t>
-  </si>
-  <si>
-    <t>Metro</t>
-  </si>
-  <si>
-    <t>Metroid</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Mehika</t>
-  </si>
-  <si>
-    <t>Mickey Mouse</t>
-  </si>
-  <si>
-    <t>Miki Miška</t>
-  </si>
-  <si>
-    <t>Military Equipment</t>
-  </si>
-  <si>
-    <t>Vojaška oprema</t>
-  </si>
-  <si>
-    <t>Minecraft April Fools</t>
-  </si>
-  <si>
-    <t>Minecraft Bedrock Edition</t>
-  </si>
-  <si>
-    <t>Minecraft Dungeons</t>
-  </si>
-  <si>
-    <t>Loche Minecrafta</t>
-  </si>
-  <si>
-    <t>Minecraft Earth</t>
-  </si>
-  <si>
-    <t>Minecraft Zemlja</t>
-  </si>
-  <si>
-    <t>Minecraft Education Edition</t>
-  </si>
-  <si>
-    <t>Minecraft Legends</t>
-  </si>
-  <si>
-    <t>Legende Minecraft</t>
-  </si>
-  <si>
-    <t>Minecraft Live</t>
-  </si>
-  <si>
-    <t>Minecraft v živo</t>
-  </si>
-  <si>
-    <t>Minecraft Movie</t>
-  </si>
-  <si>
-    <t>Film o Minecraftu</t>
-  </si>
-  <si>
-    <t>Minecraft Story Mode</t>
-  </si>
-  <si>
-    <t>Način zgodbe Minecraft</t>
-  </si>
-  <si>
-    <t>Miner</t>
-  </si>
-  <si>
-    <t>Minesweeper</t>
-  </si>
-  <si>
-    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
-  </si>
-  <si>
-    <t>Čudežno: Noir: Zgodbe o berglah in mačkah Noir</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Future Diary)</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Dnevnik prihodnosti)</t>
-  </si>
-  <si>
-    <t>Mirror's Edge</t>
-  </si>
-  <si>
-    <t>Miss Kobayashi's Dragon Maid</t>
-  </si>
-  <si>
-    <t>Mizuno's Resource Pack</t>
-  </si>
-  <si>
-    <t>Mizunov paket virov</t>
-  </si>
-  <si>
-    <t>Moana</t>
-  </si>
-  <si>
-    <t>Modern Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Čelada Modern Warfare</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>Denar</t>
-  </si>
-  <si>
-    <t>Money Heist</t>
-  </si>
-  <si>
-    <t>Denarni rop</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>Monkey Island</t>
-  </si>
-  <si>
-    <t>Opičji otok</t>
-  </si>
-  <si>
-    <t>Monocle</t>
-  </si>
-  <si>
-    <t>Monokel</t>
-  </si>
-  <si>
-    <t>Monster High</t>
-  </si>
-  <si>
-    <t>Monster Hunter</t>
-  </si>
-  <si>
-    <t>Lovec na pošasti</t>
-  </si>
-  <si>
-    <t>Monsters Inc</t>
-  </si>
-  <si>
-    <t>Pošasti Inc</t>
-  </si>
-  <si>
-    <t>Moomin</t>
-  </si>
-  <si>
-    <t>Mumin</t>
-  </si>
-  <si>
-    <t>Mortal Kombat</t>
-  </si>
-  <si>
-    <t>Mounts of Mayhem</t>
-  </si>
-  <si>
-    <t>Mouthwashing</t>
-  </si>
-  <si>
-    <t>Izpiranje ustne votline</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>Gospod Bean</t>
-  </si>
-  <si>
-    <t>Mulan</t>
-  </si>
-  <si>
-    <t>Mundo Gaturro</t>
-  </si>
-  <si>
-    <t>Muppets</t>
-  </si>
-  <si>
-    <t>Muppetki</t>
-  </si>
-  <si>
-    <t>Murder Drones</t>
-  </si>
-  <si>
-    <t>Morilski droni</t>
-  </si>
-  <si>
-    <t>Mushroom</t>
-  </si>
-  <si>
-    <t>Gobe</t>
-  </si>
-  <si>
-    <t>Mushroom (Biome)</t>
-  </si>
-  <si>
-    <t>Gobe (biom)</t>
-  </si>
-  <si>
-    <t>Mushroom (Headwear)</t>
-  </si>
-  <si>
-    <t>Goba (naglavna oblačila)</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Glasba</t>
-  </si>
-  <si>
-    <t>Mustache</t>
-  </si>
-  <si>
-    <t>Uši</t>
-  </si>
-  <si>
-    <t>My Deer Friend Nokotan</t>
-  </si>
-  <si>
-    <t>Moj prijatelj jelen Nokotan</t>
-  </si>
-  <si>
-    <t>My Hero Academia</t>
-  </si>
-  <si>
-    <t>Moj junak Academia</t>
-  </si>
-  <si>
-    <t>My Little Pony</t>
-  </si>
-  <si>
-    <t>Moj mali poni</t>
-  </si>
-  <si>
-    <t>My Neighbor Totoro</t>
-  </si>
-  <si>
-    <t>Moj sosed Totoro</t>
-  </si>
-  <si>
-    <t>My Singing Monsters</t>
-  </si>
-  <si>
-    <t>Moje pojoče pošasti</t>
-  </si>
-  <si>
-    <t>Naruto</t>
-  </si>
-  <si>
-    <t>Nausicaä of the Valley of the Wind</t>
-  </si>
-  <si>
-    <t>Nausicaä iz doline vetra</t>
-  </si>
-  <si>
-    <t>Nekopara</t>
-  </si>
-  <si>
-    <t>Neon Genesis Evangelion</t>
-  </si>
-  <si>
-    <t>Nether (inspired)</t>
-  </si>
-  <si>
-    <t>Nether (po navdihu)</t>
-  </si>
-  <si>
-    <t>Nether (vanilla)</t>
-  </si>
-  <si>
-    <t>Nether (vanilija)</t>
-  </si>
-  <si>
-    <t>Neutral Creature</t>
-  </si>
-  <si>
-    <t>Nevtralno bitje</t>
-  </si>
-  <si>
-    <t>Neutral Person</t>
-  </si>
-  <si>
-    <t>Nevtralna oseba</t>
-  </si>
-  <si>
-    <t>New Year's Eve</t>
-  </si>
-  <si>
-    <t>Silvestrovanje</t>
-  </si>
-  <si>
-    <t>NieR: Automata</t>
-  </si>
-  <si>
-    <t>Night in the Woods</t>
-  </si>
-  <si>
-    <t>Noč v gozdu</t>
-  </si>
-  <si>
-    <t>Nightmare Before Christmas</t>
-  </si>
-  <si>
-    <t>Nočna mora pred božičem</t>
-  </si>
-  <si>
-    <t>Ninja Turtles</t>
-  </si>
-  <si>
-    <t>Ninja želve</t>
-  </si>
-  <si>
-    <t>No Game No Life</t>
-  </si>
-  <si>
-    <t>Brez igre ni življenja</t>
-  </si>
-  <si>
-    <t>No Man's Sky</t>
-  </si>
-  <si>
-    <t>Igra No Man's Sky</t>
-  </si>
-  <si>
-    <t>Noel's House Party</t>
-  </si>
-  <si>
-    <t>Noelova hišna zabava</t>
-  </si>
-  <si>
-    <t>Norse Mythology</t>
-  </si>
-  <si>
-    <t>Nordijska mitologija</t>
-  </si>
-  <si>
-    <t>NPC (Education Edition)</t>
-  </si>
-  <si>
-    <t>NPC (izobraževalna izdaja)</t>
-  </si>
-  <si>
-    <t>Nuclear Fallout</t>
-  </si>
-  <si>
-    <t>Jedrski padec</t>
-  </si>
-  <si>
-    <t>Nuclear Throne</t>
-  </si>
-  <si>
-    <t>Jedrski prestol</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Številka</t>
-  </si>
-  <si>
-    <t>Nut</t>
-  </si>
-  <si>
-    <t>Oreh</t>
-  </si>
-  <si>
-    <t>Ocean</t>
-  </si>
-  <si>
-    <t>Octodad</t>
-  </si>
-  <si>
-    <t>Oddworld</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>Officer Cap</t>
-  </si>
-  <si>
-    <t>Čepica častnika</t>
-  </si>
-  <si>
-    <t>Oggy and the Cockroaches</t>
-  </si>
-  <si>
-    <t>Oggy in ščurki</t>
-  </si>
-  <si>
-    <t>Okegom</t>
-  </si>
-  <si>
-    <t>Old</t>
-  </si>
-  <si>
-    <t>Stari</t>
-  </si>
-  <si>
-    <t>Oliver &amp; Co</t>
-  </si>
-  <si>
-    <t>Omori</t>
-  </si>
-  <si>
-    <t>One Piece</t>
-  </si>
-  <si>
-    <t>En kos</t>
-  </si>
-  <si>
-    <t>One Punch Man</t>
-  </si>
-  <si>
-    <t>OneShot</t>
-  </si>
-  <si>
-    <t>Ongezellig</t>
-  </si>
-  <si>
-    <t>Onii-chan wa Oshimai</t>
-  </si>
-  <si>
-    <t>Open Source Objects</t>
-  </si>
-  <si>
-    <t>Odprtokodni predmeti</t>
-  </si>
-  <si>
-    <t>Orb</t>
-  </si>
-  <si>
-    <t>Orc</t>
-  </si>
-  <si>
-    <t>Ork</t>
-  </si>
-  <si>
-    <t>Ore</t>
-  </si>
-  <si>
-    <t>Rudnina</t>
-  </si>
-  <si>
-    <t>Organs and Bodyparts</t>
-  </si>
-  <si>
-    <t>Organi in deli telesa</t>
-  </si>
-  <si>
-    <t>Other Headgear</t>
-  </si>
-  <si>
-    <t>Druga pokrivala</t>
-  </si>
-  <si>
-    <t>Other Illumination</t>
-  </si>
-  <si>
-    <t>Druga osvetlitev</t>
-  </si>
-  <si>
-    <t>Other Mystic Creature</t>
-  </si>
-  <si>
-    <t>Druga mistična bitja</t>
-  </si>
-  <si>
-    <t>Outer Layer Block</t>
-  </si>
-  <si>
-    <t>Blok zunanjega sloja</t>
-  </si>
-  <si>
-    <t>Overlord</t>
-  </si>
-  <si>
-    <t>Overwatch</t>
-  </si>
-  <si>
-    <t>Pac-Man</t>
-  </si>
-  <si>
-    <t>Pacific Rim</t>
-  </si>
-  <si>
-    <t>Pacifiški obroč</t>
-  </si>
-  <si>
-    <t>Pacifier</t>
-  </si>
-  <si>
-    <t>Dojenček</t>
-  </si>
-  <si>
-    <t>Painted Face</t>
-  </si>
-  <si>
-    <t>Poslikan obraz</t>
-  </si>
-  <si>
-    <t>Pale Garden (inspired)</t>
-  </si>
-  <si>
-    <t>Bledi vrt (po navdihu)</t>
-  </si>
-  <si>
-    <t>Panda Bear</t>
-  </si>
-  <si>
-    <t>Medvedek panda</t>
-  </si>
-  <si>
-    <t>Pans Labyrinth</t>
-  </si>
-  <si>
-    <t>Panov labirint</t>
-  </si>
-  <si>
-    <t>Papers Please</t>
-  </si>
-  <si>
-    <t>Papirji, prosim</t>
-  </si>
-  <si>
-    <t>PaRappa the Rapper</t>
-  </si>
-  <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>Stranka</t>
-  </si>
-  <si>
-    <t>Pastries and Sweets</t>
-  </si>
-  <si>
-    <t>Pecivo in sladkarije</t>
-  </si>
-  <si>
-    <t>Paw Patrol</t>
-  </si>
-  <si>
-    <t>Payday</t>
-  </si>
-  <si>
-    <t>Izplačilo</t>
-  </si>
-  <si>
-    <t>Peanuts (Snoopy)</t>
-  </si>
-  <si>
-    <t>Arašidi (Snoopy)</t>
-  </si>
-  <si>
-    <t>Penguin</t>
-  </si>
-  <si>
-    <t>Pingvin</t>
-  </si>
-  <si>
-    <t>Peppa Pig</t>
-  </si>
-  <si>
-    <t>Periodic Table of Elements</t>
-  </si>
-  <si>
-    <t>Periodni sistem elementov</t>
-  </si>
-  <si>
-    <t>Persona</t>
-  </si>
-  <si>
-    <t>Pet Equipment</t>
-  </si>
-  <si>
-    <t>Oprema za hišne ljubljenčke</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
-    <t>Phantom</t>
-  </si>
-  <si>
-    <t>Fantom</t>
-  </si>
-  <si>
-    <t>Phineas &amp; Ferb</t>
-  </si>
-  <si>
-    <t>Pig</t>
-  </si>
-  <si>
-    <t>Prašič</t>
-  </si>
-  <si>
-    <t>Piglin</t>
-  </si>
-  <si>
-    <t>Pigman</t>
-  </si>
-  <si>
-    <t>Pikmin</t>
-  </si>
-  <si>
-    <t>Pingu</t>
-  </si>
-  <si>
-    <t>Pink Panther</t>
-  </si>
-  <si>
-    <t>Roza panter</t>
-  </si>
-  <si>
-    <t>Pinky and the Brain</t>
-  </si>
-  <si>
-    <t>Pinky in možgani</t>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-  </si>
-  <si>
-    <t>Pirates of the Caribbean</t>
-  </si>
-  <si>
-    <t>Pirati s Karibov</t>
-  </si>
-  <si>
-    <t>Pizza Tower</t>
-  </si>
-  <si>
-    <t>Stolp za pico</t>
-  </si>
-  <si>
-    <t>Planet</t>
-  </si>
-  <si>
-    <t>Plants vs. Zombies</t>
-  </si>
-  <si>
-    <t>Rastline proti zombijem</t>
-  </si>
-  <si>
-    <t>Playerunknown's Battlegrounds</t>
-  </si>
-  <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t>Pokeball</t>
-  </si>
-  <si>
-    <t>Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 1</t>
-  </si>
-  <si>
-    <t>Pokemon generacija 1</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 2</t>
-  </si>
-  <si>
-    <t>Pokemon generacija 2</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 3</t>
-  </si>
-  <si>
-    <t>Pokemon generacija 3</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 4</t>
-  </si>
-  <si>
-    <t>Pokemon generacija 4</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 5</t>
-  </si>
-  <si>
-    <t>Pokemon generacija 5</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 6</t>
-  </si>
-  <si>
-    <t>Pokemon generacija 6</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 7</t>
-  </si>
-  <si>
-    <t>Pokemon generacija 7</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 8</t>
-  </si>
-  <si>
-    <t>Pokemon generacija 8</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 9</t>
-  </si>
-  <si>
-    <t>Pokemon generacija 9</t>
-  </si>
-  <si>
-    <t>Pokemon Items</t>
-  </si>
-  <si>
-    <t>Predmeti Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon Trainer</t>
-  </si>
-  <si>
-    <t>Trener Pokemonov</t>
-  </si>
-  <si>
-    <t>Polar Bear</t>
-  </si>
-  <si>
-    <t>Polarni medved</t>
-  </si>
-  <si>
-    <t>Police</t>
-  </si>
-  <si>
-    <t>Policija</t>
-  </si>
-  <si>
-    <t>Pom Poko</t>
-  </si>
-  <si>
-    <t>Ponyo</t>
-  </si>
-  <si>
-    <t>Pop Team Epic</t>
-  </si>
-  <si>
-    <t>POPGOES</t>
-  </si>
-  <si>
-    <t>Poppy Playtime</t>
-  </si>
-  <si>
-    <t>Porco Rosso</t>
-  </si>
-  <si>
-    <t>Portal</t>
-  </si>
-  <si>
-    <t>Postman Pat</t>
-  </si>
-  <si>
-    <t>Poštar Pat</t>
-  </si>
-  <si>
-    <t>Power Rangers</t>
-  </si>
-  <si>
-    <t>Powerpuff Girls</t>
-  </si>
-  <si>
-    <t>Predator</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>Prisotnost</t>
-  </si>
-  <si>
-    <t>Pride</t>
-  </si>
-  <si>
-    <t>Primate</t>
-  </si>
-  <si>
-    <t>Primati</t>
-  </si>
-  <si>
-    <t>Princess Mononoke</t>
-  </si>
-  <si>
-    <t>Princesa Mononoke</t>
-  </si>
-  <si>
-    <t>Prof Layton</t>
-  </si>
-  <si>
-    <t>Profesor Layton</t>
-  </si>
-  <si>
-    <t>Pumpkin</t>
-  </si>
-  <si>
-    <t>Buče</t>
-  </si>
-  <si>
-    <t>Pumpkin (Lit)</t>
-  </si>
-  <si>
-    <t>Buče (Lit)</t>
-  </si>
-  <si>
-    <t>Punctuation Mark</t>
-  </si>
-  <si>
-    <t>Znak za ločila</t>
-  </si>
-  <si>
-    <t>Quake</t>
-  </si>
-  <si>
-    <t>R.E.P.O.</t>
-  </si>
-  <si>
-    <t>Rabbit</t>
-  </si>
-  <si>
-    <t>Zajec</t>
-  </si>
-  <si>
-    <t>Railway</t>
-  </si>
-  <si>
-    <t>Železnica</t>
-  </si>
-  <si>
-    <t>Rain World</t>
-  </si>
-  <si>
-    <t>Deževni svet</t>
-  </si>
-  <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
-    <t>Ratchet &amp; Clank</t>
-  </si>
-  <si>
-    <t>Re:Creators</t>
-  </si>
-  <si>
-    <t>Re:Ustvarjalci</t>
-  </si>
-  <si>
-    <t>Re:Zero</t>
-  </si>
-  <si>
-    <t>Realm of the Mad God</t>
-  </si>
-  <si>
-    <t>Kraljestvo norega boga</t>
-  </si>
-  <si>
-    <t>Red Dead Redemption</t>
-  </si>
-  <si>
-    <t>Red Riding Hood</t>
-  </si>
-  <si>
-    <t>Rdeča kapica</t>
-  </si>
-  <si>
-    <t>Redstone</t>
-  </si>
-  <si>
-    <t>Regional Form Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemoni regionalne oblike</t>
-  </si>
-  <si>
-    <t>Regretavator</t>
-  </si>
-  <si>
-    <t>Regular Show</t>
-  </si>
-  <si>
-    <t>Redna oddaja</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>Religija</t>
-  </si>
-  <si>
-    <t>Reptile</t>
-  </si>
-  <si>
-    <t>plazilci</t>
-  </si>
-  <si>
-    <t>Rescue Rangers</t>
-  </si>
-  <si>
-    <t>Reševalci reševalci</t>
-  </si>
-  <si>
-    <t>Resident Evil</t>
-  </si>
-  <si>
-    <t>Rhythm Heaven</t>
-  </si>
-  <si>
-    <t>Ritemska nebesa</t>
-  </si>
-  <si>
-    <t>Ribbon</t>
-  </si>
-  <si>
-    <t>Trakovi</t>
-  </si>
-  <si>
-    <t>Rick and Morty</t>
-  </si>
-  <si>
-    <t>Rick in Morty</t>
-  </si>
-  <si>
-    <t>Risk of Rain</t>
-  </si>
-  <si>
-    <t>Nevarnost dežja</t>
-  </si>
-  <si>
-    <t>Rival of Aether</t>
-  </si>
-  <si>
-    <t>Tekmec etra</t>
-  </si>
-  <si>
-    <t>River</t>
-  </si>
-  <si>
-    <t>Reka</t>
-  </si>
-  <si>
-    <t>Riverdale</t>
-  </si>
-  <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>Roblox</t>
-  </si>
-  <si>
-    <t>RoboCop</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>Rocky</t>
-  </si>
-  <si>
-    <t>Rocky Horror Picture Show</t>
-  </si>
-  <si>
-    <t>Rodent</t>
-  </si>
-  <si>
-    <t>Glodavci</t>
-  </si>
-  <si>
-    <t>Rotated Entity</t>
-  </si>
-  <si>
-    <t>Obrnjen subjekt</t>
-  </si>
-  <si>
-    <t>Royal Headgear</t>
-  </si>
-  <si>
-    <t>Kraljeva pokrivala</t>
-  </si>
-  <si>
-    <t>Rune</t>
-  </si>
-  <si>
-    <t>Runescape</t>
-  </si>
-  <si>
-    <t>RWBY</t>
-  </si>
-  <si>
-    <t>Sackboy: A Big Adventure</t>
-  </si>
-  <si>
-    <t>Sackboy: Sboyboy: Velika pustolovščina</t>
-  </si>
-  <si>
-    <t>Sad Creature</t>
-  </si>
-  <si>
-    <t>Žalostno bitje</t>
-  </si>
-  <si>
-    <t>Sad Person</t>
-  </si>
-  <si>
-    <t>Žalostna oseba</t>
-  </si>
-  <si>
-    <t>Safari (Other)</t>
-  </si>
-  <si>
-    <t>Safari (drugo)</t>
-  </si>
-  <si>
-    <t>Saga of Tanya the Evil</t>
-  </si>
-  <si>
-    <t>Saga o Tanyi Zlobni</t>
-  </si>
-  <si>
-    <t>Sailor Moon</t>
-  </si>
-  <si>
-    <t>Sakurasou no Pet na Kanojo</t>
-  </si>
-  <si>
-    <t>Samurai Helmet</t>
-  </si>
-  <si>
-    <t>Samurajska čelada</t>
-  </si>
-  <si>
-    <t>Satisfactory</t>
-  </si>
-  <si>
-    <t>Zadovoljivo</t>
-  </si>
-  <si>
-    <t>Saw</t>
-  </si>
-  <si>
-    <t>Žaga</t>
-  </si>
-  <si>
-    <t>Scarf</t>
-  </si>
-  <si>
-    <t>Šali</t>
-  </si>
-  <si>
-    <t>Scooby-Doo</t>
-  </si>
-  <si>
-    <t>SCP Containment Breach</t>
-  </si>
-  <si>
-    <t>Kršitev zadrževalnika SCP</t>
-  </si>
-  <si>
-    <t>Scream</t>
-  </si>
-  <si>
-    <t>Krik</t>
-  </si>
-  <si>
-    <t>Scribblenauts</t>
-  </si>
-  <si>
-    <t>Sea of Thieves</t>
-  </si>
-  <si>
-    <t>Morje tatov</t>
-  </si>
-  <si>
-    <t>Seafarer</t>
-  </si>
-  <si>
-    <t>Seraph of the End</t>
-  </si>
-  <si>
-    <t>Seraf konca</t>
-  </si>
-  <si>
-    <t>Serial Experiments Lain</t>
-  </si>
-  <si>
-    <t>Serijski poskusi Lain</t>
-  </si>
-  <si>
-    <t>Sesame Street</t>
-  </si>
-  <si>
-    <t>Sezamova ulica</t>
-  </si>
-  <si>
-    <t>Seven Deadly Sins</t>
-  </si>
-  <si>
-    <t>Sedem smrtnih grehov</t>
-  </si>
-  <si>
-    <t>Shadow of the Colossus</t>
-  </si>
-  <si>
-    <t>Senca kolosa</t>
-  </si>
-  <si>
-    <t>Shadows of Mordor</t>
-  </si>
-  <si>
-    <t>Sence Mordorja</t>
-  </si>
-  <si>
-    <t>Sheep</t>
-  </si>
-  <si>
-    <t>Ovce</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>Shigatsu wa Kimi no Uso</t>
-  </si>
-  <si>
-    <t>Shimoneta</t>
-  </si>
-  <si>
-    <t>Shiny Pokemon</t>
-  </si>
-  <si>
-    <t>Sijajni Pokemoni</t>
-  </si>
-  <si>
-    <t>Shipping</t>
-  </si>
-  <si>
-    <t>Dostava</t>
-  </si>
-  <si>
-    <t>Shovel Knight</t>
-  </si>
-  <si>
-    <t>Shrek</t>
-  </si>
-  <si>
-    <t>Shulker</t>
-  </si>
-  <si>
-    <t>Silent Hill</t>
-  </si>
-  <si>
-    <t>SilvaGunner</t>
-  </si>
-  <si>
-    <t>Simpsons</t>
-  </si>
-  <si>
-    <t>Simpsonovi</t>
-  </si>
-  <si>
-    <t>Skeleton</t>
-  </si>
-  <si>
-    <t>Skelet</t>
-  </si>
-  <si>
-    <t>Skeleton (Vanilla)</t>
-  </si>
-  <si>
-    <t>Skelet (vanilija)</t>
-  </si>
-  <si>
-    <t>Skeptical Creature</t>
-  </si>
-  <si>
-    <t>Skeptično bitje</t>
-  </si>
-  <si>
-    <t>Skeptical Person</t>
-  </si>
-  <si>
-    <t>Skeptična oseba</t>
-  </si>
-  <si>
-    <t>Skullgirls</t>
-  </si>
-  <si>
-    <t>Skyrim</t>
-  </si>
-  <si>
-    <t>Sleeping Beauty</t>
-  </si>
-  <si>
-    <t>Speča lepotica</t>
-  </si>
-  <si>
-    <t>Sleeping Creature</t>
-  </si>
-  <si>
-    <t>Spalno bitje</t>
-  </si>
-  <si>
-    <t>Sleeping Person</t>
-  </si>
-  <si>
-    <t>Spalna oseba</t>
-  </si>
-  <si>
-    <t>Sliced</t>
-  </si>
-  <si>
-    <t>Narezano na rezine</t>
-  </si>
-  <si>
-    <t>Slime</t>
-  </si>
-  <si>
-    <t>Slime (Vanilla)</t>
-  </si>
-  <si>
-    <t>Sluz (vanilija)</t>
-  </si>
-  <si>
-    <t>Slime Rancher</t>
-  </si>
-  <si>
-    <t>Rančer z blatom</t>
-  </si>
-  <si>
-    <t>Slimefun</t>
-  </si>
-  <si>
-    <t>Sly Cooper</t>
-  </si>
-  <si>
-    <t>Smite Gods</t>
-  </si>
-  <si>
-    <t>Smite bogove</t>
-  </si>
-  <si>
-    <t>Smoking</t>
-  </si>
-  <si>
-    <t>Kajenje</t>
-  </si>
-  <si>
-    <t>Smurfs</t>
-  </si>
-  <si>
-    <t>Smurfi</t>
-  </si>
-  <si>
-    <t>Snow Fight</t>
-  </si>
-  <si>
-    <t>Boj za sneg</t>
-  </si>
-  <si>
-    <t>Snow Sculpture</t>
-  </si>
-  <si>
-    <t>Snežna skulptura</t>
-  </si>
-  <si>
-    <t>Snow White and the Seven Dwarfs</t>
-  </si>
-  <si>
-    <t>Sneguljčica in sedem pritlikavcev</t>
-  </si>
-  <si>
-    <t>Songs of War</t>
-  </si>
-  <si>
-    <t>Vojne pesmi</t>
-  </si>
-  <si>
-    <t>Sonic the Hedgehog</t>
-  </si>
-  <si>
-    <t>Ježek Sonic</t>
-  </si>
-  <si>
-    <t>Soul Knight</t>
-  </si>
-  <si>
-    <t>Vitez duše</t>
-  </si>
-  <si>
-    <t>South Park</t>
-  </si>
-  <si>
-    <t>Južni park</t>
-  </si>
-  <si>
-    <t>Space Travel</t>
-  </si>
-  <si>
-    <t>Potovanje v vesolje</t>
-  </si>
-  <si>
-    <t>Spawn Egg</t>
-  </si>
-  <si>
-    <t>Jajce za razmnoževanje</t>
-  </si>
-  <si>
-    <t>Spawner</t>
-  </si>
-  <si>
-    <t>Spelunky</t>
-  </si>
-  <si>
-    <t>Spider</t>
-  </si>
-  <si>
-    <t>Spider (Vanilla)</t>
-  </si>
-  <si>
-    <t>Pajek (vanilija)</t>
-  </si>
-  <si>
-    <t>Spiderman</t>
-  </si>
-  <si>
-    <t>Spirited Away</t>
-  </si>
-  <si>
-    <t>Splatoon</t>
-  </si>
-  <si>
-    <t>Spongebob Squarepants</t>
-  </si>
-  <si>
-    <t>Spooky's Jump Scare Mansion</t>
-  </si>
-  <si>
-    <t>Dvorec strahu Spooky's Jump Scare Mansion</t>
-  </si>
-  <si>
-    <t>Spore</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>Šport</t>
-  </si>
-  <si>
-    <t>Spreads</t>
-  </si>
-  <si>
-    <t>Razponi</t>
-  </si>
-  <si>
-    <t>Spring to Life</t>
-  </si>
-  <si>
-    <t>Pomlad za življenje</t>
-  </si>
-  <si>
-    <t>Spy x Family</t>
-  </si>
-  <si>
-    <t>Vohun x družina</t>
-  </si>
-  <si>
-    <t>Spyro</t>
-  </si>
-  <si>
-    <t>Squid Game</t>
-  </si>
-  <si>
-    <t>Igra z lignji</t>
-  </si>
-  <si>
-    <t>St. Patrick's Day</t>
-  </si>
-  <si>
-    <t>Dan svetega Patrika</t>
-  </si>
-  <si>
-    <t>StackUp</t>
-  </si>
-  <si>
-    <t>Star Fox</t>
-  </si>
-  <si>
-    <t>Zvezdna lisica</t>
-  </si>
-  <si>
-    <t>Star Trek</t>
-  </si>
-  <si>
-    <t>Zvezdne steze</t>
-  </si>
-  <si>
-    <t>Star vs the Forces of Evil</t>
-  </si>
-  <si>
-    <t>Zvezdica proti silam zla</t>
-  </si>
-  <si>
-    <t>Star Wars</t>
-  </si>
-  <si>
-    <t>Vojna zvezd</t>
-  </si>
-  <si>
-    <t>Star Wars Helmet</t>
-  </si>
-  <si>
-    <t>Čelada iz Vojne zvezd</t>
-  </si>
-  <si>
-    <t>Star Wars Trooper Helmet</t>
-  </si>
-  <si>
-    <t>Čelada Star Wars Trooper</t>
-  </si>
-  <si>
-    <t>Starbucks</t>
-  </si>
-  <si>
-    <t>StarCraft</t>
-  </si>
-  <si>
-    <t>Stardew Valley</t>
-  </si>
-  <si>
-    <t>Dolina Stardew</t>
-  </si>
-  <si>
-    <t>Starter Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemoni začetniki</t>
-  </si>
-  <si>
-    <t>Stationery</t>
-  </si>
-  <si>
-    <t>Pisarniške potrebščine</t>
-  </si>
-  <si>
-    <t>Steampunk</t>
-  </si>
-  <si>
-    <t>Steins;Gate</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Steven Universe</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Kamen</t>
-  </si>
-  <si>
-    <t>Storage (other)</t>
-  </si>
-  <si>
-    <t>Skladiščenje (drugo)</t>
-  </si>
-  <si>
-    <t>Stranger Things</t>
-  </si>
-  <si>
-    <t>Street Fighter</t>
-  </si>
-  <si>
-    <t>Ulični bojevnik</t>
-  </si>
-  <si>
-    <t>Strider</t>
-  </si>
-  <si>
-    <t>Subnautica</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Poletje</t>
-  </si>
-  <si>
-    <t>Sunglasses</t>
-  </si>
-  <si>
-    <t>Sončna očala</t>
-  </si>
-  <si>
-    <t>Super Mario</t>
-  </si>
-  <si>
-    <t>Supernatural</t>
-  </si>
-  <si>
-    <t>Nadnaravno</t>
-  </si>
-  <si>
-    <t>Surprised Creature</t>
-  </si>
-  <si>
-    <t>Presenečeno bitje</t>
-  </si>
-  <si>
-    <t>Surprised Person</t>
-  </si>
-  <si>
-    <t>Presenečena oseba</t>
-  </si>
-  <si>
-    <t>Sushi</t>
-  </si>
-  <si>
-    <t>Swamp</t>
-  </si>
-  <si>
-    <t>Močvirje</t>
-  </si>
-  <si>
-    <t>Sword Art Online</t>
-  </si>
-  <si>
-    <t>TaleSpin</t>
-  </si>
-  <si>
-    <t>Tangled</t>
-  </si>
-  <si>
-    <t>Zapleteno</t>
-  </si>
-  <si>
-    <t>Tattletail</t>
-  </si>
-  <si>
-    <t>Team Fortress 2</t>
-  </si>
-  <si>
-    <t>Teletubbies</t>
-  </si>
-  <si>
-    <t>Terraria</t>
-  </si>
-  <si>
-    <t>Terraria (Calamity)</t>
-  </si>
-  <si>
-    <t>Tetris</t>
-  </si>
-  <si>
-    <t>Thanksgiving</t>
-  </si>
-  <si>
-    <t>Zahvalni dan</t>
-  </si>
-  <si>
-    <t>That Time I Got Reincarnated as a Slime</t>
-  </si>
-  <si>
-    <t>Takrat, ko sem se reinkarniral kot polž</t>
-  </si>
-  <si>
-    <t>Thaumcraft</t>
-  </si>
-  <si>
-    <t>The Adventures of Tintin</t>
-  </si>
-  <si>
-    <t>Tintinove dogodivščine</t>
-  </si>
-  <si>
-    <t>The Amazing Digital Circus</t>
-  </si>
-  <si>
-    <t>Neverjetni digitalni cirkus</t>
-  </si>
-  <si>
-    <t>The Amazing World of Gumball</t>
-  </si>
-  <si>
-    <t>Neverjetni svet Gumball</t>
-  </si>
-  <si>
-    <t>The Binding of Isaac</t>
-  </si>
-  <si>
-    <t>The Boys</t>
-  </si>
-  <si>
-    <t>Fantje</t>
-  </si>
-  <si>
-    <t>The Cat Returns</t>
-  </si>
-  <si>
-    <t>Mačka se vrne</t>
-  </si>
-  <si>
-    <t>The Conjuring</t>
-  </si>
-  <si>
-    <t>The Copper Age</t>
-  </si>
-  <si>
-    <t>Bakrena doba</t>
-  </si>
-  <si>
-    <t>The Emperor's New Groove</t>
-  </si>
-  <si>
-    <t>Cesarjev novi groove</t>
-  </si>
-  <si>
-    <t>The English Ensemble Stars</t>
-  </si>
-  <si>
-    <t>Zvezde angleškega ansambla</t>
-  </si>
-  <si>
-    <t>The Fairly OddParents</t>
-  </si>
-  <si>
-    <t>Pravljično nenavadni starši (The Fairly OddParents)</t>
-  </si>
-  <si>
-    <t>The Finals</t>
-  </si>
-  <si>
-    <t>Finale</t>
-  </si>
-  <si>
-    <t>The Flash</t>
-  </si>
-  <si>
-    <t>Flash</t>
-  </si>
-  <si>
-    <t>The Flintstones</t>
-  </si>
-  <si>
-    <t>Flintstoneovi</t>
-  </si>
-  <si>
-    <t>The Fly</t>
-  </si>
-  <si>
-    <t>Muha</t>
-  </si>
-  <si>
-    <t>The Garden Awakens</t>
-  </si>
-  <si>
-    <t>Vrt se prebuja</t>
-  </si>
-  <si>
-    <t>The Good Dinosaur</t>
-  </si>
-  <si>
-    <t>Dobri dinozaver</t>
-  </si>
-  <si>
-    <t>The Great Mouse Detective</t>
-  </si>
-  <si>
-    <t>Veliki mišji detektiv</t>
-  </si>
-  <si>
-    <t>The Grim Adventures of Billy &amp; Mandy</t>
-  </si>
-  <si>
-    <t>Mračne dogodivščine Billyja in Mandy</t>
-  </si>
-  <si>
-    <t>The Hunchback of Notre Dame</t>
-  </si>
-  <si>
-    <t>Grbavec iz Notre Dame</t>
-  </si>
-  <si>
-    <t>The Iron Giant</t>
-  </si>
-  <si>
-    <t>Železni velikan</t>
-  </si>
-  <si>
-    <t>The Last Guardian</t>
-  </si>
-  <si>
-    <t>Zadnji varuh</t>
-  </si>
-  <si>
-    <t>The Last of Us</t>
-  </si>
-  <si>
-    <t>The Legend of Zelda</t>
-  </si>
-  <si>
-    <t>Legenda o Zeldi</t>
-  </si>
-  <si>
-    <t>The Lorax</t>
-  </si>
-  <si>
-    <t>Lorax</t>
-  </si>
-  <si>
-    <t>The Neverhood</t>
-  </si>
-  <si>
-    <t>Neverhood</t>
-  </si>
-  <si>
-    <t>The Owl House</t>
-  </si>
-  <si>
-    <t>Hiša sove</t>
-  </si>
-  <si>
-    <t>The Princess and the Frog</t>
-  </si>
-  <si>
-    <t>Princesa in žaba</t>
-  </si>
-  <si>
-    <t>The Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>Oddaja Ren in Stimpy</t>
-  </si>
-  <si>
-    <t>The Road to El Dorado</t>
-  </si>
-  <si>
-    <t>Pot v El Dorado</t>
-  </si>
-  <si>
-    <t>The Texas Chainsaw Massacre</t>
-  </si>
-  <si>
-    <t>Teksaški pokol z motorno žago</t>
-  </si>
-  <si>
-    <t>The Three Caballeros</t>
-  </si>
-  <si>
-    <t>Trije Caballerosi</t>
-  </si>
-  <si>
-    <t>The Walten Files</t>
-  </si>
-  <si>
-    <t>Datoteke Walten</t>
-  </si>
-  <si>
-    <t>The Woody Woodpecker Show</t>
-  </si>
-  <si>
-    <t>Oddaja Woody Woodpecker</t>
-  </si>
-  <si>
-    <t>Thomas &amp; Friends</t>
-  </si>
-  <si>
-    <t>Tomaž in prijatelji</t>
-  </si>
-  <si>
-    <t>Thor</t>
-  </si>
-  <si>
-    <t>Those Nights at Rachel's</t>
-  </si>
-  <si>
-    <t>Tiste noči pri Rachel</t>
-  </si>
-  <si>
-    <t>Tinker's Construct</t>
-  </si>
-  <si>
-    <t>Konstrukcija Tinker's Construct</t>
-  </si>
-  <si>
-    <t>Titanfall</t>
-  </si>
-  <si>
-    <t>Tokyo Ghoul</t>
-  </si>
-  <si>
-    <t>Tom and Jerry</t>
-  </si>
-  <si>
-    <t>Tom in Jerry</t>
-  </si>
-  <si>
-    <t>Tomb Raider</t>
-  </si>
-  <si>
-    <t>Tomorrow's Pioneers</t>
-  </si>
-  <si>
-    <t>Pionirji jutrišnjega dne</t>
-  </si>
-  <si>
-    <t>Tooth Gap</t>
-  </si>
-  <si>
-    <t>Zobna vrzel</t>
-  </si>
-  <si>
-    <t>Toradora</t>
-  </si>
-  <si>
-    <t>Total Drama Island</t>
-  </si>
-  <si>
-    <t>Skupaj Drama Otok</t>
-  </si>
-  <si>
-    <t>Touhou Project</t>
-  </si>
-  <si>
-    <t>Projekt Touhou</t>
-  </si>
-  <si>
-    <t>Toy</t>
-  </si>
-  <si>
-    <t>Igrača</t>
-  </si>
-  <si>
-    <t>Toy Story</t>
-  </si>
-  <si>
-    <t>Zgodba o igračah</t>
-  </si>
-  <si>
-    <t>Traffic</t>
-  </si>
-  <si>
-    <t>Promet</t>
-  </si>
-  <si>
-    <t>Traffic Light</t>
-  </si>
-  <si>
-    <t>Semafor</t>
-  </si>
-  <si>
-    <t>Traffic Sign</t>
-  </si>
-  <si>
-    <t>Prometni znak</t>
-  </si>
-  <si>
-    <t>Trails and Tales</t>
-  </si>
-  <si>
-    <t>Poti in zgodbe</t>
-  </si>
-  <si>
-    <t>Transformers</t>
-  </si>
-  <si>
-    <t>Transformerji</t>
-  </si>
-  <si>
-    <t>Transformice</t>
-  </si>
-  <si>
-    <t>Transparent Head</t>
-  </si>
-  <si>
-    <t>Prozorna glava</t>
-  </si>
-  <si>
-    <t>Trash Can</t>
-  </si>
-  <si>
-    <t>Koš za smeti</t>
-  </si>
-  <si>
-    <t>Treasure</t>
-  </si>
-  <si>
-    <t>Zaklad</t>
-  </si>
-  <si>
-    <t>Treasure Planet</t>
-  </si>
-  <si>
-    <t>Planet zakladov</t>
-  </si>
-  <si>
-    <t>Tricky Trials Update</t>
-  </si>
-  <si>
-    <t>Posodobitev zahtevnih preizkušenj</t>
-  </si>
-  <si>
-    <t>Tron</t>
-  </si>
-  <si>
-    <t>Turtle</t>
-  </si>
-  <si>
-    <t>Želva</t>
-  </si>
-  <si>
-    <t>Twilight Forest</t>
-  </si>
-  <si>
-    <t>Gozd somraka</t>
-  </si>
-  <si>
-    <t>Twisted Wonderland</t>
-  </si>
-  <si>
-    <t>Ultrakill</t>
-  </si>
-  <si>
-    <t>Umineko - When They Cry</t>
-  </si>
-  <si>
-    <t>Umineko - Ko jočejo</t>
-  </si>
-  <si>
-    <t>Undertale</t>
-  </si>
-  <si>
-    <t>Undertale AU</t>
-  </si>
-  <si>
-    <t>Undertale Yellow</t>
-  </si>
-  <si>
-    <t>Undertale rumena</t>
-  </si>
-  <si>
-    <t>Universal Symbol</t>
-  </si>
-  <si>
-    <t>Univerzalni simbol</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>Do</t>
-  </si>
-  <si>
-    <t>Urban Wildlife</t>
-  </si>
-  <si>
-    <t>Divje živali v mestih</t>
-  </si>
-  <si>
-    <t>V for Vendetta</t>
-  </si>
-  <si>
-    <t>V kot Vendeta</t>
-  </si>
-  <si>
-    <t>Valentines</t>
-  </si>
-  <si>
-    <t>Valentinovo</t>
-  </si>
-  <si>
-    <t>Valorant</t>
-  </si>
-  <si>
-    <t>Vanilla (removed)</t>
-  </si>
-  <si>
-    <t>Vanilija (odstranjeno)</t>
-  </si>
-  <si>
-    <t>Vanilla Block</t>
-  </si>
-  <si>
-    <t>Vanilijev blok</t>
-  </si>
-  <si>
-    <t>Vanilla Food</t>
-  </si>
-  <si>
-    <t>Hrana iz vanilije</t>
-  </si>
-  <si>
-    <t>Vanilla Helmet</t>
-  </si>
-  <si>
-    <t>Čelada Vanilla</t>
-  </si>
-  <si>
-    <t>Vanilla Item</t>
-  </si>
-  <si>
-    <t>Vanilija Element</t>
-  </si>
-  <si>
-    <t>Vanilla Mob</t>
-  </si>
-  <si>
-    <t>Vault Hunters</t>
-  </si>
-  <si>
-    <t>Lovci na trezorje</t>
-  </si>
-  <si>
-    <t>Vegetable</t>
-  </si>
-  <si>
-    <t>Zelenjava</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>Vozilo</t>
-  </si>
-  <si>
-    <t>Vikings</t>
-  </si>
-  <si>
-    <t>Vikingi</t>
-  </si>
-  <si>
-    <t>Villager</t>
-  </si>
-  <si>
-    <t>Vasilec</t>
-  </si>
-  <si>
-    <t>Villager (Desert)</t>
-  </si>
-  <si>
-    <t>vaščan (puščava)</t>
-  </si>
-  <si>
-    <t>Villager (Jungle)</t>
-  </si>
-  <si>
-    <t>vaščan (džungla)</t>
-  </si>
-  <si>
-    <t>Villager (Plains)</t>
-  </si>
-  <si>
-    <t>vaščan (ravnina)</t>
-  </si>
-  <si>
-    <t>Villager (Savanna)</t>
-  </si>
-  <si>
-    <t>vaščan (Savanna)</t>
-  </si>
-  <si>
-    <t>Villager (Snowy Tundra)</t>
-  </si>
-  <si>
-    <t>vaščan (Snežna tundra)</t>
-  </si>
-  <si>
-    <t>Villager (Swamp)</t>
-  </si>
-  <si>
-    <t>vaščan (močvirje)</t>
-  </si>
-  <si>
-    <t>Villager (Taiga)</t>
-  </si>
-  <si>
-    <t>vaščan (Tajga)</t>
-  </si>
-  <si>
-    <t>Virtual Youtuber</t>
-  </si>
-  <si>
-    <t>Virtualni Youtuber</t>
-  </si>
-  <si>
-    <t>Vocaloid</t>
-  </si>
-  <si>
-    <t>Voltron</t>
-  </si>
-  <si>
-    <t>Wakfu</t>
-  </si>
-  <si>
-    <t>Walking Dead</t>
-  </si>
-  <si>
-    <t>Hoja po mrtvih (Walking Dead)</t>
-  </si>
-  <si>
-    <t>Wall-E</t>
-  </si>
-  <si>
-    <t>Wallace and Gromit</t>
-  </si>
-  <si>
-    <t>Wallace in Gromit</t>
-  </si>
-  <si>
-    <t>War of the Worlds</t>
-  </si>
-  <si>
-    <t>Vojna svetov</t>
-  </si>
-  <si>
-    <t>Warcraft</t>
-  </si>
-  <si>
-    <t>Warframe</t>
-  </si>
-  <si>
-    <t>Warhammer</t>
-  </si>
-  <si>
-    <t>Warrior Cats</t>
-  </si>
-  <si>
-    <t>Bojevniške mačke</t>
-  </si>
-  <si>
-    <t>We Bear Bears</t>
-  </si>
-  <si>
-    <t>Mi nosimo medvede</t>
-  </si>
-  <si>
-    <t>We Happy Few</t>
-  </si>
-  <si>
-    <t>Mi smo srečni maloštevilni</t>
-  </si>
-  <si>
-    <t>Weather</t>
-  </si>
-  <si>
-    <t>Vreme</t>
-  </si>
-  <si>
-    <t>Welcome Home</t>
-  </si>
-  <si>
-    <t>Dobrodošli doma</t>
-  </si>
-  <si>
-    <t>Who is this?</t>
-  </si>
-  <si>
-    <t>Kdo je to?</t>
-  </si>
-  <si>
-    <t>Wild Update</t>
-  </si>
-  <si>
-    <t>Posodobitev divjine</t>
-  </si>
-  <si>
-    <t>Wings of Fire</t>
-  </si>
-  <si>
-    <t>Krila ognja</t>
-  </si>
-  <si>
-    <t>Winnie the Pooh</t>
-  </si>
-  <si>
-    <t>Medvedek Pujsek</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>Zima</t>
-  </si>
-  <si>
-    <t>Witcher</t>
-  </si>
-  <si>
-    <t>Wonderful Wonder World</t>
-  </si>
-  <si>
-    <t>Čudoviti svet čudes</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Les</t>
-  </si>
-  <si>
-    <t>Wool</t>
-  </si>
-  <si>
-    <t>Volna</t>
-  </si>
-  <si>
-    <t>Work Safety Helmet</t>
-  </si>
-  <si>
-    <t>Delovna varnostna čelada</t>
-  </si>
-  <si>
-    <t>Wreck It Ralph</t>
-  </si>
-  <si>
-    <t>Razbij ga, Ralph</t>
-  </si>
-  <si>
-    <t>Wybel</t>
-  </si>
-  <si>
-    <t>Wynncraft</t>
-  </si>
-  <si>
-    <t>X-Men</t>
-  </si>
-  <si>
-    <t>Možje X</t>
-  </si>
-  <si>
-    <t>Xenoblade Chronicles</t>
-  </si>
-  <si>
-    <t>Yandere Simulator</t>
-  </si>
-  <si>
-    <t>Simulator Yandere</t>
-  </si>
-  <si>
-    <t>Yellow Submarine</t>
-  </si>
-  <si>
-    <t>Rumena podmornica</t>
-  </si>
-  <si>
-    <t>Yokai</t>
-  </si>
-  <si>
-    <t>Yooka Laylee</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>Mladi</t>
-  </si>
-  <si>
-    <t>Youtube</t>
-  </si>
-  <si>
-    <t>Yu-Gi-Oh</t>
-  </si>
-  <si>
-    <t>Yume Nikki</t>
-  </si>
-  <si>
-    <t>Zero no Tsukaima</t>
-  </si>
-  <si>
-    <t>Zero Wing</t>
-  </si>
-  <si>
-    <t>Ničelno krilo</t>
-  </si>
-  <si>
-    <t>Zodiac Sign</t>
-  </si>
-  <si>
-    <t>Zodiakalni znak</t>
-  </si>
-  <si>
-    <t>Zombie</t>
-  </si>
-  <si>
-    <t>Zombie (Vanilla)</t>
-  </si>
-  <si>
-    <t>Zombie (vanilija)</t>
-  </si>
-  <si>
-    <t>Zootopia</t>
-  </si>
-  <si>
-    <t>Zootopija</t>
   </si>
   <si>
     <t>Fall Drop</t>
@@ -6300,7 +6306,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1176"/>
+  <dimension ref="A1:B1177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -15721,8 +15727,16 @@
         <v>1978</v>
       </c>
     </row>
+    <row r="1177" spans="1:2">
+      <c r="A1177" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>1980</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1176"/>
+  <autoFilter ref="A1:B1177"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
